--- a/04_Model_Saved/NN_full_v3_BO_optimal/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_mc_shared_relu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_mc_shared_relu.xlsx
@@ -505,16 +505,16 @@
         <v>14.31699359657089</v>
       </c>
       <c r="G2" t="n">
-        <v>218.8650512695312</v>
+        <v>214.2484283447266</v>
       </c>
       <c r="H2" t="n">
-        <v>62.37911987304688</v>
+        <v>62.09650802612305</v>
       </c>
       <c r="I2" t="n">
-        <v>618.787109375</v>
+        <v>621.3428344726562</v>
       </c>
       <c r="J2" t="n">
-        <v>148.9316558837891</v>
+        <v>148.4475250244141</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>15.27891067420843</v>
       </c>
       <c r="G3" t="n">
-        <v>228.1401824951172</v>
+        <v>229.1256256103516</v>
       </c>
       <c r="H3" t="n">
-        <v>81.4259033203125</v>
+        <v>90.64213562011719</v>
       </c>
       <c r="I3" t="n">
-        <v>687.0904541015625</v>
+        <v>681.1031494140625</v>
       </c>
       <c r="J3" t="n">
-        <v>160.8459625244141</v>
+        <v>163.5123748779297</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>15.85974020072816</v>
       </c>
       <c r="G4" t="n">
-        <v>240.2294769287109</v>
+        <v>241.0333862304688</v>
       </c>
       <c r="H4" t="n">
-        <v>97.38859558105469</v>
+        <v>103.2833099365234</v>
       </c>
       <c r="I4" t="n">
-        <v>714.003662109375</v>
+        <v>715.3594970703125</v>
       </c>
       <c r="J4" t="n">
-        <v>160.8658905029297</v>
+        <v>150.9918518066406</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>16.6254486072678</v>
       </c>
       <c r="G5" t="n">
-        <v>281.5084228515625</v>
+        <v>273.4612731933594</v>
       </c>
       <c r="H5" t="n">
-        <v>129.1220092773438</v>
+        <v>125.4647216796875</v>
       </c>
       <c r="I5" t="n">
-        <v>748.6156005859375</v>
+        <v>738.4607543945312</v>
       </c>
       <c r="J5" t="n">
-        <v>151.071044921875</v>
+        <v>143.5291442871094</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>16.72168606967666</v>
       </c>
       <c r="G6" t="n">
-        <v>348.7415771484375</v>
+        <v>346.1142272949219</v>
       </c>
       <c r="H6" t="n">
-        <v>163.695556640625</v>
+        <v>174.3550567626953</v>
       </c>
       <c r="I6" t="n">
-        <v>762.91650390625</v>
+        <v>768.51904296875</v>
       </c>
       <c r="J6" t="n">
-        <v>138.0438537597656</v>
+        <v>141.7626647949219</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>17.58023045110392</v>
       </c>
       <c r="G7" t="n">
-        <v>226.6918792724609</v>
+        <v>228.2610168457031</v>
       </c>
       <c r="H7" t="n">
-        <v>57.16098403930664</v>
+        <v>55.0653076171875</v>
       </c>
       <c r="I7" t="n">
-        <v>548.6929321289062</v>
+        <v>549.9440307617188</v>
       </c>
       <c r="J7" t="n">
-        <v>93.70616912841797</v>
+        <v>95.69780731201172</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>18.57818076528054</v>
       </c>
       <c r="G8" t="n">
-        <v>229.2498474121094</v>
+        <v>229.9762573242188</v>
       </c>
       <c r="H8" t="n">
-        <v>53.18313598632812</v>
+        <v>50.68600082397461</v>
       </c>
       <c r="I8" t="n">
-        <v>574.4642944335938</v>
+        <v>568.5783081054688</v>
       </c>
       <c r="J8" t="n">
-        <v>112.0125045776367</v>
+        <v>113.9909973144531</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>19.60838259075554</v>
       </c>
       <c r="G9" t="n">
-        <v>230.1908874511719</v>
+        <v>233.4077606201172</v>
       </c>
       <c r="H9" t="n">
-        <v>55.02953720092773</v>
+        <v>60.23193359375</v>
       </c>
       <c r="I9" t="n">
-        <v>616.1949462890625</v>
+        <v>615.2314453125</v>
       </c>
       <c r="J9" t="n">
-        <v>130.4210968017578</v>
+        <v>140.4947357177734</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>20.10500298210745</v>
       </c>
       <c r="G10" t="n">
-        <v>242.8854217529297</v>
+        <v>241.8104705810547</v>
       </c>
       <c r="H10" t="n">
-        <v>70.93695831298828</v>
+        <v>71.21465301513672</v>
       </c>
       <c r="I10" t="n">
-        <v>645.9244995117188</v>
+        <v>645.9528198242188</v>
       </c>
       <c r="J10" t="n">
-        <v>135.6075897216797</v>
+        <v>147.7745361328125</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>20.82282672295324</v>
       </c>
       <c r="G11" t="n">
-        <v>269.0597534179688</v>
+        <v>272.7491455078125</v>
       </c>
       <c r="H11" t="n">
-        <v>107.2276229858398</v>
+        <v>97.66683197021484</v>
       </c>
       <c r="I11" t="n">
-        <v>695.1251831054688</v>
+        <v>691.427001953125</v>
       </c>
       <c r="J11" t="n">
-        <v>158.7637481689453</v>
+        <v>150.1758117675781</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>21.05931589769223</v>
       </c>
       <c r="G12" t="n">
-        <v>334.2241821289062</v>
+        <v>340.1446228027344</v>
       </c>
       <c r="H12" t="n">
-        <v>150.0033111572266</v>
+        <v>159.2243957519531</v>
       </c>
       <c r="I12" t="n">
-        <v>721.4799194335938</v>
+        <v>717.9306030273438</v>
       </c>
       <c r="J12" t="n">
-        <v>152.3955535888672</v>
+        <v>153.0184326171875</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>21.38449445236935</v>
       </c>
       <c r="G13" t="n">
-        <v>464.2629089355469</v>
+        <v>470.5432739257812</v>
       </c>
       <c r="H13" t="n">
-        <v>189.3484344482422</v>
+        <v>185.3822937011719</v>
       </c>
       <c r="I13" t="n">
-        <v>752.5883178710938</v>
+        <v>746.9620971679688</v>
       </c>
       <c r="J13" t="n">
-        <v>151.1558074951172</v>
+        <v>148.8192749023438</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>19.79697020692051</v>
       </c>
       <c r="G14" t="n">
-        <v>204.5279083251953</v>
+        <v>205.7019195556641</v>
       </c>
       <c r="H14" t="n">
-        <v>62.1490364074707</v>
+        <v>55.85533142089844</v>
       </c>
       <c r="I14" t="n">
-        <v>375.0495300292969</v>
+        <v>377.08203125</v>
       </c>
       <c r="J14" t="n">
-        <v>83.5416259765625</v>
+        <v>78.73817443847656</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>21.48203443327129</v>
       </c>
       <c r="G15" t="n">
-        <v>225.2439270019531</v>
+        <v>222.3076324462891</v>
       </c>
       <c r="H15" t="n">
-        <v>51.77204513549805</v>
+        <v>55.56987380981445</v>
       </c>
       <c r="I15" t="n">
-        <v>478.6760864257812</v>
+        <v>482.0995788574219</v>
       </c>
       <c r="J15" t="n">
-        <v>84.46511077880859</v>
+        <v>82.89827728271484</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>22.47631622738632</v>
       </c>
       <c r="G16" t="n">
-        <v>242.9281005859375</v>
+        <v>243.4912567138672</v>
       </c>
       <c r="H16" t="n">
-        <v>46.2829704284668</v>
+        <v>47.53863143920898</v>
       </c>
       <c r="I16" t="n">
-        <v>594.2196044921875</v>
+        <v>593.5679321289062</v>
       </c>
       <c r="J16" t="n">
-        <v>91.88533020019531</v>
+        <v>91.96947479248047</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>24.35763244318183</v>
       </c>
       <c r="G17" t="n">
-        <v>247.87060546875</v>
+        <v>244.7837982177734</v>
       </c>
       <c r="H17" t="n">
-        <v>45.3025016784668</v>
+        <v>45.09387969970703</v>
       </c>
       <c r="I17" t="n">
-        <v>597.5729370117188</v>
+        <v>599.767822265625</v>
       </c>
       <c r="J17" t="n">
-        <v>107.1183471679688</v>
+        <v>102.7739410400391</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>25.62064236797445</v>
       </c>
       <c r="G18" t="n">
-        <v>252.9389801025391</v>
+        <v>253.3889770507812</v>
       </c>
       <c r="H18" t="n">
-        <v>42.79239654541016</v>
+        <v>39.89591217041016</v>
       </c>
       <c r="I18" t="n">
-        <v>633.5440063476562</v>
+        <v>630.04150390625</v>
       </c>
       <c r="J18" t="n">
-        <v>116.1416854858398</v>
+        <v>115.4345245361328</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>25.92967709475499</v>
       </c>
       <c r="G19" t="n">
-        <v>274.6295166015625</v>
+        <v>272.9617614746094</v>
       </c>
       <c r="H19" t="n">
-        <v>80.58859252929688</v>
+        <v>64.85958862304688</v>
       </c>
       <c r="I19" t="n">
-        <v>672.4769897460938</v>
+        <v>665.0413818359375</v>
       </c>
       <c r="J19" t="n">
-        <v>126.5244674682617</v>
+        <v>121.4585647583008</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>26.19588155013293</v>
       </c>
       <c r="G20" t="n">
-        <v>329.7502746582031</v>
+        <v>339.7970275878906</v>
       </c>
       <c r="H20" t="n">
-        <v>129.2669067382812</v>
+        <v>146.7615509033203</v>
       </c>
       <c r="I20" t="n">
-        <v>705.8442993164062</v>
+        <v>699.2562866210938</v>
       </c>
       <c r="J20" t="n">
-        <v>130.9466094970703</v>
+        <v>133.5455627441406</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>25.87267490890685</v>
       </c>
       <c r="G21" t="n">
-        <v>491.918701171875</v>
+        <v>482.8505859375</v>
       </c>
       <c r="H21" t="n">
-        <v>187.5536956787109</v>
+        <v>184.0076446533203</v>
       </c>
       <c r="I21" t="n">
-        <v>717.4991455078125</v>
+        <v>732.6013793945312</v>
       </c>
       <c r="J21" t="n">
-        <v>149.7425842285156</v>
+        <v>151.5763397216797</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>24.64055238634836</v>
       </c>
       <c r="G22" t="n">
-        <v>711.4058837890625</v>
+        <v>716.0541381835938</v>
       </c>
       <c r="H22" t="n">
-        <v>101.9684066772461</v>
+        <v>98.32571411132812</v>
       </c>
       <c r="I22" t="n">
-        <v>738.1646118164062</v>
+        <v>745.225830078125</v>
       </c>
       <c r="J22" t="n">
-        <v>167.8213653564453</v>
+        <v>157.5870361328125</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>24.69862396067251</v>
       </c>
       <c r="G23" t="n">
-        <v>201.1324768066406</v>
+        <v>197.4093170166016</v>
       </c>
       <c r="H23" t="n">
-        <v>60.78565216064453</v>
+        <v>59.36936950683594</v>
       </c>
       <c r="I23" t="n">
-        <v>253.1038513183594</v>
+        <v>254.6461791992188</v>
       </c>
       <c r="J23" t="n">
-        <v>75.66333770751953</v>
+        <v>74.74025726318359</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>27.11629087610016</v>
       </c>
       <c r="G24" t="n">
-        <v>220.5569305419922</v>
+        <v>220.4810638427734</v>
       </c>
       <c r="H24" t="n">
-        <v>55.43111801147461</v>
+        <v>56.06955718994141</v>
       </c>
       <c r="I24" t="n">
-        <v>340.7835998535156</v>
+        <v>341.0890502929688</v>
       </c>
       <c r="J24" t="n">
-        <v>82.83154296875</v>
+        <v>81.58383941650391</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>28.97995691733995</v>
       </c>
       <c r="G25" t="n">
-        <v>242.4474945068359</v>
+        <v>241.68896484375</v>
       </c>
       <c r="H25" t="n">
-        <v>48.70909118652344</v>
+        <v>48.63038635253906</v>
       </c>
       <c r="I25" t="n">
-        <v>458.3212890625</v>
+        <v>462.467041015625</v>
       </c>
       <c r="J25" t="n">
-        <v>80.84146118164062</v>
+        <v>86.9183349609375</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>30.34265377319738</v>
       </c>
       <c r="G26" t="n">
-        <v>258.6897583007812</v>
+        <v>256.5619506835938</v>
       </c>
       <c r="H26" t="n">
-        <v>47.99088668823242</v>
+        <v>46.46042633056641</v>
       </c>
       <c r="I26" t="n">
-        <v>527.333740234375</v>
+        <v>531.2840576171875</v>
       </c>
       <c r="J26" t="n">
-        <v>89.62060546875</v>
+        <v>91.55374908447266</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>31.86528713449996</v>
       </c>
       <c r="G27" t="n">
-        <v>272.92236328125</v>
+        <v>274.5911865234375</v>
       </c>
       <c r="H27" t="n">
-        <v>43.01394653320312</v>
+        <v>40.67938613891602</v>
       </c>
       <c r="I27" t="n">
-        <v>601.7129516601562</v>
+        <v>607.2616577148438</v>
       </c>
       <c r="J27" t="n">
-        <v>105.4683227539062</v>
+        <v>94.75961303710938</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>31.70139237157215</v>
       </c>
       <c r="G28" t="n">
-        <v>294.3984069824219</v>
+        <v>295.626220703125</v>
       </c>
       <c r="H28" t="n">
-        <v>57.75542831420898</v>
+        <v>55.61898040771484</v>
       </c>
       <c r="I28" t="n">
-        <v>650.9712524414062</v>
+        <v>658.7726440429688</v>
       </c>
       <c r="J28" t="n">
-        <v>112.5786972045898</v>
+        <v>108.9414367675781</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>31.7420363140709</v>
       </c>
       <c r="G29" t="n">
-        <v>333.7253723144531</v>
+        <v>335.3799438476562</v>
       </c>
       <c r="H29" t="n">
-        <v>87.10335540771484</v>
+        <v>88.01173400878906</v>
       </c>
       <c r="I29" t="n">
-        <v>678.244140625</v>
+        <v>668.8640747070312</v>
       </c>
       <c r="J29" t="n">
-        <v>127.6733703613281</v>
+        <v>129.6396484375</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>30.76237588603813</v>
       </c>
       <c r="G30" t="n">
-        <v>511.6921997070312</v>
+        <v>512.90576171875</v>
       </c>
       <c r="H30" t="n">
-        <v>160.7345733642578</v>
+        <v>160.9347686767578</v>
       </c>
       <c r="I30" t="n">
-        <v>695.3788452148438</v>
+        <v>695.1844482421875</v>
       </c>
       <c r="J30" t="n">
-        <v>135.0188140869141</v>
+        <v>135.1282348632812</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>29.73442789455431</v>
       </c>
       <c r="G31" t="n">
-        <v>714.7469482421875</v>
+        <v>710.6809692382812</v>
       </c>
       <c r="H31" t="n">
-        <v>78.60360717773438</v>
+        <v>81.66402435302734</v>
       </c>
       <c r="I31" t="n">
-        <v>720.6090698242188</v>
+        <v>719.47314453125</v>
       </c>
       <c r="J31" t="n">
-        <v>180.6629180908203</v>
+        <v>183.0017547607422</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>30.37782838567884</v>
       </c>
       <c r="G32" t="n">
-        <v>200.4477081298828</v>
+        <v>196.3543243408203</v>
       </c>
       <c r="H32" t="n">
-        <v>58.4712028503418</v>
+        <v>53.96751403808594</v>
       </c>
       <c r="I32" t="n">
-        <v>162.7292327880859</v>
+        <v>160.4162292480469</v>
       </c>
       <c r="J32" t="n">
-        <v>75.65286254882812</v>
+        <v>73.56410980224609</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>33.11659379389907</v>
       </c>
       <c r="G33" t="n">
-        <v>222.7085113525391</v>
+        <v>224.7847137451172</v>
       </c>
       <c r="H33" t="n">
-        <v>49.87228012084961</v>
+        <v>51.91462707519531</v>
       </c>
       <c r="I33" t="n">
-        <v>241.3639831542969</v>
+        <v>245.4148712158203</v>
       </c>
       <c r="J33" t="n">
-        <v>81.32025146484375</v>
+        <v>84.40430450439453</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>35.40504769440309</v>
       </c>
       <c r="G34" t="n">
-        <v>242.9502105712891</v>
+        <v>245.4919586181641</v>
       </c>
       <c r="H34" t="n">
-        <v>48.05030822753906</v>
+        <v>49.07003402709961</v>
       </c>
       <c r="I34" t="n">
-        <v>363.4937133789062</v>
+        <v>355.6275024414062</v>
       </c>
       <c r="J34" t="n">
-        <v>89.70890808105469</v>
+        <v>88.91469573974609</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>37.57764389518124</v>
       </c>
       <c r="G35" t="n">
-        <v>263.6156921386719</v>
+        <v>264.3806457519531</v>
       </c>
       <c r="H35" t="n">
-        <v>43.82790374755859</v>
+        <v>44.82876205444336</v>
       </c>
       <c r="I35" t="n">
-        <v>445.8105163574219</v>
+        <v>443.7677612304688</v>
       </c>
       <c r="J35" t="n">
-        <v>93.05787658691406</v>
+        <v>92.66142272949219</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>38.09115608907656</v>
       </c>
       <c r="G36" t="n">
-        <v>288.9566040039062</v>
+        <v>286.5954284667969</v>
       </c>
       <c r="H36" t="n">
-        <v>44.47116088867188</v>
+        <v>42.16662979125977</v>
       </c>
       <c r="I36" t="n">
-        <v>538.6465454101562</v>
+        <v>544.8680419921875</v>
       </c>
       <c r="J36" t="n">
-        <v>99.91943359375</v>
+        <v>105.3859176635742</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>38.33579750611559</v>
       </c>
       <c r="G37" t="n">
-        <v>310.41748046875</v>
+        <v>310.7694702148438</v>
       </c>
       <c r="H37" t="n">
-        <v>49.95033264160156</v>
+        <v>48.43587112426758</v>
       </c>
       <c r="I37" t="n">
-        <v>607.9525146484375</v>
+        <v>602.0704956054688</v>
       </c>
       <c r="J37" t="n">
-        <v>115.4291763305664</v>
+        <v>113.8483963012695</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>37.89528654115976</v>
       </c>
       <c r="G38" t="n">
-        <v>362.9985046386719</v>
+        <v>363.43603515625</v>
       </c>
       <c r="H38" t="n">
-        <v>68.42169189453125</v>
+        <v>65.93356323242188</v>
       </c>
       <c r="I38" t="n">
-        <v>650.3330688476562</v>
+        <v>651.4855346679688</v>
       </c>
       <c r="J38" t="n">
-        <v>134.0805053710938</v>
+        <v>127.8571319580078</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>37.04916938976096</v>
       </c>
       <c r="G39" t="n">
-        <v>503.0759887695312</v>
+        <v>512.4603881835938</v>
       </c>
       <c r="H39" t="n">
-        <v>110.4440002441406</v>
+        <v>118.2399520874023</v>
       </c>
       <c r="I39" t="n">
-        <v>656.6257934570312</v>
+        <v>648.3839721679688</v>
       </c>
       <c r="J39" t="n">
-        <v>149.8455200195312</v>
+        <v>150.7570953369141</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>35.00856026880581</v>
       </c>
       <c r="G40" t="n">
-        <v>692.3340454101562</v>
+        <v>693.802734375</v>
       </c>
       <c r="H40" t="n">
-        <v>84.8717041015625</v>
+        <v>84.96099853515625</v>
       </c>
       <c r="I40" t="n">
-        <v>654.3692016601562</v>
+        <v>657.4124755859375</v>
       </c>
       <c r="J40" t="n">
-        <v>200.6623840332031</v>
+        <v>192.5034484863281</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>37.58863922492247</v>
       </c>
       <c r="G41" t="n">
-        <v>209.4875335693359</v>
+        <v>208.7915954589844</v>
       </c>
       <c r="H41" t="n">
-        <v>51.92657089233398</v>
+        <v>50.09195709228516</v>
       </c>
       <c r="I41" t="n">
-        <v>112.5500411987305</v>
+        <v>112.6181259155273</v>
       </c>
       <c r="J41" t="n">
-        <v>70.35556030273438</v>
+        <v>70.41133880615234</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>40.4685427958547</v>
       </c>
       <c r="G42" t="n">
-        <v>222.8584136962891</v>
+        <v>227.0793762207031</v>
       </c>
       <c r="H42" t="n">
-        <v>53.45405578613281</v>
+        <v>49.06803894042969</v>
       </c>
       <c r="I42" t="n">
-        <v>164.9940490722656</v>
+        <v>162.5026092529297</v>
       </c>
       <c r="J42" t="n">
-        <v>79.77783203125</v>
+        <v>80.43895721435547</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>42.41365999634309</v>
       </c>
       <c r="G43" t="n">
-        <v>243.4478607177734</v>
+        <v>245.4803314208984</v>
       </c>
       <c r="H43" t="n">
-        <v>46.00561141967773</v>
+        <v>45.28732299804688</v>
       </c>
       <c r="I43" t="n">
-        <v>216.2975006103516</v>
+        <v>216.2354888916016</v>
       </c>
       <c r="J43" t="n">
-        <v>94.19766998291016</v>
+        <v>97.17864990234375</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>44.05056700894834</v>
       </c>
       <c r="G44" t="n">
-        <v>270.4198913574219</v>
+        <v>267.9581909179688</v>
       </c>
       <c r="H44" t="n">
-        <v>43.81291580200195</v>
+        <v>43.38228607177734</v>
       </c>
       <c r="I44" t="n">
-        <v>355.22412109375</v>
+        <v>354.7415466308594</v>
       </c>
       <c r="J44" t="n">
-        <v>104.2062835693359</v>
+        <v>106.9324340820312</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>45.28527361475503</v>
       </c>
       <c r="G45" t="n">
-        <v>285.769775390625</v>
+        <v>285.8630065917969</v>
       </c>
       <c r="H45" t="n">
-        <v>42.04244995117188</v>
+        <v>39.97550201416016</v>
       </c>
       <c r="I45" t="n">
-        <v>425.1327819824219</v>
+        <v>424.0132446289062</v>
       </c>
       <c r="J45" t="n">
-        <v>109.9676513671875</v>
+        <v>106.0913925170898</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>45.11415223222625</v>
       </c>
       <c r="G46" t="n">
-        <v>318.3356628417969</v>
+        <v>319.1852722167969</v>
       </c>
       <c r="H46" t="n">
-        <v>48.53350067138672</v>
+        <v>47.13006973266602</v>
       </c>
       <c r="I46" t="n">
-        <v>524.4970703125</v>
+        <v>521.2057495117188</v>
       </c>
       <c r="J46" t="n">
-        <v>113.6466369628906</v>
+        <v>123.2418746948242</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>44.97584185956661</v>
       </c>
       <c r="G47" t="n">
-        <v>391.5711669921875</v>
+        <v>386.3479919433594</v>
       </c>
       <c r="H47" t="n">
-        <v>68.08525085449219</v>
+        <v>68.33426666259766</v>
       </c>
       <c r="I47" t="n">
-        <v>586.4442749023438</v>
+        <v>587.7896728515625</v>
       </c>
       <c r="J47" t="n">
-        <v>143.2338104248047</v>
+        <v>140.0316467285156</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>42.0865253634753</v>
       </c>
       <c r="G48" t="n">
-        <v>522.3192138671875</v>
+        <v>518.2006225585938</v>
       </c>
       <c r="H48" t="n">
-        <v>97.66602325439453</v>
+        <v>96.23110198974609</v>
       </c>
       <c r="I48" t="n">
-        <v>622.8717651367188</v>
+        <v>622.409912109375</v>
       </c>
       <c r="J48" t="n">
-        <v>176.0522766113281</v>
+        <v>170.2122497558594</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>40.81585186348995</v>
       </c>
       <c r="G49" t="n">
-        <v>663.4998168945312</v>
+        <v>659.8650512695312</v>
       </c>
       <c r="H49" t="n">
-        <v>92.44284057617188</v>
+        <v>90.03067779541016</v>
       </c>
       <c r="I49" t="n">
-        <v>609.3306274414062</v>
+        <v>613.0346069335938</v>
       </c>
       <c r="J49" t="n">
-        <v>191.9902038574219</v>
+        <v>193.1767883300781</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>45.37200448015243</v>
       </c>
       <c r="G50" t="n">
-        <v>218.7810974121094</v>
+        <v>220.7533264160156</v>
       </c>
       <c r="H50" t="n">
-        <v>51.23431777954102</v>
+        <v>51.82533264160156</v>
       </c>
       <c r="I50" t="n">
-        <v>51.8792724609375</v>
+        <v>57.52901840209961</v>
       </c>
       <c r="J50" t="n">
-        <v>70.26209259033203</v>
+        <v>70.00411987304688</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>48.78786662406539</v>
       </c>
       <c r="G51" t="n">
-        <v>240.0418701171875</v>
+        <v>238.8369293212891</v>
       </c>
       <c r="H51" t="n">
-        <v>46.7203369140625</v>
+        <v>43.96908569335938</v>
       </c>
       <c r="I51" t="n">
-        <v>89.36972808837891</v>
+        <v>95.31690216064453</v>
       </c>
       <c r="J51" t="n">
-        <v>78.58060455322266</v>
+        <v>80.87790679931641</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>50.73675625671652</v>
       </c>
       <c r="G52" t="n">
-        <v>254.0359649658203</v>
+        <v>250.3618011474609</v>
       </c>
       <c r="H52" t="n">
-        <v>46.60111236572266</v>
+        <v>46.5001335144043</v>
       </c>
       <c r="I52" t="n">
-        <v>122.9305725097656</v>
+        <v>125.8104019165039</v>
       </c>
       <c r="J52" t="n">
-        <v>93.72130584716797</v>
+        <v>84.66207122802734</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>51.96609868449762</v>
       </c>
       <c r="G53" t="n">
-        <v>278.0913696289062</v>
+        <v>278.4646301269531</v>
       </c>
       <c r="H53" t="n">
-        <v>42.91045761108398</v>
+        <v>41.03012466430664</v>
       </c>
       <c r="I53" t="n">
-        <v>213.7750854492188</v>
+        <v>215.8455200195312</v>
       </c>
       <c r="J53" t="n">
-        <v>118.7045440673828</v>
+        <v>119.422004699707</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>52.45736467440484</v>
       </c>
       <c r="G54" t="n">
-        <v>302.6194458007812</v>
+        <v>301.3236083984375</v>
       </c>
       <c r="H54" t="n">
-        <v>44.92011260986328</v>
+        <v>43.75926208496094</v>
       </c>
       <c r="I54" t="n">
-        <v>304.22265625</v>
+        <v>305.2735595703125</v>
       </c>
       <c r="J54" t="n">
-        <v>141.0310363769531</v>
+        <v>133.6842346191406</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>51.85220057025387</v>
       </c>
       <c r="G55" t="n">
-        <v>332.9909973144531</v>
+        <v>331.1089172363281</v>
       </c>
       <c r="H55" t="n">
-        <v>47.99691390991211</v>
+        <v>47.38762283325195</v>
       </c>
       <c r="I55" t="n">
-        <v>424.6962890625</v>
+        <v>433.0942687988281</v>
       </c>
       <c r="J55" t="n">
-        <v>140.6436157226562</v>
+        <v>146.7159881591797</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>51.37276147532685</v>
       </c>
       <c r="G56" t="n">
-        <v>398.0935974121094</v>
+        <v>394.0819091796875</v>
       </c>
       <c r="H56" t="n">
-        <v>56.77580261230469</v>
+        <v>62.29876708984375</v>
       </c>
       <c r="I56" t="n">
-        <v>486.2940673828125</v>
+        <v>494.9327697753906</v>
       </c>
       <c r="J56" t="n">
-        <v>142.8072967529297</v>
+        <v>149.8602447509766</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>49.881475732815</v>
       </c>
       <c r="G57" t="n">
-        <v>484.3763122558594</v>
+        <v>485.0119323730469</v>
       </c>
       <c r="H57" t="n">
-        <v>73.36356353759766</v>
+        <v>73.59957885742188</v>
       </c>
       <c r="I57" t="n">
-        <v>563.5530395507812</v>
+        <v>564.3363647460938</v>
       </c>
       <c r="J57" t="n">
-        <v>170.5967254638672</v>
+        <v>172.9320831298828</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>46.147295090649</v>
       </c>
       <c r="G58" t="n">
-        <v>649.93896484375</v>
+        <v>647.290771484375</v>
       </c>
       <c r="H58" t="n">
-        <v>83.23204803466797</v>
+        <v>82.3526611328125</v>
       </c>
       <c r="I58" t="n">
-        <v>548.11962890625</v>
+        <v>547.9617919921875</v>
       </c>
       <c r="J58" t="n">
-        <v>187.2268218994141</v>
+        <v>183.9193267822266</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>56.70921047332411</v>
       </c>
       <c r="G59" t="n">
-        <v>243.656982421875</v>
+        <v>243.4146118164062</v>
       </c>
       <c r="H59" t="n">
-        <v>46.50883483886719</v>
+        <v>46.54165267944336</v>
       </c>
       <c r="I59" t="n">
-        <v>16.46353912353516</v>
+        <v>19.39339065551758</v>
       </c>
       <c r="J59" t="n">
-        <v>85.49658203125</v>
+        <v>83.6910400390625</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>58.23723423416003</v>
       </c>
       <c r="G60" t="n">
-        <v>264.595947265625</v>
+        <v>264.5657958984375</v>
       </c>
       <c r="H60" t="n">
-        <v>43.44464874267578</v>
+        <v>41.9942626953125</v>
       </c>
       <c r="I60" t="n">
-        <v>42.8534049987793</v>
+        <v>43.05728912353516</v>
       </c>
       <c r="J60" t="n">
-        <v>92.42220306396484</v>
+        <v>86.66591644287109</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>59.34611390594659</v>
       </c>
       <c r="G61" t="n">
-        <v>277.5238952636719</v>
+        <v>279.596923828125</v>
       </c>
       <c r="H61" t="n">
-        <v>44.7338752746582</v>
+        <v>43.4402961730957</v>
       </c>
       <c r="I61" t="n">
-        <v>92.71400451660156</v>
+        <v>91.76950073242188</v>
       </c>
       <c r="J61" t="n">
-        <v>102.3239212036133</v>
+        <v>111.2461929321289</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>59.33493295870724</v>
       </c>
       <c r="G62" t="n">
-        <v>302.2677307128906</v>
+        <v>304.8475646972656</v>
       </c>
       <c r="H62" t="n">
-        <v>45.25443649291992</v>
+        <v>46.7520866394043</v>
       </c>
       <c r="I62" t="n">
-        <v>163.4444427490234</v>
+        <v>162.1513519287109</v>
       </c>
       <c r="J62" t="n">
-        <v>137.2382965087891</v>
+        <v>136.637451171875</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>58.39353789451046</v>
       </c>
       <c r="G63" t="n">
-        <v>334.5092163085938</v>
+        <v>337.5337524414062</v>
       </c>
       <c r="H63" t="n">
-        <v>47.66754913330078</v>
+        <v>50.01779937744141</v>
       </c>
       <c r="I63" t="n">
-        <v>261.2758483886719</v>
+        <v>258.9947814941406</v>
       </c>
       <c r="J63" t="n">
-        <v>156.083251953125</v>
+        <v>161.426513671875</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>57.3323684814925</v>
       </c>
       <c r="G64" t="n">
-        <v>398.2014465332031</v>
+        <v>396.8147888183594</v>
       </c>
       <c r="H64" t="n">
-        <v>53.24998474121094</v>
+        <v>54.98371505737305</v>
       </c>
       <c r="I64" t="n">
-        <v>373.3576049804688</v>
+        <v>366.8405151367188</v>
       </c>
       <c r="J64" t="n">
-        <v>165.8693237304688</v>
+        <v>171.0955963134766</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>54.83283250514894</v>
       </c>
       <c r="G65" t="n">
-        <v>487.0071411132812</v>
+        <v>484.0352172851562</v>
       </c>
       <c r="H65" t="n">
-        <v>67.99604034423828</v>
+        <v>66.48245239257812</v>
       </c>
       <c r="I65" t="n">
-        <v>474.7890625</v>
+        <v>463.0238647460938</v>
       </c>
       <c r="J65" t="n">
-        <v>171.2342529296875</v>
+        <v>176.4658966064453</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>66.18771861830042</v>
       </c>
       <c r="G66" t="n">
-        <v>269.3141479492188</v>
+        <v>272.473876953125</v>
       </c>
       <c r="H66" t="n">
-        <v>43.84649276733398</v>
+        <v>45.26230239868164</v>
       </c>
       <c r="I66" t="n">
-        <v>-33.17546081542969</v>
+        <v>-27.49936485290527</v>
       </c>
       <c r="J66" t="n">
-        <v>85.43077850341797</v>
+        <v>88.03575134277344</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>66.85471859160208</v>
       </c>
       <c r="G67" t="n">
-        <v>286.1388549804688</v>
+        <v>285.170166015625</v>
       </c>
       <c r="H67" t="n">
-        <v>46.66356658935547</v>
+        <v>44.12965393066406</v>
       </c>
       <c r="I67" t="n">
-        <v>-7.212143421173096</v>
+        <v>-9.141207695007324</v>
       </c>
       <c r="J67" t="n">
-        <v>92.08210754394531</v>
+        <v>94.69321441650391</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>66.29608309198557</v>
       </c>
       <c r="G68" t="n">
-        <v>318.3404541015625</v>
+        <v>314.7167663574219</v>
       </c>
       <c r="H68" t="n">
-        <v>49.09706115722656</v>
+        <v>47.32221221923828</v>
       </c>
       <c r="I68" t="n">
-        <v>68.1326904296875</v>
+        <v>64.24580383300781</v>
       </c>
       <c r="J68" t="n">
-        <v>115.6272659301758</v>
+        <v>112.1293792724609</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>65.32452373485688</v>
       </c>
       <c r="G69" t="n">
-        <v>338.1578979492188</v>
+        <v>340.4714965820312</v>
       </c>
       <c r="H69" t="n">
-        <v>48.67326354980469</v>
+        <v>51.16427612304688</v>
       </c>
       <c r="I69" t="n">
-        <v>130.6397399902344</v>
+        <v>137.1962432861328</v>
       </c>
       <c r="J69" t="n">
-        <v>129.3009033203125</v>
+        <v>135.7419586181641</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>63.37031159981304</v>
       </c>
       <c r="G70" t="n">
-        <v>399.2551879882812</v>
+        <v>399.22998046875</v>
       </c>
       <c r="H70" t="n">
-        <v>53.22999572753906</v>
+        <v>52.00545120239258</v>
       </c>
       <c r="I70" t="n">
-        <v>253.0746307373047</v>
+        <v>256.5219116210938</v>
       </c>
       <c r="J70" t="n">
-        <v>163.9945831298828</v>
+        <v>167.80029296875</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_optimal/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_mc_shared_relu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_mc_shared_relu.xlsx
@@ -505,16 +505,16 @@
         <v>14.31699359657089</v>
       </c>
       <c r="G2" t="n">
-        <v>214.2484283447266</v>
+        <v>261.4198608398438</v>
       </c>
       <c r="H2" t="n">
-        <v>62.09650802612305</v>
+        <v>83.86125946044922</v>
       </c>
       <c r="I2" t="n">
-        <v>621.3428344726562</v>
+        <v>638.5054931640625</v>
       </c>
       <c r="J2" t="n">
-        <v>148.4475250244141</v>
+        <v>138.0758819580078</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>15.27891067420843</v>
       </c>
       <c r="G3" t="n">
-        <v>229.1256256103516</v>
+        <v>276.1283874511719</v>
       </c>
       <c r="H3" t="n">
-        <v>90.64213562011719</v>
+        <v>93.38494110107422</v>
       </c>
       <c r="I3" t="n">
-        <v>681.1031494140625</v>
+        <v>689.508056640625</v>
       </c>
       <c r="J3" t="n">
-        <v>163.5123748779297</v>
+        <v>158.7242279052734</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>15.85974020072816</v>
       </c>
       <c r="G4" t="n">
-        <v>241.0333862304688</v>
+        <v>299.9436340332031</v>
       </c>
       <c r="H4" t="n">
-        <v>103.2833099365234</v>
+        <v>96.00590515136719</v>
       </c>
       <c r="I4" t="n">
-        <v>715.3594970703125</v>
+        <v>717.7625122070312</v>
       </c>
       <c r="J4" t="n">
-        <v>150.9918518066406</v>
+        <v>164.5744018554688</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>16.6254486072678</v>
       </c>
       <c r="G5" t="n">
-        <v>273.4612731933594</v>
+        <v>336.4822692871094</v>
       </c>
       <c r="H5" t="n">
-        <v>125.4647216796875</v>
+        <v>121.2393951416016</v>
       </c>
       <c r="I5" t="n">
-        <v>738.4607543945312</v>
+        <v>738.684814453125</v>
       </c>
       <c r="J5" t="n">
-        <v>143.5291442871094</v>
+        <v>169.3645172119141</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>16.72168606967666</v>
       </c>
       <c r="G6" t="n">
-        <v>346.1142272949219</v>
+        <v>404.0336303710938</v>
       </c>
       <c r="H6" t="n">
-        <v>174.3550567626953</v>
+        <v>154.7543640136719</v>
       </c>
       <c r="I6" t="n">
-        <v>768.51904296875</v>
+        <v>759.396484375</v>
       </c>
       <c r="J6" t="n">
-        <v>141.7626647949219</v>
+        <v>174.6282653808594</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>17.58023045110392</v>
       </c>
       <c r="G7" t="n">
-        <v>228.2610168457031</v>
+        <v>241.4806976318359</v>
       </c>
       <c r="H7" t="n">
-        <v>55.0653076171875</v>
+        <v>51.15931701660156</v>
       </c>
       <c r="I7" t="n">
-        <v>549.9440307617188</v>
+        <v>562.0836181640625</v>
       </c>
       <c r="J7" t="n">
-        <v>95.69780731201172</v>
+        <v>89.39707946777344</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>18.57818076528054</v>
       </c>
       <c r="G8" t="n">
-        <v>229.9762573242188</v>
+        <v>247.9726867675781</v>
       </c>
       <c r="H8" t="n">
-        <v>50.68600082397461</v>
+        <v>56.49655914306641</v>
       </c>
       <c r="I8" t="n">
-        <v>568.5783081054688</v>
+        <v>599.3087768554688</v>
       </c>
       <c r="J8" t="n">
-        <v>113.9909973144531</v>
+        <v>104.0815200805664</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>19.60838259075554</v>
       </c>
       <c r="G9" t="n">
-        <v>233.4077606201172</v>
+        <v>262.2424926757812</v>
       </c>
       <c r="H9" t="n">
-        <v>60.23193359375</v>
+        <v>68.79278564453125</v>
       </c>
       <c r="I9" t="n">
-        <v>615.2314453125</v>
+        <v>639.559814453125</v>
       </c>
       <c r="J9" t="n">
-        <v>140.4947357177734</v>
+        <v>133.3229370117188</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>20.10500298210745</v>
       </c>
       <c r="G10" t="n">
-        <v>241.8104705810547</v>
+        <v>280.4984436035156</v>
       </c>
       <c r="H10" t="n">
-        <v>71.21465301513672</v>
+        <v>72.30825805664062</v>
       </c>
       <c r="I10" t="n">
-        <v>645.9528198242188</v>
+        <v>655.03857421875</v>
       </c>
       <c r="J10" t="n">
-        <v>147.7745361328125</v>
+        <v>151.4450378417969</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>20.82282672295324</v>
       </c>
       <c r="G11" t="n">
-        <v>272.7491455078125</v>
+        <v>309.1902465820312</v>
       </c>
       <c r="H11" t="n">
-        <v>97.66683197021484</v>
+        <v>96.46787261962891</v>
       </c>
       <c r="I11" t="n">
-        <v>691.427001953125</v>
+        <v>693.127685546875</v>
       </c>
       <c r="J11" t="n">
-        <v>150.1758117675781</v>
+        <v>163.8275146484375</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>21.05931589769223</v>
       </c>
       <c r="G12" t="n">
-        <v>340.1446228027344</v>
+        <v>366.2274475097656</v>
       </c>
       <c r="H12" t="n">
-        <v>159.2243957519531</v>
+        <v>136.0255889892578</v>
       </c>
       <c r="I12" t="n">
-        <v>717.9306030273438</v>
+        <v>725.6978149414062</v>
       </c>
       <c r="J12" t="n">
-        <v>153.0184326171875</v>
+        <v>178.1727905273438</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>21.38449445236935</v>
       </c>
       <c r="G13" t="n">
-        <v>470.5432739257812</v>
+        <v>483.1507263183594</v>
       </c>
       <c r="H13" t="n">
-        <v>185.3822937011719</v>
+        <v>174.9203491210938</v>
       </c>
       <c r="I13" t="n">
-        <v>746.9620971679688</v>
+        <v>753.5523681640625</v>
       </c>
       <c r="J13" t="n">
-        <v>148.8192749023438</v>
+        <v>164.9587249755859</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>19.79697020692051</v>
       </c>
       <c r="G14" t="n">
-        <v>205.7019195556641</v>
+        <v>216.8065032958984</v>
       </c>
       <c r="H14" t="n">
-        <v>55.85533142089844</v>
+        <v>59.39460754394531</v>
       </c>
       <c r="I14" t="n">
-        <v>377.08203125</v>
+        <v>344.0687561035156</v>
       </c>
       <c r="J14" t="n">
-        <v>78.73817443847656</v>
+        <v>81.29827117919922</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>21.48203443327129</v>
       </c>
       <c r="G15" t="n">
-        <v>222.3076324462891</v>
+        <v>235.03759765625</v>
       </c>
       <c r="H15" t="n">
-        <v>55.56987380981445</v>
+        <v>50.93906021118164</v>
       </c>
       <c r="I15" t="n">
-        <v>482.0995788574219</v>
+        <v>471.0927734375</v>
       </c>
       <c r="J15" t="n">
-        <v>82.89827728271484</v>
+        <v>79.43943786621094</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>22.47631622738632</v>
       </c>
       <c r="G16" t="n">
-        <v>243.4912567138672</v>
+        <v>253.54150390625</v>
       </c>
       <c r="H16" t="n">
-        <v>47.53863143920898</v>
+        <v>42.53456115722656</v>
       </c>
       <c r="I16" t="n">
-        <v>593.5679321289062</v>
+        <v>591.5629272460938</v>
       </c>
       <c r="J16" t="n">
-        <v>91.96947479248047</v>
+        <v>94.76464080810547</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>24.35763244318183</v>
       </c>
       <c r="G17" t="n">
-        <v>244.7837982177734</v>
+        <v>260.9405822753906</v>
       </c>
       <c r="H17" t="n">
-        <v>45.09387969970703</v>
+        <v>41.80274963378906</v>
       </c>
       <c r="I17" t="n">
-        <v>599.767822265625</v>
+        <v>593.5574340820312</v>
       </c>
       <c r="J17" t="n">
-        <v>102.7739410400391</v>
+        <v>100.3566055297852</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>25.62064236797445</v>
       </c>
       <c r="G18" t="n">
-        <v>253.3889770507812</v>
+        <v>267.1487121582031</v>
       </c>
       <c r="H18" t="n">
-        <v>39.89591217041016</v>
+        <v>48.10665893554688</v>
       </c>
       <c r="I18" t="n">
-        <v>630.04150390625</v>
+        <v>631.5850219726562</v>
       </c>
       <c r="J18" t="n">
-        <v>115.4345245361328</v>
+        <v>114.4010391235352</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>25.92967709475499</v>
       </c>
       <c r="G19" t="n">
-        <v>272.9617614746094</v>
+        <v>288.295654296875</v>
       </c>
       <c r="H19" t="n">
-        <v>64.85958862304688</v>
+        <v>52.72465133666992</v>
       </c>
       <c r="I19" t="n">
-        <v>665.0413818359375</v>
+        <v>656.871826171875</v>
       </c>
       <c r="J19" t="n">
-        <v>121.4585647583008</v>
+        <v>141.0661315917969</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>26.19588155013293</v>
       </c>
       <c r="G20" t="n">
-        <v>339.7970275878906</v>
+        <v>336.955078125</v>
       </c>
       <c r="H20" t="n">
-        <v>146.7615509033203</v>
+        <v>101.3889770507812</v>
       </c>
       <c r="I20" t="n">
-        <v>699.2562866210938</v>
+        <v>685.3388671875</v>
       </c>
       <c r="J20" t="n">
-        <v>133.5455627441406</v>
+        <v>164.5148010253906</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>25.87267490890685</v>
       </c>
       <c r="G21" t="n">
-        <v>482.8505859375</v>
+        <v>478.2339172363281</v>
       </c>
       <c r="H21" t="n">
-        <v>184.0076446533203</v>
+        <v>167.5374908447266</v>
       </c>
       <c r="I21" t="n">
-        <v>732.6013793945312</v>
+        <v>744.2123413085938</v>
       </c>
       <c r="J21" t="n">
-        <v>151.5763397216797</v>
+        <v>162.4058990478516</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>24.64055238634836</v>
       </c>
       <c r="G22" t="n">
-        <v>716.0541381835938</v>
+        <v>690.6898193359375</v>
       </c>
       <c r="H22" t="n">
-        <v>98.32571411132812</v>
+        <v>161.4614105224609</v>
       </c>
       <c r="I22" t="n">
-        <v>745.225830078125</v>
+        <v>796.513671875</v>
       </c>
       <c r="J22" t="n">
-        <v>157.5870361328125</v>
+        <v>147.6212615966797</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>24.69862396067251</v>
       </c>
       <c r="G23" t="n">
-        <v>197.4093170166016</v>
+        <v>207.8816223144531</v>
       </c>
       <c r="H23" t="n">
-        <v>59.36936950683594</v>
+        <v>63.96179962158203</v>
       </c>
       <c r="I23" t="n">
-        <v>254.6461791992188</v>
+        <v>217.4418029785156</v>
       </c>
       <c r="J23" t="n">
-        <v>74.74025726318359</v>
+        <v>93.19284057617188</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>27.11629087610016</v>
       </c>
       <c r="G24" t="n">
-        <v>220.4810638427734</v>
+        <v>223.6115875244141</v>
       </c>
       <c r="H24" t="n">
-        <v>56.06955718994141</v>
+        <v>56.58860778808594</v>
       </c>
       <c r="I24" t="n">
-        <v>341.0890502929688</v>
+        <v>286.3244018554688</v>
       </c>
       <c r="J24" t="n">
-        <v>81.58383941650391</v>
+        <v>90.34475708007812</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>28.97995691733995</v>
       </c>
       <c r="G25" t="n">
-        <v>241.68896484375</v>
+        <v>244.6887512207031</v>
       </c>
       <c r="H25" t="n">
-        <v>48.63038635253906</v>
+        <v>46.44723892211914</v>
       </c>
       <c r="I25" t="n">
-        <v>462.467041015625</v>
+        <v>430.2621459960938</v>
       </c>
       <c r="J25" t="n">
-        <v>86.9183349609375</v>
+        <v>94.37836456298828</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>30.34265377319738</v>
       </c>
       <c r="G26" t="n">
-        <v>256.5619506835938</v>
+        <v>260.7393493652344</v>
       </c>
       <c r="H26" t="n">
-        <v>46.46042633056641</v>
+        <v>43.14956665039062</v>
       </c>
       <c r="I26" t="n">
-        <v>531.2840576171875</v>
+        <v>527.4063110351562</v>
       </c>
       <c r="J26" t="n">
-        <v>91.55374908447266</v>
+        <v>92.60781097412109</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>31.86528713449996</v>
       </c>
       <c r="G27" t="n">
-        <v>274.5911865234375</v>
+        <v>274.530029296875</v>
       </c>
       <c r="H27" t="n">
-        <v>40.67938613891602</v>
+        <v>40.72194671630859</v>
       </c>
       <c r="I27" t="n">
-        <v>607.2616577148438</v>
+        <v>585.5424194335938</v>
       </c>
       <c r="J27" t="n">
-        <v>94.75961303710938</v>
+        <v>91.65245819091797</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>31.70139237157215</v>
       </c>
       <c r="G28" t="n">
-        <v>295.626220703125</v>
+        <v>305.8175659179688</v>
       </c>
       <c r="H28" t="n">
-        <v>55.61898040771484</v>
+        <v>59.45434188842773</v>
       </c>
       <c r="I28" t="n">
-        <v>658.7726440429688</v>
+        <v>620.1868896484375</v>
       </c>
       <c r="J28" t="n">
-        <v>108.9414367675781</v>
+        <v>103.8716812133789</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>31.7420363140709</v>
       </c>
       <c r="G29" t="n">
-        <v>335.3799438476562</v>
+        <v>361.2621765136719</v>
       </c>
       <c r="H29" t="n">
-        <v>88.01173400878906</v>
+        <v>92.52345275878906</v>
       </c>
       <c r="I29" t="n">
-        <v>668.8640747070312</v>
+        <v>661.7127075195312</v>
       </c>
       <c r="J29" t="n">
-        <v>129.6396484375</v>
+        <v>125.0639114379883</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>30.76237588603813</v>
       </c>
       <c r="G30" t="n">
-        <v>512.90576171875</v>
+        <v>509.2887878417969</v>
       </c>
       <c r="H30" t="n">
-        <v>160.9347686767578</v>
+        <v>145.2864379882812</v>
       </c>
       <c r="I30" t="n">
-        <v>695.1844482421875</v>
+        <v>743.1294555664062</v>
       </c>
       <c r="J30" t="n">
-        <v>135.1282348632812</v>
+        <v>140.7306365966797</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>29.73442789455431</v>
       </c>
       <c r="G31" t="n">
-        <v>710.6809692382812</v>
+        <v>687.0442504882812</v>
       </c>
       <c r="H31" t="n">
-        <v>81.66402435302734</v>
+        <v>136.4349060058594</v>
       </c>
       <c r="I31" t="n">
-        <v>719.47314453125</v>
+        <v>776.4500122070312</v>
       </c>
       <c r="J31" t="n">
-        <v>183.0017547607422</v>
+        <v>167.9944458007812</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>30.37782838567884</v>
       </c>
       <c r="G32" t="n">
-        <v>196.3543243408203</v>
+        <v>201.9549865722656</v>
       </c>
       <c r="H32" t="n">
-        <v>53.96751403808594</v>
+        <v>70.60890960693359</v>
       </c>
       <c r="I32" t="n">
-        <v>160.4162292480469</v>
+        <v>125.8270416259766</v>
       </c>
       <c r="J32" t="n">
-        <v>73.56410980224609</v>
+        <v>92.92269134521484</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>33.11659379389907</v>
       </c>
       <c r="G33" t="n">
-        <v>224.7847137451172</v>
+        <v>220.1461181640625</v>
       </c>
       <c r="H33" t="n">
-        <v>51.91462707519531</v>
+        <v>62.70896911621094</v>
       </c>
       <c r="I33" t="n">
-        <v>245.4148712158203</v>
+        <v>191.0020599365234</v>
       </c>
       <c r="J33" t="n">
-        <v>84.40430450439453</v>
+        <v>102.5152816772461</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>35.40504769440309</v>
       </c>
       <c r="G34" t="n">
-        <v>245.4919586181641</v>
+        <v>242.9748687744141</v>
       </c>
       <c r="H34" t="n">
-        <v>49.07003402709961</v>
+        <v>54.52933883666992</v>
       </c>
       <c r="I34" t="n">
-        <v>355.6275024414062</v>
+        <v>282.6586608886719</v>
       </c>
       <c r="J34" t="n">
-        <v>88.91469573974609</v>
+        <v>115.0616149902344</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>37.57764389518124</v>
       </c>
       <c r="G35" t="n">
-        <v>264.3806457519531</v>
+        <v>263.4148254394531</v>
       </c>
       <c r="H35" t="n">
-        <v>44.82876205444336</v>
+        <v>53.41250228881836</v>
       </c>
       <c r="I35" t="n">
-        <v>443.7677612304688</v>
+        <v>395.2926330566406</v>
       </c>
       <c r="J35" t="n">
-        <v>92.66142272949219</v>
+        <v>128.2308654785156</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>38.09115608907656</v>
       </c>
       <c r="G36" t="n">
-        <v>286.5954284667969</v>
+        <v>290.1295776367188</v>
       </c>
       <c r="H36" t="n">
-        <v>42.16662979125977</v>
+        <v>48.03707885742188</v>
       </c>
       <c r="I36" t="n">
-        <v>544.8680419921875</v>
+        <v>527.4046020507812</v>
       </c>
       <c r="J36" t="n">
-        <v>105.3859176635742</v>
+        <v>108.1303634643555</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>38.33579750611559</v>
       </c>
       <c r="G37" t="n">
-        <v>310.7694702148438</v>
+        <v>328.2513427734375</v>
       </c>
       <c r="H37" t="n">
-        <v>48.43587112426758</v>
+        <v>65.49503326416016</v>
       </c>
       <c r="I37" t="n">
-        <v>602.0704956054688</v>
+        <v>577.1856689453125</v>
       </c>
       <c r="J37" t="n">
-        <v>113.8483963012695</v>
+        <v>113.3611221313477</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>37.89528654115976</v>
       </c>
       <c r="G38" t="n">
-        <v>363.43603515625</v>
+        <v>398.0472717285156</v>
       </c>
       <c r="H38" t="n">
-        <v>65.93356323242188</v>
+        <v>92.42832183837891</v>
       </c>
       <c r="I38" t="n">
-        <v>651.4855346679688</v>
+        <v>625.2105712890625</v>
       </c>
       <c r="J38" t="n">
-        <v>127.8571319580078</v>
+        <v>122.7798614501953</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>37.04916938976096</v>
       </c>
       <c r="G39" t="n">
-        <v>512.4603881835938</v>
+        <v>516.808837890625</v>
       </c>
       <c r="H39" t="n">
-        <v>118.2399520874023</v>
+        <v>128.7896118164062</v>
       </c>
       <c r="I39" t="n">
-        <v>648.3839721679688</v>
+        <v>671.593994140625</v>
       </c>
       <c r="J39" t="n">
-        <v>150.7570953369141</v>
+        <v>160.1480712890625</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>35.00856026880581</v>
       </c>
       <c r="G40" t="n">
-        <v>693.802734375</v>
+        <v>674.9783935546875</v>
       </c>
       <c r="H40" t="n">
-        <v>84.96099853515625</v>
+        <v>99.62750244140625</v>
       </c>
       <c r="I40" t="n">
-        <v>657.4124755859375</v>
+        <v>725.0253295898438</v>
       </c>
       <c r="J40" t="n">
-        <v>192.5034484863281</v>
+        <v>213.4931640625</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>37.58863922492247</v>
       </c>
       <c r="G41" t="n">
-        <v>208.7915954589844</v>
+        <v>202.8029479980469</v>
       </c>
       <c r="H41" t="n">
-        <v>50.09195709228516</v>
+        <v>69.64306640625</v>
       </c>
       <c r="I41" t="n">
-        <v>112.6181259155273</v>
+        <v>68.78894805908203</v>
       </c>
       <c r="J41" t="n">
-        <v>70.41133880615234</v>
+        <v>90.85250854492188</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>40.4685427958547</v>
       </c>
       <c r="G42" t="n">
-        <v>227.0793762207031</v>
+        <v>218.9369812011719</v>
       </c>
       <c r="H42" t="n">
-        <v>49.06803894042969</v>
+        <v>63.36246490478516</v>
       </c>
       <c r="I42" t="n">
-        <v>162.5026092529297</v>
+        <v>106.8897399902344</v>
       </c>
       <c r="J42" t="n">
-        <v>80.43895721435547</v>
+        <v>107.6749496459961</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>42.41365999634309</v>
       </c>
       <c r="G43" t="n">
-        <v>245.4803314208984</v>
+        <v>233.3815155029297</v>
       </c>
       <c r="H43" t="n">
-        <v>45.28732299804688</v>
+        <v>58.99592208862305</v>
       </c>
       <c r="I43" t="n">
-        <v>216.2354888916016</v>
+        <v>150.0368957519531</v>
       </c>
       <c r="J43" t="n">
-        <v>97.17864990234375</v>
+        <v>121.523811340332</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>44.05056700894834</v>
       </c>
       <c r="G44" t="n">
-        <v>267.9581909179688</v>
+        <v>263.2449645996094</v>
       </c>
       <c r="H44" t="n">
-        <v>43.38228607177734</v>
+        <v>55.83191299438477</v>
       </c>
       <c r="I44" t="n">
-        <v>354.7415466308594</v>
+        <v>262.8802490234375</v>
       </c>
       <c r="J44" t="n">
-        <v>106.9324340820312</v>
+        <v>141.7800140380859</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>45.28527361475503</v>
       </c>
       <c r="G45" t="n">
-        <v>285.8630065917969</v>
+        <v>283.0210571289062</v>
       </c>
       <c r="H45" t="n">
-        <v>39.97550201416016</v>
+        <v>56.55275344848633</v>
       </c>
       <c r="I45" t="n">
-        <v>424.0132446289062</v>
+        <v>358.1036376953125</v>
       </c>
       <c r="J45" t="n">
-        <v>106.0913925170898</v>
+        <v>157.4987335205078</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>45.11415223222625</v>
       </c>
       <c r="G46" t="n">
-        <v>319.1852722167969</v>
+        <v>340.8361511230469</v>
       </c>
       <c r="H46" t="n">
-        <v>47.13006973266602</v>
+        <v>80.60523986816406</v>
       </c>
       <c r="I46" t="n">
-        <v>521.2057495117188</v>
+        <v>488.9765014648438</v>
       </c>
       <c r="J46" t="n">
-        <v>123.2418746948242</v>
+        <v>155.0252685546875</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>44.97584185956661</v>
       </c>
       <c r="G47" t="n">
-        <v>386.3479919433594</v>
+        <v>417.8361511230469</v>
       </c>
       <c r="H47" t="n">
-        <v>68.33426666259766</v>
+        <v>86.23583221435547</v>
       </c>
       <c r="I47" t="n">
-        <v>587.7896728515625</v>
+        <v>576.3548583984375</v>
       </c>
       <c r="J47" t="n">
-        <v>140.0316467285156</v>
+        <v>168.498046875</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>42.0865253634753</v>
       </c>
       <c r="G48" t="n">
-        <v>518.2006225585938</v>
+        <v>537.7698974609375</v>
       </c>
       <c r="H48" t="n">
-        <v>96.23110198974609</v>
+        <v>107.7521057128906</v>
       </c>
       <c r="I48" t="n">
-        <v>622.409912109375</v>
+        <v>628.4419555664062</v>
       </c>
       <c r="J48" t="n">
-        <v>170.2122497558594</v>
+        <v>198.7548217773438</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>40.81585186348995</v>
       </c>
       <c r="G49" t="n">
-        <v>659.8650512695312</v>
+        <v>644.4432983398438</v>
       </c>
       <c r="H49" t="n">
-        <v>90.03067779541016</v>
+        <v>82.96727752685547</v>
       </c>
       <c r="I49" t="n">
-        <v>613.0346069335938</v>
+        <v>666.2440185546875</v>
       </c>
       <c r="J49" t="n">
-        <v>193.1767883300781</v>
+        <v>230.6855316162109</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>45.37200448015243</v>
       </c>
       <c r="G50" t="n">
-        <v>220.7533264160156</v>
+        <v>211.9293060302734</v>
       </c>
       <c r="H50" t="n">
-        <v>51.82533264160156</v>
+        <v>64.99945831298828</v>
       </c>
       <c r="I50" t="n">
-        <v>57.52901840209961</v>
+        <v>17.1098804473877</v>
       </c>
       <c r="J50" t="n">
-        <v>70.00411987304688</v>
+        <v>93.4417724609375</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>48.78786662406539</v>
       </c>
       <c r="G51" t="n">
-        <v>238.8369293212891</v>
+        <v>227.749267578125</v>
       </c>
       <c r="H51" t="n">
-        <v>43.96908569335938</v>
+        <v>60.23260116577148</v>
       </c>
       <c r="I51" t="n">
-        <v>95.31690216064453</v>
+        <v>43.40065002441406</v>
       </c>
       <c r="J51" t="n">
-        <v>80.87790679931641</v>
+        <v>106.7551879882812</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>50.73675625671652</v>
       </c>
       <c r="G52" t="n">
-        <v>250.3618011474609</v>
+        <v>241.3203887939453</v>
       </c>
       <c r="H52" t="n">
-        <v>46.5001335144043</v>
+        <v>57.16680145263672</v>
       </c>
       <c r="I52" t="n">
-        <v>125.8104019165039</v>
+        <v>63.77743530273438</v>
       </c>
       <c r="J52" t="n">
-        <v>84.66207122802734</v>
+        <v>118.4240646362305</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>51.96609868449762</v>
       </c>
       <c r="G53" t="n">
-        <v>278.4646301269531</v>
+        <v>259.6749877929688</v>
       </c>
       <c r="H53" t="n">
-        <v>41.03012466430664</v>
+        <v>51.33667373657227</v>
       </c>
       <c r="I53" t="n">
-        <v>215.8455200195312</v>
+        <v>132.6382598876953</v>
       </c>
       <c r="J53" t="n">
-        <v>119.422004699707</v>
+        <v>147.0677947998047</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>52.45736467440484</v>
       </c>
       <c r="G54" t="n">
-        <v>301.3236083984375</v>
+        <v>288.3446960449219</v>
       </c>
       <c r="H54" t="n">
-        <v>43.75926208496094</v>
+        <v>57.02437591552734</v>
       </c>
       <c r="I54" t="n">
-        <v>305.2735595703125</v>
+        <v>225.8780975341797</v>
       </c>
       <c r="J54" t="n">
-        <v>133.6842346191406</v>
+        <v>166.7087249755859</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>51.85220057025387</v>
       </c>
       <c r="G55" t="n">
-        <v>331.1089172363281</v>
+        <v>342.6856079101562</v>
       </c>
       <c r="H55" t="n">
-        <v>47.38762283325195</v>
+        <v>79.53909301757812</v>
       </c>
       <c r="I55" t="n">
-        <v>433.0942687988281</v>
+        <v>381.37841796875</v>
       </c>
       <c r="J55" t="n">
-        <v>146.7159881591797</v>
+        <v>187.2000579833984</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>51.37276147532685</v>
       </c>
       <c r="G56" t="n">
-        <v>394.0819091796875</v>
+        <v>416.8681335449219</v>
       </c>
       <c r="H56" t="n">
-        <v>62.29876708984375</v>
+        <v>90.65554046630859</v>
       </c>
       <c r="I56" t="n">
-        <v>494.9327697753906</v>
+        <v>489.8527526855469</v>
       </c>
       <c r="J56" t="n">
-        <v>149.8602447509766</v>
+        <v>224.9325408935547</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>49.881475732815</v>
       </c>
       <c r="G57" t="n">
-        <v>485.0119323730469</v>
+        <v>519.0604858398438</v>
       </c>
       <c r="H57" t="n">
-        <v>73.59957885742188</v>
+        <v>91.35800170898438</v>
       </c>
       <c r="I57" t="n">
-        <v>564.3363647460938</v>
+        <v>574.7412719726562</v>
       </c>
       <c r="J57" t="n">
-        <v>172.9320831298828</v>
+        <v>234.3451538085938</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>46.147295090649</v>
       </c>
       <c r="G58" t="n">
-        <v>647.290771484375</v>
+        <v>639.0999145507812</v>
       </c>
       <c r="H58" t="n">
-        <v>82.3526611328125</v>
+        <v>60.56166458129883</v>
       </c>
       <c r="I58" t="n">
-        <v>547.9617919921875</v>
+        <v>615.0350952148438</v>
       </c>
       <c r="J58" t="n">
-        <v>183.9193267822266</v>
+        <v>259.5363464355469</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>56.70921047332411</v>
       </c>
       <c r="G59" t="n">
-        <v>243.4146118164062</v>
+        <v>233.5619049072266</v>
       </c>
       <c r="H59" t="n">
-        <v>46.54165267944336</v>
+        <v>59.4901123046875</v>
       </c>
       <c r="I59" t="n">
-        <v>19.39339065551758</v>
+        <v>-18.3971004486084</v>
       </c>
       <c r="J59" t="n">
-        <v>83.6910400390625</v>
+        <v>114.7243728637695</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>58.23723423416003</v>
       </c>
       <c r="G60" t="n">
-        <v>264.5657958984375</v>
+        <v>248.3323974609375</v>
       </c>
       <c r="H60" t="n">
-        <v>41.9942626953125</v>
+        <v>55.76004028320312</v>
       </c>
       <c r="I60" t="n">
-        <v>43.05728912353516</v>
+        <v>0.1935369670391083</v>
       </c>
       <c r="J60" t="n">
-        <v>86.66591644287109</v>
+        <v>124.6188507080078</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>59.34611390594659</v>
       </c>
       <c r="G61" t="n">
-        <v>279.596923828125</v>
+        <v>262.3526916503906</v>
       </c>
       <c r="H61" t="n">
-        <v>43.4402961730957</v>
+        <v>53.17037582397461</v>
       </c>
       <c r="I61" t="n">
-        <v>91.76950073242188</v>
+        <v>34.47248458862305</v>
       </c>
       <c r="J61" t="n">
-        <v>111.2461929321289</v>
+        <v>136.7001342773438</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>59.33493295870724</v>
       </c>
       <c r="G62" t="n">
-        <v>304.8475646972656</v>
+        <v>287.6356201171875</v>
       </c>
       <c r="H62" t="n">
-        <v>46.7520866394043</v>
+        <v>55.27826309204102</v>
       </c>
       <c r="I62" t="n">
-        <v>162.1513519287109</v>
+        <v>116.9179306030273</v>
       </c>
       <c r="J62" t="n">
-        <v>136.637451171875</v>
+        <v>175.7021484375</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>58.39353789451046</v>
       </c>
       <c r="G63" t="n">
-        <v>337.5337524414062</v>
+        <v>323.4731140136719</v>
       </c>
       <c r="H63" t="n">
-        <v>50.01779937744141</v>
+        <v>64.75924682617188</v>
       </c>
       <c r="I63" t="n">
-        <v>258.9947814941406</v>
+        <v>241.7244720458984</v>
       </c>
       <c r="J63" t="n">
-        <v>161.426513671875</v>
+        <v>204.6181945800781</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>57.3323684814925</v>
       </c>
       <c r="G64" t="n">
-        <v>396.8147888183594</v>
+        <v>413.4940795898438</v>
       </c>
       <c r="H64" t="n">
-        <v>54.98371505737305</v>
+        <v>91.03298187255859</v>
       </c>
       <c r="I64" t="n">
-        <v>366.8405151367188</v>
+        <v>415.5109558105469</v>
       </c>
       <c r="J64" t="n">
-        <v>171.0955963134766</v>
+        <v>261.208984375</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>54.83283250514894</v>
       </c>
       <c r="G65" t="n">
-        <v>484.0352172851562</v>
+        <v>519.7836303710938</v>
       </c>
       <c r="H65" t="n">
-        <v>66.48245239257812</v>
+        <v>92.89686584472656</v>
       </c>
       <c r="I65" t="n">
-        <v>463.0238647460938</v>
+        <v>505.8834838867188</v>
       </c>
       <c r="J65" t="n">
-        <v>176.4658966064453</v>
+        <v>262.5746765136719</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>66.18771861830042</v>
       </c>
       <c r="G66" t="n">
-        <v>272.473876953125</v>
+        <v>259.40673828125</v>
       </c>
       <c r="H66" t="n">
-        <v>45.26230239868164</v>
+        <v>50.20128631591797</v>
       </c>
       <c r="I66" t="n">
-        <v>-27.49936485290527</v>
+        <v>-62.60676574707031</v>
       </c>
       <c r="J66" t="n">
-        <v>88.03575134277344</v>
+        <v>123.1598587036133</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>66.85471859160208</v>
       </c>
       <c r="G67" t="n">
-        <v>285.170166015625</v>
+        <v>269.9326171875</v>
       </c>
       <c r="H67" t="n">
-        <v>44.12965393066406</v>
+        <v>51.31431579589844</v>
       </c>
       <c r="I67" t="n">
-        <v>-9.141207695007324</v>
+        <v>-38.9931755065918</v>
       </c>
       <c r="J67" t="n">
-        <v>94.69321441650391</v>
+        <v>137.240478515625</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>66.29608309198557</v>
       </c>
       <c r="G68" t="n">
-        <v>314.7167663574219</v>
+        <v>299.2261352539062</v>
       </c>
       <c r="H68" t="n">
-        <v>47.32221221923828</v>
+        <v>56.55698776245117</v>
       </c>
       <c r="I68" t="n">
-        <v>64.24580383300781</v>
+        <v>40.39697265625</v>
       </c>
       <c r="J68" t="n">
-        <v>112.1293792724609</v>
+        <v>171.8911285400391</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>65.32452373485688</v>
       </c>
       <c r="G69" t="n">
-        <v>340.4714965820312</v>
+        <v>326.7539672851562</v>
       </c>
       <c r="H69" t="n">
-        <v>51.16427612304688</v>
+        <v>62.37989044189453</v>
       </c>
       <c r="I69" t="n">
-        <v>137.1962432861328</v>
+        <v>121.756462097168</v>
       </c>
       <c r="J69" t="n">
-        <v>135.7419586181641</v>
+        <v>206.8486633300781</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>63.37031159981304</v>
       </c>
       <c r="G70" t="n">
-        <v>399.22998046875</v>
+        <v>410.2628173828125</v>
       </c>
       <c r="H70" t="n">
-        <v>52.00545120239258</v>
+        <v>86.39420318603516</v>
       </c>
       <c r="I70" t="n">
-        <v>256.5219116210938</v>
+        <v>325.1239318847656</v>
       </c>
       <c r="J70" t="n">
-        <v>167.80029296875</v>
+        <v>281.4850463867188</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_optimal/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_mc_shared_relu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_mc_shared_relu.xlsx
@@ -505,16 +505,16 @@
         <v>14.31699359657089</v>
       </c>
       <c r="G2" t="n">
-        <v>261.4198608398438</v>
+        <v>257.0085754394531</v>
       </c>
       <c r="H2" t="n">
-        <v>83.86125946044922</v>
+        <v>83.60493469238281</v>
       </c>
       <c r="I2" t="n">
-        <v>638.5054931640625</v>
+        <v>641.43359375</v>
       </c>
       <c r="J2" t="n">
-        <v>138.0758819580078</v>
+        <v>140.5340423583984</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>15.27891067420843</v>
       </c>
       <c r="G3" t="n">
-        <v>276.1283874511719</v>
+        <v>275.3134765625</v>
       </c>
       <c r="H3" t="n">
-        <v>93.38494110107422</v>
+        <v>90.09063720703125</v>
       </c>
       <c r="I3" t="n">
-        <v>689.508056640625</v>
+        <v>685.850341796875</v>
       </c>
       <c r="J3" t="n">
-        <v>158.7242279052734</v>
+        <v>158.6925964355469</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>15.85974020072816</v>
       </c>
       <c r="G4" t="n">
-        <v>299.9436340332031</v>
+        <v>300.0667724609375</v>
       </c>
       <c r="H4" t="n">
-        <v>96.00590515136719</v>
+        <v>100.3458404541016</v>
       </c>
       <c r="I4" t="n">
-        <v>717.7625122070312</v>
+        <v>718.2384643554688</v>
       </c>
       <c r="J4" t="n">
-        <v>164.5744018554688</v>
+        <v>166.3346862792969</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>16.6254486072678</v>
       </c>
       <c r="G5" t="n">
-        <v>336.4822692871094</v>
+        <v>333.878662109375</v>
       </c>
       <c r="H5" t="n">
-        <v>121.2393951416016</v>
+        <v>119.8775787353516</v>
       </c>
       <c r="I5" t="n">
-        <v>738.684814453125</v>
+        <v>744.3771362304688</v>
       </c>
       <c r="J5" t="n">
-        <v>169.3645172119141</v>
+        <v>167.4115905761719</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>16.72168606967666</v>
       </c>
       <c r="G6" t="n">
-        <v>404.0336303710938</v>
+        <v>405.2069396972656</v>
       </c>
       <c r="H6" t="n">
-        <v>154.7543640136719</v>
+        <v>154.4488677978516</v>
       </c>
       <c r="I6" t="n">
-        <v>759.396484375</v>
+        <v>764.9163818359375</v>
       </c>
       <c r="J6" t="n">
-        <v>174.6282653808594</v>
+        <v>175.3382568359375</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>17.58023045110392</v>
       </c>
       <c r="G7" t="n">
-        <v>241.4806976318359</v>
+        <v>241.1754913330078</v>
       </c>
       <c r="H7" t="n">
-        <v>51.15931701660156</v>
+        <v>49.56318283081055</v>
       </c>
       <c r="I7" t="n">
-        <v>562.0836181640625</v>
+        <v>561.434814453125</v>
       </c>
       <c r="J7" t="n">
-        <v>89.39707946777344</v>
+        <v>88.61136627197266</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>18.57818076528054</v>
       </c>
       <c r="G8" t="n">
-        <v>247.9726867675781</v>
+        <v>247.4507598876953</v>
       </c>
       <c r="H8" t="n">
-        <v>56.49655914306641</v>
+        <v>57.11803436279297</v>
       </c>
       <c r="I8" t="n">
-        <v>599.3087768554688</v>
+        <v>597.502685546875</v>
       </c>
       <c r="J8" t="n">
-        <v>104.0815200805664</v>
+        <v>102.175407409668</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>19.60838259075554</v>
       </c>
       <c r="G9" t="n">
-        <v>262.2424926757812</v>
+        <v>261.7474670410156</v>
       </c>
       <c r="H9" t="n">
-        <v>68.79278564453125</v>
+        <v>70.21438598632812</v>
       </c>
       <c r="I9" t="n">
-        <v>639.559814453125</v>
+        <v>636.4732666015625</v>
       </c>
       <c r="J9" t="n">
-        <v>133.3229370117188</v>
+        <v>131.3511352539062</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>20.10500298210745</v>
       </c>
       <c r="G10" t="n">
-        <v>280.4984436035156</v>
+        <v>276.2907409667969</v>
       </c>
       <c r="H10" t="n">
-        <v>72.30825805664062</v>
+        <v>67.47862243652344</v>
       </c>
       <c r="I10" t="n">
-        <v>655.03857421875</v>
+        <v>656.7915649414062</v>
       </c>
       <c r="J10" t="n">
-        <v>151.4450378417969</v>
+        <v>152.5110015869141</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>20.82282672295324</v>
       </c>
       <c r="G11" t="n">
-        <v>309.1902465820312</v>
+        <v>306.8307800292969</v>
       </c>
       <c r="H11" t="n">
-        <v>96.46787261962891</v>
+        <v>93.75353240966797</v>
       </c>
       <c r="I11" t="n">
-        <v>693.127685546875</v>
+        <v>697.3081665039062</v>
       </c>
       <c r="J11" t="n">
-        <v>163.8275146484375</v>
+        <v>164.9479827880859</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>21.05931589769223</v>
       </c>
       <c r="G12" t="n">
-        <v>366.2274475097656</v>
+        <v>362.6964416503906</v>
       </c>
       <c r="H12" t="n">
-        <v>136.0255889892578</v>
+        <v>126.8394317626953</v>
       </c>
       <c r="I12" t="n">
-        <v>725.6978149414062</v>
+        <v>723.5025024414062</v>
       </c>
       <c r="J12" t="n">
-        <v>178.1727905273438</v>
+        <v>172.1146087646484</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>21.38449445236935</v>
       </c>
       <c r="G13" t="n">
-        <v>483.1507263183594</v>
+        <v>479.9197387695312</v>
       </c>
       <c r="H13" t="n">
-        <v>174.9203491210938</v>
+        <v>173.9527893066406</v>
       </c>
       <c r="I13" t="n">
-        <v>753.5523681640625</v>
+        <v>759.572998046875</v>
       </c>
       <c r="J13" t="n">
-        <v>164.9587249755859</v>
+        <v>163.8970489501953</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>19.79697020692051</v>
       </c>
       <c r="G14" t="n">
-        <v>216.8065032958984</v>
+        <v>214.9804229736328</v>
       </c>
       <c r="H14" t="n">
-        <v>59.39460754394531</v>
+        <v>59.87945556640625</v>
       </c>
       <c r="I14" t="n">
-        <v>344.0687561035156</v>
+        <v>342.28173828125</v>
       </c>
       <c r="J14" t="n">
-        <v>81.29827117919922</v>
+        <v>83.71969604492188</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>21.48203443327129</v>
       </c>
       <c r="G15" t="n">
-        <v>235.03759765625</v>
+        <v>234.7683258056641</v>
       </c>
       <c r="H15" t="n">
-        <v>50.93906021118164</v>
+        <v>50.65927124023438</v>
       </c>
       <c r="I15" t="n">
-        <v>471.0927734375</v>
+        <v>475.2203674316406</v>
       </c>
       <c r="J15" t="n">
-        <v>79.43943786621094</v>
+        <v>78.51280212402344</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>22.47631622738632</v>
       </c>
       <c r="G16" t="n">
-        <v>253.54150390625</v>
+        <v>252.7217407226562</v>
       </c>
       <c r="H16" t="n">
-        <v>42.53456115722656</v>
+        <v>44.36631011962891</v>
       </c>
       <c r="I16" t="n">
-        <v>591.5629272460938</v>
+        <v>594.363525390625</v>
       </c>
       <c r="J16" t="n">
-        <v>94.76464080810547</v>
+        <v>92.89161682128906</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>24.35763244318183</v>
       </c>
       <c r="G17" t="n">
-        <v>260.9405822753906</v>
+        <v>260.4008483886719</v>
       </c>
       <c r="H17" t="n">
-        <v>41.80274963378906</v>
+        <v>45.78094100952148</v>
       </c>
       <c r="I17" t="n">
-        <v>593.5574340820312</v>
+        <v>596.86279296875</v>
       </c>
       <c r="J17" t="n">
-        <v>100.3566055297852</v>
+        <v>102.9384841918945</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>25.62064236797445</v>
       </c>
       <c r="G18" t="n">
-        <v>267.1487121582031</v>
+        <v>270.7920837402344</v>
       </c>
       <c r="H18" t="n">
-        <v>48.10665893554688</v>
+        <v>48.8568115234375</v>
       </c>
       <c r="I18" t="n">
-        <v>631.5850219726562</v>
+        <v>626.9771118164062</v>
       </c>
       <c r="J18" t="n">
-        <v>114.4010391235352</v>
+        <v>115.1708755493164</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>25.92967709475499</v>
       </c>
       <c r="G19" t="n">
-        <v>288.295654296875</v>
+        <v>288.8577880859375</v>
       </c>
       <c r="H19" t="n">
-        <v>52.72465133666992</v>
+        <v>54.7770881652832</v>
       </c>
       <c r="I19" t="n">
-        <v>656.871826171875</v>
+        <v>654.7612915039062</v>
       </c>
       <c r="J19" t="n">
-        <v>141.0661315917969</v>
+        <v>145.2220611572266</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>26.19588155013293</v>
       </c>
       <c r="G20" t="n">
-        <v>336.955078125</v>
+        <v>340.7612609863281</v>
       </c>
       <c r="H20" t="n">
-        <v>101.3889770507812</v>
+        <v>104.3491744995117</v>
       </c>
       <c r="I20" t="n">
-        <v>685.3388671875</v>
+        <v>685.6841430664062</v>
       </c>
       <c r="J20" t="n">
-        <v>164.5148010253906</v>
+        <v>162.8584747314453</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>25.87267490890685</v>
       </c>
       <c r="G21" t="n">
-        <v>478.2339172363281</v>
+        <v>482.046142578125</v>
       </c>
       <c r="H21" t="n">
-        <v>167.5374908447266</v>
+        <v>169.0061340332031</v>
       </c>
       <c r="I21" t="n">
-        <v>744.2123413085938</v>
+        <v>741.3004150390625</v>
       </c>
       <c r="J21" t="n">
-        <v>162.4058990478516</v>
+        <v>160.8446197509766</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>24.64055238634836</v>
       </c>
       <c r="G22" t="n">
-        <v>690.6898193359375</v>
+        <v>689.1676635742188</v>
       </c>
       <c r="H22" t="n">
-        <v>161.4614105224609</v>
+        <v>164.3111877441406</v>
       </c>
       <c r="I22" t="n">
-        <v>796.513671875</v>
+        <v>790.677978515625</v>
       </c>
       <c r="J22" t="n">
-        <v>147.6212615966797</v>
+        <v>142.6489410400391</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>24.69862396067251</v>
       </c>
       <c r="G23" t="n">
-        <v>207.8816223144531</v>
+        <v>205.2410888671875</v>
       </c>
       <c r="H23" t="n">
-        <v>63.96179962158203</v>
+        <v>65.44905090332031</v>
       </c>
       <c r="I23" t="n">
-        <v>217.4418029785156</v>
+        <v>216.7518920898438</v>
       </c>
       <c r="J23" t="n">
-        <v>93.19284057617188</v>
+        <v>93.5943603515625</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>27.11629087610016</v>
       </c>
       <c r="G24" t="n">
-        <v>223.6115875244141</v>
+        <v>223.8665313720703</v>
       </c>
       <c r="H24" t="n">
-        <v>56.58860778808594</v>
+        <v>55.96362686157227</v>
       </c>
       <c r="I24" t="n">
-        <v>286.3244018554688</v>
+        <v>289.3207702636719</v>
       </c>
       <c r="J24" t="n">
-        <v>90.34475708007812</v>
+        <v>93.17762756347656</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>28.97995691733995</v>
       </c>
       <c r="G25" t="n">
-        <v>244.6887512207031</v>
+        <v>242.1475524902344</v>
       </c>
       <c r="H25" t="n">
-        <v>46.44723892211914</v>
+        <v>46.24850463867188</v>
       </c>
       <c r="I25" t="n">
-        <v>430.2621459960938</v>
+        <v>428.1854858398438</v>
       </c>
       <c r="J25" t="n">
-        <v>94.37836456298828</v>
+        <v>94.07728576660156</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>30.34265377319738</v>
       </c>
       <c r="G26" t="n">
-        <v>260.7393493652344</v>
+        <v>262.5242919921875</v>
       </c>
       <c r="H26" t="n">
-        <v>43.14956665039062</v>
+        <v>43.29598236083984</v>
       </c>
       <c r="I26" t="n">
-        <v>527.4063110351562</v>
+        <v>525.6226196289062</v>
       </c>
       <c r="J26" t="n">
-        <v>92.60781097412109</v>
+        <v>95.31871795654297</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>31.86528713449996</v>
       </c>
       <c r="G27" t="n">
-        <v>274.530029296875</v>
+        <v>275.9606323242188</v>
       </c>
       <c r="H27" t="n">
-        <v>40.72194671630859</v>
+        <v>43.22871017456055</v>
       </c>
       <c r="I27" t="n">
-        <v>585.5424194335938</v>
+        <v>585.1881103515625</v>
       </c>
       <c r="J27" t="n">
-        <v>91.65245819091797</v>
+        <v>95.80319976806641</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>31.70139237157215</v>
       </c>
       <c r="G28" t="n">
-        <v>305.8175659179688</v>
+        <v>305.5125122070312</v>
       </c>
       <c r="H28" t="n">
-        <v>59.45434188842773</v>
+        <v>56.16334533691406</v>
       </c>
       <c r="I28" t="n">
-        <v>620.1868896484375</v>
+        <v>619.8931884765625</v>
       </c>
       <c r="J28" t="n">
-        <v>103.8716812133789</v>
+        <v>102.6107940673828</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>31.7420363140709</v>
       </c>
       <c r="G29" t="n">
-        <v>361.2621765136719</v>
+        <v>362.5812072753906</v>
       </c>
       <c r="H29" t="n">
-        <v>92.52345275878906</v>
+        <v>94.13801574707031</v>
       </c>
       <c r="I29" t="n">
-        <v>661.7127075195312</v>
+        <v>654.927001953125</v>
       </c>
       <c r="J29" t="n">
-        <v>125.0639114379883</v>
+        <v>125.2141952514648</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>30.76237588603813</v>
       </c>
       <c r="G30" t="n">
-        <v>509.2887878417969</v>
+        <v>502.7028198242188</v>
       </c>
       <c r="H30" t="n">
-        <v>145.2864379882812</v>
+        <v>143.5560455322266</v>
       </c>
       <c r="I30" t="n">
-        <v>743.1294555664062</v>
+        <v>738.51318359375</v>
       </c>
       <c r="J30" t="n">
-        <v>140.7306365966797</v>
+        <v>143.0613250732422</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>29.73442789455431</v>
       </c>
       <c r="G31" t="n">
-        <v>687.0442504882812</v>
+        <v>690.7378540039062</v>
       </c>
       <c r="H31" t="n">
-        <v>136.4349060058594</v>
+        <v>129.3876495361328</v>
       </c>
       <c r="I31" t="n">
-        <v>776.4500122070312</v>
+        <v>773.631591796875</v>
       </c>
       <c r="J31" t="n">
-        <v>167.9944458007812</v>
+        <v>171.8960113525391</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>30.37782838567884</v>
       </c>
       <c r="G32" t="n">
-        <v>201.9549865722656</v>
+        <v>199.5952758789062</v>
       </c>
       <c r="H32" t="n">
-        <v>70.60890960693359</v>
+        <v>69.41893005371094</v>
       </c>
       <c r="I32" t="n">
-        <v>125.8270416259766</v>
+        <v>127.6233444213867</v>
       </c>
       <c r="J32" t="n">
-        <v>92.92269134521484</v>
+        <v>94.7823486328125</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>33.11659379389907</v>
       </c>
       <c r="G33" t="n">
-        <v>220.1461181640625</v>
+        <v>221.9437713623047</v>
       </c>
       <c r="H33" t="n">
-        <v>62.70896911621094</v>
+        <v>60.87616348266602</v>
       </c>
       <c r="I33" t="n">
-        <v>191.0020599365234</v>
+        <v>188.7960662841797</v>
       </c>
       <c r="J33" t="n">
-        <v>102.5152816772461</v>
+        <v>102.9521484375</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>35.40504769440309</v>
       </c>
       <c r="G34" t="n">
-        <v>242.9748687744141</v>
+        <v>241.0200500488281</v>
       </c>
       <c r="H34" t="n">
-        <v>54.52933883666992</v>
+        <v>53.36875152587891</v>
       </c>
       <c r="I34" t="n">
-        <v>282.6586608886719</v>
+        <v>279.9519653320312</v>
       </c>
       <c r="J34" t="n">
-        <v>115.0616149902344</v>
+        <v>113.2173461914062</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>37.57764389518124</v>
       </c>
       <c r="G35" t="n">
-        <v>263.4148254394531</v>
+        <v>264.572265625</v>
       </c>
       <c r="H35" t="n">
-        <v>53.41250228881836</v>
+        <v>53.37880706787109</v>
       </c>
       <c r="I35" t="n">
-        <v>395.2926330566406</v>
+        <v>394.4255981445312</v>
       </c>
       <c r="J35" t="n">
-        <v>128.2308654785156</v>
+        <v>122.0296096801758</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>38.09115608907656</v>
       </c>
       <c r="G36" t="n">
-        <v>290.1295776367188</v>
+        <v>289.0801391601562</v>
       </c>
       <c r="H36" t="n">
-        <v>48.03707885742188</v>
+        <v>47.18875122070312</v>
       </c>
       <c r="I36" t="n">
-        <v>527.4046020507812</v>
+        <v>524.5314331054688</v>
       </c>
       <c r="J36" t="n">
-        <v>108.1303634643555</v>
+        <v>109.1325836181641</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>38.33579750611559</v>
       </c>
       <c r="G37" t="n">
-        <v>328.2513427734375</v>
+        <v>328.125244140625</v>
       </c>
       <c r="H37" t="n">
-        <v>65.49503326416016</v>
+        <v>61.70975112915039</v>
       </c>
       <c r="I37" t="n">
-        <v>577.1856689453125</v>
+        <v>579.4596557617188</v>
       </c>
       <c r="J37" t="n">
-        <v>113.3611221313477</v>
+        <v>112.8259201049805</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>37.89528654115976</v>
       </c>
       <c r="G38" t="n">
-        <v>398.0472717285156</v>
+        <v>397.2130126953125</v>
       </c>
       <c r="H38" t="n">
-        <v>92.42832183837891</v>
+        <v>91.73108673095703</v>
       </c>
       <c r="I38" t="n">
-        <v>625.2105712890625</v>
+        <v>624.6963500976562</v>
       </c>
       <c r="J38" t="n">
-        <v>122.7798614501953</v>
+        <v>123.7709197998047</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>37.04916938976096</v>
       </c>
       <c r="G39" t="n">
-        <v>516.808837890625</v>
+        <v>513.3585815429688</v>
       </c>
       <c r="H39" t="n">
-        <v>128.7896118164062</v>
+        <v>131.2543334960938</v>
       </c>
       <c r="I39" t="n">
-        <v>671.593994140625</v>
+        <v>675.65380859375</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1480712890625</v>
+        <v>151.5624847412109</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>35.00856026880581</v>
       </c>
       <c r="G40" t="n">
-        <v>674.9783935546875</v>
+        <v>672.4520874023438</v>
       </c>
       <c r="H40" t="n">
-        <v>99.62750244140625</v>
+        <v>98.64913940429688</v>
       </c>
       <c r="I40" t="n">
-        <v>725.0253295898438</v>
+        <v>718.0792236328125</v>
       </c>
       <c r="J40" t="n">
-        <v>213.4931640625</v>
+        <v>208.1476135253906</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>37.58863922492247</v>
       </c>
       <c r="G41" t="n">
-        <v>202.8029479980469</v>
+        <v>203.1180419921875</v>
       </c>
       <c r="H41" t="n">
-        <v>69.64306640625</v>
+        <v>66.24212646484375</v>
       </c>
       <c r="I41" t="n">
-        <v>68.78894805908203</v>
+        <v>71.25789642333984</v>
       </c>
       <c r="J41" t="n">
-        <v>90.85250854492188</v>
+        <v>96.11318206787109</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>40.4685427958547</v>
       </c>
       <c r="G42" t="n">
-        <v>218.9369812011719</v>
+        <v>220.7598419189453</v>
       </c>
       <c r="H42" t="n">
-        <v>63.36246490478516</v>
+        <v>63.78586959838867</v>
       </c>
       <c r="I42" t="n">
-        <v>106.8897399902344</v>
+        <v>107.7326202392578</v>
       </c>
       <c r="J42" t="n">
-        <v>107.6749496459961</v>
+        <v>108.2580413818359</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>42.41365999634309</v>
       </c>
       <c r="G43" t="n">
-        <v>233.3815155029297</v>
+        <v>234.4571838378906</v>
       </c>
       <c r="H43" t="n">
-        <v>58.99592208862305</v>
+        <v>57.0616455078125</v>
       </c>
       <c r="I43" t="n">
-        <v>150.0368957519531</v>
+        <v>152.043701171875</v>
       </c>
       <c r="J43" t="n">
-        <v>121.523811340332</v>
+        <v>123.7024917602539</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>44.05056700894834</v>
       </c>
       <c r="G44" t="n">
-        <v>263.2449645996094</v>
+        <v>261.543212890625</v>
       </c>
       <c r="H44" t="n">
-        <v>55.83191299438477</v>
+        <v>57.8966178894043</v>
       </c>
       <c r="I44" t="n">
-        <v>262.8802490234375</v>
+        <v>263.9012451171875</v>
       </c>
       <c r="J44" t="n">
-        <v>141.7800140380859</v>
+        <v>143.953857421875</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>45.28527361475503</v>
       </c>
       <c r="G45" t="n">
-        <v>283.0210571289062</v>
+        <v>281.4590759277344</v>
       </c>
       <c r="H45" t="n">
-        <v>56.55275344848633</v>
+        <v>57.999755859375</v>
       </c>
       <c r="I45" t="n">
-        <v>358.1036376953125</v>
+        <v>365.6849975585938</v>
       </c>
       <c r="J45" t="n">
-        <v>157.4987335205078</v>
+        <v>150.9088897705078</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>45.11415223222625</v>
       </c>
       <c r="G46" t="n">
-        <v>340.8361511230469</v>
+        <v>339.5816040039062</v>
       </c>
       <c r="H46" t="n">
-        <v>80.60523986816406</v>
+        <v>78.95652008056641</v>
       </c>
       <c r="I46" t="n">
-        <v>488.9765014648438</v>
+        <v>496.0125427246094</v>
       </c>
       <c r="J46" t="n">
-        <v>155.0252685546875</v>
+        <v>159.7002258300781</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>44.97584185956661</v>
       </c>
       <c r="G47" t="n">
-        <v>417.8361511230469</v>
+        <v>419.4727172851562</v>
       </c>
       <c r="H47" t="n">
-        <v>86.23583221435547</v>
+        <v>85.91249084472656</v>
       </c>
       <c r="I47" t="n">
-        <v>576.3548583984375</v>
+        <v>578.6279907226562</v>
       </c>
       <c r="J47" t="n">
-        <v>168.498046875</v>
+        <v>169.2458343505859</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>42.0865253634753</v>
       </c>
       <c r="G48" t="n">
-        <v>537.7698974609375</v>
+        <v>539.0530395507812</v>
       </c>
       <c r="H48" t="n">
-        <v>107.7521057128906</v>
+        <v>107.3822860717773</v>
       </c>
       <c r="I48" t="n">
-        <v>628.4419555664062</v>
+        <v>623.2501220703125</v>
       </c>
       <c r="J48" t="n">
-        <v>198.7548217773438</v>
+        <v>201.8939666748047</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>40.81585186348995</v>
       </c>
       <c r="G49" t="n">
-        <v>644.4432983398438</v>
+        <v>645.0394897460938</v>
       </c>
       <c r="H49" t="n">
-        <v>82.96727752685547</v>
+        <v>82.08380889892578</v>
       </c>
       <c r="I49" t="n">
-        <v>666.2440185546875</v>
+        <v>671.86767578125</v>
       </c>
       <c r="J49" t="n">
-        <v>230.6855316162109</v>
+        <v>228.0980987548828</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>45.37200448015243</v>
       </c>
       <c r="G50" t="n">
-        <v>211.9293060302734</v>
+        <v>210.8680419921875</v>
       </c>
       <c r="H50" t="n">
-        <v>64.99945831298828</v>
+        <v>66.82682037353516</v>
       </c>
       <c r="I50" t="n">
-        <v>17.1098804473877</v>
+        <v>15.2840576171875</v>
       </c>
       <c r="J50" t="n">
-        <v>93.4417724609375</v>
+        <v>94.60326385498047</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>48.78786662406539</v>
       </c>
       <c r="G51" t="n">
-        <v>227.749267578125</v>
+        <v>227.0682525634766</v>
       </c>
       <c r="H51" t="n">
-        <v>60.23260116577148</v>
+        <v>60.84770965576172</v>
       </c>
       <c r="I51" t="n">
-        <v>43.40065002441406</v>
+        <v>44.19091415405273</v>
       </c>
       <c r="J51" t="n">
-        <v>106.7551879882812</v>
+        <v>107.8033142089844</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>50.73675625671652</v>
       </c>
       <c r="G52" t="n">
-        <v>241.3203887939453</v>
+        <v>239.8785705566406</v>
       </c>
       <c r="H52" t="n">
-        <v>57.16680145263672</v>
+        <v>55.27974319458008</v>
       </c>
       <c r="I52" t="n">
-        <v>63.77743530273438</v>
+        <v>63.96359252929688</v>
       </c>
       <c r="J52" t="n">
-        <v>118.4240646362305</v>
+        <v>121.0526351928711</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>51.96609868449762</v>
       </c>
       <c r="G53" t="n">
-        <v>259.6749877929688</v>
+        <v>259.0726623535156</v>
       </c>
       <c r="H53" t="n">
-        <v>51.33667373657227</v>
+        <v>51.7464599609375</v>
       </c>
       <c r="I53" t="n">
-        <v>132.6382598876953</v>
+        <v>135.7585754394531</v>
       </c>
       <c r="J53" t="n">
-        <v>147.0677947998047</v>
+        <v>148.5995483398438</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>52.45736467440484</v>
       </c>
       <c r="G54" t="n">
-        <v>288.3446960449219</v>
+        <v>289.7086486816406</v>
       </c>
       <c r="H54" t="n">
-        <v>57.02437591552734</v>
+        <v>57.67217254638672</v>
       </c>
       <c r="I54" t="n">
-        <v>225.8780975341797</v>
+        <v>233.7470855712891</v>
       </c>
       <c r="J54" t="n">
-        <v>166.7087249755859</v>
+        <v>164.3308410644531</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>51.85220057025387</v>
       </c>
       <c r="G55" t="n">
-        <v>342.6856079101562</v>
+        <v>342.5442199707031</v>
       </c>
       <c r="H55" t="n">
-        <v>79.53909301757812</v>
+        <v>77.80995941162109</v>
       </c>
       <c r="I55" t="n">
-        <v>381.37841796875</v>
+        <v>380.4649047851562</v>
       </c>
       <c r="J55" t="n">
-        <v>187.2000579833984</v>
+        <v>184.3295440673828</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>51.37276147532685</v>
       </c>
       <c r="G56" t="n">
-        <v>416.8681335449219</v>
+        <v>414.9738159179688</v>
       </c>
       <c r="H56" t="n">
-        <v>90.65554046630859</v>
+        <v>91.62322998046875</v>
       </c>
       <c r="I56" t="n">
-        <v>489.8527526855469</v>
+        <v>490.2589111328125</v>
       </c>
       <c r="J56" t="n">
-        <v>224.9325408935547</v>
+        <v>228.5506439208984</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>49.881475732815</v>
       </c>
       <c r="G57" t="n">
-        <v>519.0604858398438</v>
+        <v>521.4552612304688</v>
       </c>
       <c r="H57" t="n">
-        <v>91.35800170898438</v>
+        <v>92.03311920166016</v>
       </c>
       <c r="I57" t="n">
-        <v>574.7412719726562</v>
+        <v>582.3697509765625</v>
       </c>
       <c r="J57" t="n">
-        <v>234.3451538085938</v>
+        <v>231.1237030029297</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>46.147295090649</v>
       </c>
       <c r="G58" t="n">
-        <v>639.0999145507812</v>
+        <v>636.2229614257812</v>
       </c>
       <c r="H58" t="n">
-        <v>60.56166458129883</v>
+        <v>62.94756317138672</v>
       </c>
       <c r="I58" t="n">
-        <v>615.0350952148438</v>
+        <v>623.3865966796875</v>
       </c>
       <c r="J58" t="n">
-        <v>259.5363464355469</v>
+        <v>258.8815307617188</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>56.70921047332411</v>
       </c>
       <c r="G59" t="n">
-        <v>233.5619049072266</v>
+        <v>235.8320007324219</v>
       </c>
       <c r="H59" t="n">
-        <v>59.4901123046875</v>
+        <v>56.81057739257812</v>
       </c>
       <c r="I59" t="n">
-        <v>-18.3971004486084</v>
+        <v>-20.40680503845215</v>
       </c>
       <c r="J59" t="n">
-        <v>114.7243728637695</v>
+        <v>115.8277893066406</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>58.23723423416003</v>
       </c>
       <c r="G60" t="n">
-        <v>248.3323974609375</v>
+        <v>248.8194274902344</v>
       </c>
       <c r="H60" t="n">
-        <v>55.76004028320312</v>
+        <v>54.08010482788086</v>
       </c>
       <c r="I60" t="n">
-        <v>0.1935369670391083</v>
+        <v>-4.74994945526123</v>
       </c>
       <c r="J60" t="n">
-        <v>124.6188507080078</v>
+        <v>121.1684417724609</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>59.34611390594659</v>
       </c>
       <c r="G61" t="n">
-        <v>262.3526916503906</v>
+        <v>261.8672790527344</v>
       </c>
       <c r="H61" t="n">
-        <v>53.17037582397461</v>
+        <v>52.85824966430664</v>
       </c>
       <c r="I61" t="n">
-        <v>34.47248458862305</v>
+        <v>37.82476425170898</v>
       </c>
       <c r="J61" t="n">
-        <v>136.7001342773438</v>
+        <v>139.4279479980469</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>59.33493295870724</v>
       </c>
       <c r="G62" t="n">
-        <v>287.6356201171875</v>
+        <v>288.1874084472656</v>
       </c>
       <c r="H62" t="n">
-        <v>55.27826309204102</v>
+        <v>54.42420959472656</v>
       </c>
       <c r="I62" t="n">
-        <v>116.9179306030273</v>
+        <v>110.8205490112305</v>
       </c>
       <c r="J62" t="n">
-        <v>175.7021484375</v>
+        <v>170.8091735839844</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>58.39353789451046</v>
       </c>
       <c r="G63" t="n">
-        <v>323.4731140136719</v>
+        <v>325.9501953125</v>
       </c>
       <c r="H63" t="n">
-        <v>64.75924682617188</v>
+        <v>65.24628448486328</v>
       </c>
       <c r="I63" t="n">
-        <v>241.7244720458984</v>
+        <v>238.7877349853516</v>
       </c>
       <c r="J63" t="n">
-        <v>204.6181945800781</v>
+        <v>203.2266998291016</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>57.3323684814925</v>
       </c>
       <c r="G64" t="n">
-        <v>413.4940795898438</v>
+        <v>412.2278442382812</v>
       </c>
       <c r="H64" t="n">
-        <v>91.03298187255859</v>
+        <v>89.50661468505859</v>
       </c>
       <c r="I64" t="n">
-        <v>415.5109558105469</v>
+        <v>413.2147216796875</v>
       </c>
       <c r="J64" t="n">
-        <v>261.208984375</v>
+        <v>257.0307922363281</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>54.83283250514894</v>
       </c>
       <c r="G65" t="n">
-        <v>519.7836303710938</v>
+        <v>518.7946166992188</v>
       </c>
       <c r="H65" t="n">
-        <v>92.89686584472656</v>
+        <v>92.71121215820312</v>
       </c>
       <c r="I65" t="n">
-        <v>505.8834838867188</v>
+        <v>509.0125427246094</v>
       </c>
       <c r="J65" t="n">
-        <v>262.5746765136719</v>
+        <v>261.4827270507812</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>66.18771861830042</v>
       </c>
       <c r="G66" t="n">
-        <v>259.40673828125</v>
+        <v>260.781982421875</v>
       </c>
       <c r="H66" t="n">
-        <v>50.20128631591797</v>
+        <v>48.39712524414062</v>
       </c>
       <c r="I66" t="n">
-        <v>-62.60676574707031</v>
+        <v>-62.10453033447266</v>
       </c>
       <c r="J66" t="n">
-        <v>123.1598587036133</v>
+        <v>122.7244262695312</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>66.85471859160208</v>
       </c>
       <c r="G67" t="n">
-        <v>269.9326171875</v>
+        <v>270.0545959472656</v>
       </c>
       <c r="H67" t="n">
-        <v>51.31431579589844</v>
+        <v>49.53567886352539</v>
       </c>
       <c r="I67" t="n">
-        <v>-38.9931755065918</v>
+        <v>-39.09667587280273</v>
       </c>
       <c r="J67" t="n">
-        <v>137.240478515625</v>
+        <v>134.0382843017578</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>66.29608309198557</v>
       </c>
       <c r="G68" t="n">
-        <v>299.2261352539062</v>
+        <v>299.5087280273438</v>
       </c>
       <c r="H68" t="n">
-        <v>56.55698776245117</v>
+        <v>54.24457931518555</v>
       </c>
       <c r="I68" t="n">
-        <v>40.39697265625</v>
+        <v>47.39951324462891</v>
       </c>
       <c r="J68" t="n">
-        <v>171.8911285400391</v>
+        <v>181.7150268554688</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>65.32452373485688</v>
       </c>
       <c r="G69" t="n">
-        <v>326.7539672851562</v>
+        <v>325.1239013671875</v>
       </c>
       <c r="H69" t="n">
-        <v>62.37989044189453</v>
+        <v>63.85072708129883</v>
       </c>
       <c r="I69" t="n">
-        <v>121.756462097168</v>
+        <v>121.5566024780273</v>
       </c>
       <c r="J69" t="n">
-        <v>206.8486633300781</v>
+        <v>213.6869201660156</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>63.37031159981304</v>
       </c>
       <c r="G70" t="n">
-        <v>410.2628173828125</v>
+        <v>409.67724609375</v>
       </c>
       <c r="H70" t="n">
-        <v>86.39420318603516</v>
+        <v>86.76880645751953</v>
       </c>
       <c r="I70" t="n">
-        <v>325.1239318847656</v>
+        <v>333.0133666992188</v>
       </c>
       <c r="J70" t="n">
-        <v>281.4850463867188</v>
+        <v>281.1354064941406</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_optimal/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_mc_shared_relu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_mc_shared_relu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,20 +466,25 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>microstructure</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>H1_new_pred_KFold_mean</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>H1_new_pred_KFold_std</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>C2_new_pred_KFold_mean</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>C2_new_pred_KFold_std</t>
         </is>
@@ -504,17 +509,22 @@
       <c r="F2" t="n">
         <v>14.31699359657089</v>
       </c>
-      <c r="G2" t="n">
-        <v>257.0085754394531</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H2" t="n">
-        <v>83.60493469238281</v>
+        <v>273.2070617675781</v>
       </c>
       <c r="I2" t="n">
-        <v>641.43359375</v>
+        <v>65.48469543457031</v>
       </c>
       <c r="J2" t="n">
-        <v>140.5340423583984</v>
+        <v>671.1605224609375</v>
+      </c>
+      <c r="K2" t="n">
+        <v>133.1059417724609</v>
       </c>
     </row>
     <row r="3">
@@ -536,17 +546,22 @@
       <c r="F3" t="n">
         <v>15.27891067420843</v>
       </c>
-      <c r="G3" t="n">
-        <v>275.3134765625</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H3" t="n">
-        <v>90.09063720703125</v>
+        <v>318.5349731445312</v>
       </c>
       <c r="I3" t="n">
-        <v>685.850341796875</v>
+        <v>101.9982452392578</v>
       </c>
       <c r="J3" t="n">
-        <v>158.6925964355469</v>
+        <v>737.8463745117188</v>
+      </c>
+      <c r="K3" t="n">
+        <v>137.0043334960938</v>
       </c>
     </row>
     <row r="4">
@@ -568,17 +583,22 @@
       <c r="F4" t="n">
         <v>15.85974020072816</v>
       </c>
-      <c r="G4" t="n">
-        <v>300.0667724609375</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H4" t="n">
-        <v>100.3458404541016</v>
+        <v>373.5579833984375</v>
       </c>
       <c r="I4" t="n">
-        <v>718.2384643554688</v>
+        <v>136.9599151611328</v>
       </c>
       <c r="J4" t="n">
-        <v>166.3346862792969</v>
+        <v>768.642333984375</v>
+      </c>
+      <c r="K4" t="n">
+        <v>134.2052917480469</v>
       </c>
     </row>
     <row r="5">
@@ -600,17 +620,22 @@
       <c r="F5" t="n">
         <v>16.6254486072678</v>
       </c>
-      <c r="G5" t="n">
-        <v>333.878662109375</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H5" t="n">
-        <v>119.8775787353516</v>
+        <v>433.1742553710938</v>
       </c>
       <c r="I5" t="n">
-        <v>744.3771362304688</v>
+        <v>166.1784820556641</v>
       </c>
       <c r="J5" t="n">
-        <v>167.4115905761719</v>
+        <v>785.1802978515625</v>
+      </c>
+      <c r="K5" t="n">
+        <v>129.9846954345703</v>
       </c>
     </row>
     <row r="6">
@@ -632,17 +657,22 @@
       <c r="F6" t="n">
         <v>16.72168606967666</v>
       </c>
-      <c r="G6" t="n">
-        <v>405.2069396972656</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H6" t="n">
-        <v>154.4488677978516</v>
+        <v>503.9545288085938</v>
       </c>
       <c r="I6" t="n">
-        <v>764.9163818359375</v>
+        <v>187.98779296875</v>
       </c>
       <c r="J6" t="n">
-        <v>175.3382568359375</v>
+        <v>799.8734130859375</v>
+      </c>
+      <c r="K6" t="n">
+        <v>124.3342132568359</v>
       </c>
     </row>
     <row r="7">
@@ -664,17 +694,22 @@
       <c r="F7" t="n">
         <v>17.58023045110392</v>
       </c>
-      <c r="G7" t="n">
-        <v>241.1754913330078</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H7" t="n">
-        <v>49.56318283081055</v>
+        <v>240.333251953125</v>
       </c>
       <c r="I7" t="n">
-        <v>561.434814453125</v>
+        <v>48.02876281738281</v>
       </c>
       <c r="J7" t="n">
-        <v>88.61136627197266</v>
+        <v>541.4548950195312</v>
+      </c>
+      <c r="K7" t="n">
+        <v>80.93805694580078</v>
       </c>
     </row>
     <row r="8">
@@ -696,17 +731,22 @@
       <c r="F8" t="n">
         <v>18.57818076528054</v>
       </c>
-      <c r="G8" t="n">
-        <v>247.4507598876953</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H8" t="n">
-        <v>57.11803436279297</v>
+        <v>249.2369537353516</v>
       </c>
       <c r="I8" t="n">
-        <v>597.502685546875</v>
+        <v>51.6952018737793</v>
       </c>
       <c r="J8" t="n">
-        <v>102.175407409668</v>
+        <v>574.4611206054688</v>
+      </c>
+      <c r="K8" t="n">
+        <v>94.74551391601562</v>
       </c>
     </row>
     <row r="9">
@@ -728,17 +768,22 @@
       <c r="F9" t="n">
         <v>19.60838259075554</v>
       </c>
-      <c r="G9" t="n">
-        <v>261.7474670410156</v>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H9" t="n">
-        <v>70.21438598632812</v>
+        <v>270.2310791015625</v>
       </c>
       <c r="I9" t="n">
-        <v>636.4732666015625</v>
+        <v>65.29534912109375</v>
       </c>
       <c r="J9" t="n">
-        <v>131.3511352539062</v>
+        <v>643.776123046875</v>
+      </c>
+      <c r="K9" t="n">
+        <v>112.811653137207</v>
       </c>
     </row>
     <row r="10">
@@ -760,17 +805,22 @@
       <c r="F10" t="n">
         <v>20.10500298210745</v>
       </c>
-      <c r="G10" t="n">
-        <v>276.2907409667969</v>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H10" t="n">
-        <v>67.47862243652344</v>
+        <v>298.3857421875</v>
       </c>
       <c r="I10" t="n">
-        <v>656.7915649414062</v>
+        <v>70.66058349609375</v>
       </c>
       <c r="J10" t="n">
-        <v>152.5110015869141</v>
+        <v>688.21435546875</v>
+      </c>
+      <c r="K10" t="n">
+        <v>129.5277404785156</v>
       </c>
     </row>
     <row r="11">
@@ -792,17 +842,22 @@
       <c r="F11" t="n">
         <v>20.82282672295324</v>
       </c>
-      <c r="G11" t="n">
-        <v>306.8307800292969</v>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H11" t="n">
-        <v>93.75353240966797</v>
+        <v>368.0412902832031</v>
       </c>
       <c r="I11" t="n">
-        <v>697.3081665039062</v>
+        <v>130.2467956542969</v>
       </c>
       <c r="J11" t="n">
-        <v>164.9479827880859</v>
+        <v>724.292236328125</v>
+      </c>
+      <c r="K11" t="n">
+        <v>129.1855773925781</v>
       </c>
     </row>
     <row r="12">
@@ -824,17 +879,22 @@
       <c r="F12" t="n">
         <v>21.05931589769223</v>
       </c>
-      <c r="G12" t="n">
-        <v>362.6964416503906</v>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H12" t="n">
-        <v>126.8394317626953</v>
+        <v>465.5716552734375</v>
       </c>
       <c r="I12" t="n">
-        <v>723.5025024414062</v>
+        <v>179.2814331054688</v>
       </c>
       <c r="J12" t="n">
-        <v>172.1146087646484</v>
+        <v>747.4882202148438</v>
+      </c>
+      <c r="K12" t="n">
+        <v>129.0373840332031</v>
       </c>
     </row>
     <row r="13">
@@ -856,17 +916,22 @@
       <c r="F13" t="n">
         <v>21.38449445236935</v>
       </c>
-      <c r="G13" t="n">
-        <v>479.9197387695312</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H13" t="n">
-        <v>173.9527893066406</v>
+        <v>574.1240844726562</v>
       </c>
       <c r="I13" t="n">
-        <v>759.572998046875</v>
+        <v>183.8705139160156</v>
       </c>
       <c r="J13" t="n">
-        <v>163.8970489501953</v>
+        <v>762.0052490234375</v>
+      </c>
+      <c r="K13" t="n">
+        <v>120.4156036376953</v>
       </c>
     </row>
     <row r="14">
@@ -888,17 +953,22 @@
       <c r="F14" t="n">
         <v>19.79697020692051</v>
       </c>
-      <c r="G14" t="n">
-        <v>214.9804229736328</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H14" t="n">
-        <v>59.87945556640625</v>
+        <v>219.5054931640625</v>
       </c>
       <c r="I14" t="n">
-        <v>342.28173828125</v>
+        <v>51.04612731933594</v>
       </c>
       <c r="J14" t="n">
-        <v>83.71969604492188</v>
+        <v>380.0396728515625</v>
+      </c>
+      <c r="K14" t="n">
+        <v>90.69422149658203</v>
       </c>
     </row>
     <row r="15">
@@ -920,17 +990,22 @@
       <c r="F15" t="n">
         <v>21.48203443327129</v>
       </c>
-      <c r="G15" t="n">
-        <v>234.7683258056641</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H15" t="n">
-        <v>50.65927124023438</v>
+        <v>237.8039855957031</v>
       </c>
       <c r="I15" t="n">
-        <v>475.2203674316406</v>
+        <v>47.35456848144531</v>
       </c>
       <c r="J15" t="n">
-        <v>78.51280212402344</v>
+        <v>476.3813171386719</v>
+      </c>
+      <c r="K15" t="n">
+        <v>86.82250213623047</v>
       </c>
     </row>
     <row r="16">
@@ -952,17 +1027,22 @@
       <c r="F16" t="n">
         <v>22.47631622738632</v>
       </c>
-      <c r="G16" t="n">
-        <v>252.7217407226562</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H16" t="n">
-        <v>44.36631011962891</v>
+        <v>252.4316864013672</v>
       </c>
       <c r="I16" t="n">
-        <v>594.363525390625</v>
+        <v>46.07841873168945</v>
       </c>
       <c r="J16" t="n">
-        <v>92.89161682128906</v>
+        <v>565.0623168945312</v>
+      </c>
+      <c r="K16" t="n">
+        <v>98.406494140625</v>
       </c>
     </row>
     <row r="17">
@@ -984,17 +1064,22 @@
       <c r="F17" t="n">
         <v>24.35763244318183</v>
       </c>
-      <c r="G17" t="n">
-        <v>260.4008483886719</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H17" t="n">
-        <v>45.78094100952148</v>
+        <v>262.2782592773438</v>
       </c>
       <c r="I17" t="n">
-        <v>596.86279296875</v>
+        <v>51.30315399169922</v>
       </c>
       <c r="J17" t="n">
-        <v>102.9384841918945</v>
+        <v>577.3192749023438</v>
+      </c>
+      <c r="K17" t="n">
+        <v>98.43495178222656</v>
       </c>
     </row>
     <row r="18">
@@ -1016,17 +1101,22 @@
       <c r="F18" t="n">
         <v>25.62064236797445</v>
       </c>
-      <c r="G18" t="n">
-        <v>270.7920837402344</v>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H18" t="n">
-        <v>48.8568115234375</v>
+        <v>273.5794067382812</v>
       </c>
       <c r="I18" t="n">
-        <v>626.9771118164062</v>
+        <v>49.44564056396484</v>
       </c>
       <c r="J18" t="n">
-        <v>115.1708755493164</v>
+        <v>623.8695678710938</v>
+      </c>
+      <c r="K18" t="n">
+        <v>115.0263900756836</v>
       </c>
     </row>
     <row r="19">
@@ -1048,17 +1138,22 @@
       <c r="F19" t="n">
         <v>25.92967709475499</v>
       </c>
-      <c r="G19" t="n">
-        <v>288.8577880859375</v>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H19" t="n">
-        <v>54.7770881652832</v>
+        <v>306.03125</v>
       </c>
       <c r="I19" t="n">
-        <v>654.7612915039062</v>
+        <v>79.33633422851562</v>
       </c>
       <c r="J19" t="n">
-        <v>145.2220611572266</v>
+        <v>659.868408203125</v>
+      </c>
+      <c r="K19" t="n">
+        <v>122.2106628417969</v>
       </c>
     </row>
     <row r="20">
@@ -1080,17 +1175,22 @@
       <c r="F20" t="n">
         <v>26.19588155013293</v>
       </c>
-      <c r="G20" t="n">
-        <v>340.7612609863281</v>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H20" t="n">
-        <v>104.3491744995117</v>
+        <v>370.6131286621094</v>
       </c>
       <c r="I20" t="n">
-        <v>685.6841430664062</v>
+        <v>145.1012268066406</v>
       </c>
       <c r="J20" t="n">
-        <v>162.8584747314453</v>
+        <v>700.4548950195312</v>
+      </c>
+      <c r="K20" t="n">
+        <v>128.3252258300781</v>
       </c>
     </row>
     <row r="21">
@@ -1112,17 +1212,22 @@
       <c r="F21" t="n">
         <v>25.87267490890685</v>
       </c>
-      <c r="G21" t="n">
-        <v>482.046142578125</v>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H21" t="n">
-        <v>169.0061340332031</v>
+        <v>529.486328125</v>
       </c>
       <c r="I21" t="n">
-        <v>741.3004150390625</v>
+        <v>183.8923034667969</v>
       </c>
       <c r="J21" t="n">
-        <v>160.8446197509766</v>
+        <v>739.81884765625</v>
+      </c>
+      <c r="K21" t="n">
+        <v>143.0144653320312</v>
       </c>
     </row>
     <row r="22">
@@ -1144,17 +1249,22 @@
       <c r="F22" t="n">
         <v>24.64055238634836</v>
       </c>
-      <c r="G22" t="n">
-        <v>689.1676635742188</v>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H22" t="n">
-        <v>164.3111877441406</v>
+        <v>713.4842529296875</v>
       </c>
       <c r="I22" t="n">
-        <v>790.677978515625</v>
+        <v>134.0476837158203</v>
       </c>
       <c r="J22" t="n">
-        <v>142.6489410400391</v>
+        <v>780.5305786132812</v>
+      </c>
+      <c r="K22" t="n">
+        <v>137.1830291748047</v>
       </c>
     </row>
     <row r="23">
@@ -1176,17 +1286,22 @@
       <c r="F23" t="n">
         <v>24.69862396067251</v>
       </c>
-      <c r="G23" t="n">
-        <v>205.2410888671875</v>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H23" t="n">
-        <v>65.44905090332031</v>
+        <v>216.1164093017578</v>
       </c>
       <c r="I23" t="n">
-        <v>216.7518920898438</v>
+        <v>56.8300895690918</v>
       </c>
       <c r="J23" t="n">
-        <v>93.5943603515625</v>
+        <v>265.4633483886719</v>
+      </c>
+      <c r="K23" t="n">
+        <v>97.96231842041016</v>
       </c>
     </row>
     <row r="24">
@@ -1208,17 +1323,22 @@
       <c r="F24" t="n">
         <v>27.11629087610016</v>
       </c>
-      <c r="G24" t="n">
-        <v>223.8665313720703</v>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H24" t="n">
-        <v>55.96362686157227</v>
+        <v>232.740234375</v>
       </c>
       <c r="I24" t="n">
-        <v>289.3207702636719</v>
+        <v>54.65924835205078</v>
       </c>
       <c r="J24" t="n">
-        <v>93.17762756347656</v>
+        <v>345.5769653320312</v>
+      </c>
+      <c r="K24" t="n">
+        <v>92.13516235351562</v>
       </c>
     </row>
     <row r="25">
@@ -1240,17 +1360,22 @@
       <c r="F25" t="n">
         <v>28.97995691733995</v>
       </c>
-      <c r="G25" t="n">
-        <v>242.1475524902344</v>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H25" t="n">
-        <v>46.24850463867188</v>
+        <v>252.9583282470703</v>
       </c>
       <c r="I25" t="n">
-        <v>428.1854858398438</v>
+        <v>45.25084686279297</v>
       </c>
       <c r="J25" t="n">
-        <v>94.07728576660156</v>
+        <v>443.1668701171875</v>
+      </c>
+      <c r="K25" t="n">
+        <v>91.11415863037109</v>
       </c>
     </row>
     <row r="26">
@@ -1272,17 +1397,22 @@
       <c r="F26" t="n">
         <v>30.34265377319738</v>
       </c>
-      <c r="G26" t="n">
-        <v>262.5242919921875</v>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H26" t="n">
-        <v>43.29598236083984</v>
+        <v>265.66845703125</v>
       </c>
       <c r="I26" t="n">
-        <v>525.6226196289062</v>
+        <v>39.87156677246094</v>
       </c>
       <c r="J26" t="n">
-        <v>95.31871795654297</v>
+        <v>513.9395751953125</v>
+      </c>
+      <c r="K26" t="n">
+        <v>93.59445953369141</v>
       </c>
     </row>
     <row r="27">
@@ -1304,17 +1434,22 @@
       <c r="F27" t="n">
         <v>31.86528713449996</v>
       </c>
-      <c r="G27" t="n">
-        <v>275.9606323242188</v>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H27" t="n">
-        <v>43.22871017456055</v>
+        <v>280.6137084960938</v>
       </c>
       <c r="I27" t="n">
-        <v>585.1881103515625</v>
+        <v>44.57028961181641</v>
       </c>
       <c r="J27" t="n">
-        <v>95.80319976806641</v>
+        <v>571.0747680664062</v>
+      </c>
+      <c r="K27" t="n">
+        <v>111.2708511352539</v>
       </c>
     </row>
     <row r="28">
@@ -1336,17 +1471,22 @@
       <c r="F28" t="n">
         <v>31.70139237157215</v>
       </c>
-      <c r="G28" t="n">
-        <v>305.5125122070312</v>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H28" t="n">
-        <v>56.16334533691406</v>
+        <v>300.0465087890625</v>
       </c>
       <c r="I28" t="n">
-        <v>619.8931884765625</v>
+        <v>63.00582122802734</v>
       </c>
       <c r="J28" t="n">
-        <v>102.6107940673828</v>
+        <v>623.0422973632812</v>
+      </c>
+      <c r="K28" t="n">
+        <v>117.1051254272461</v>
       </c>
     </row>
     <row r="29">
@@ -1368,17 +1508,22 @@
       <c r="F29" t="n">
         <v>31.7420363140709</v>
       </c>
-      <c r="G29" t="n">
-        <v>362.5812072753906</v>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H29" t="n">
-        <v>94.13801574707031</v>
+        <v>334.5142211914062</v>
       </c>
       <c r="I29" t="n">
-        <v>654.927001953125</v>
+        <v>95.24050903320312</v>
       </c>
       <c r="J29" t="n">
-        <v>125.2141952514648</v>
+        <v>672.4481201171875</v>
+      </c>
+      <c r="K29" t="n">
+        <v>130.7820892333984</v>
       </c>
     </row>
     <row r="30">
@@ -1400,17 +1545,22 @@
       <c r="F30" t="n">
         <v>30.76237588603813</v>
       </c>
-      <c r="G30" t="n">
-        <v>502.7028198242188</v>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H30" t="n">
-        <v>143.5560455322266</v>
+        <v>466.3481140136719</v>
       </c>
       <c r="I30" t="n">
-        <v>738.51318359375</v>
+        <v>162.0797576904297</v>
       </c>
       <c r="J30" t="n">
-        <v>143.0613250732422</v>
+        <v>719.70068359375</v>
+      </c>
+      <c r="K30" t="n">
+        <v>144.8667449951172</v>
       </c>
     </row>
     <row r="31">
@@ -1432,17 +1582,22 @@
       <c r="F31" t="n">
         <v>29.73442789455431</v>
       </c>
-      <c r="G31" t="n">
-        <v>690.7378540039062</v>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H31" t="n">
-        <v>129.3876495361328</v>
+        <v>687.619140625</v>
       </c>
       <c r="I31" t="n">
-        <v>773.631591796875</v>
+        <v>132.9844665527344</v>
       </c>
       <c r="J31" t="n">
-        <v>171.8960113525391</v>
+        <v>757.79931640625</v>
+      </c>
+      <c r="K31" t="n">
+        <v>149.3276824951172</v>
       </c>
     </row>
     <row r="32">
@@ -1464,17 +1619,22 @@
       <c r="F32" t="n">
         <v>30.37782838567884</v>
       </c>
-      <c r="G32" t="n">
-        <v>199.5952758789062</v>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H32" t="n">
-        <v>69.41893005371094</v>
+        <v>210.8189239501953</v>
       </c>
       <c r="I32" t="n">
-        <v>127.6233444213867</v>
+        <v>58.12750625610352</v>
       </c>
       <c r="J32" t="n">
-        <v>94.7823486328125</v>
+        <v>189.8934936523438</v>
+      </c>
+      <c r="K32" t="n">
+        <v>104.4774475097656</v>
       </c>
     </row>
     <row r="33">
@@ -1496,17 +1656,22 @@
       <c r="F33" t="n">
         <v>33.11659379389907</v>
       </c>
-      <c r="G33" t="n">
-        <v>221.9437713623047</v>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H33" t="n">
-        <v>60.87616348266602</v>
+        <v>233.3414611816406</v>
       </c>
       <c r="I33" t="n">
-        <v>188.7960662841797</v>
+        <v>51.79924392700195</v>
       </c>
       <c r="J33" t="n">
-        <v>102.9521484375</v>
+        <v>249.0186462402344</v>
+      </c>
+      <c r="K33" t="n">
+        <v>104.1648178100586</v>
       </c>
     </row>
     <row r="34">
@@ -1528,17 +1693,22 @@
       <c r="F34" t="n">
         <v>35.40504769440309</v>
       </c>
-      <c r="G34" t="n">
-        <v>241.0200500488281</v>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H34" t="n">
-        <v>53.36875152587891</v>
+        <v>251.2416687011719</v>
       </c>
       <c r="I34" t="n">
-        <v>279.9519653320312</v>
+        <v>45.07849884033203</v>
       </c>
       <c r="J34" t="n">
-        <v>113.2173461914062</v>
+        <v>340.5169677734375</v>
+      </c>
+      <c r="K34" t="n">
+        <v>101.7175521850586</v>
       </c>
     </row>
     <row r="35">
@@ -1560,17 +1730,22 @@
       <c r="F35" t="n">
         <v>37.57764389518124</v>
       </c>
-      <c r="G35" t="n">
-        <v>264.572265625</v>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H35" t="n">
-        <v>53.37880706787109</v>
+        <v>271.3648681640625</v>
       </c>
       <c r="I35" t="n">
-        <v>394.4255981445312</v>
+        <v>39.64513397216797</v>
       </c>
       <c r="J35" t="n">
-        <v>122.0296096801758</v>
+        <v>427.7303771972656</v>
+      </c>
+      <c r="K35" t="n">
+        <v>114.6686630249023</v>
       </c>
     </row>
     <row r="36">
@@ -1592,17 +1767,22 @@
       <c r="F36" t="n">
         <v>38.09115608907656</v>
       </c>
-      <c r="G36" t="n">
-        <v>289.0801391601562</v>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H36" t="n">
-        <v>47.18875122070312</v>
+        <v>293.4347534179688</v>
       </c>
       <c r="I36" t="n">
-        <v>524.5314331054688</v>
+        <v>42.19743347167969</v>
       </c>
       <c r="J36" t="n">
-        <v>109.1325836181641</v>
+        <v>510.4983215332031</v>
+      </c>
+      <c r="K36" t="n">
+        <v>122.5143890380859</v>
       </c>
     </row>
     <row r="37">
@@ -1624,17 +1804,22 @@
       <c r="F37" t="n">
         <v>38.33579750611559</v>
       </c>
-      <c r="G37" t="n">
-        <v>328.125244140625</v>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H37" t="n">
-        <v>61.70975112915039</v>
+        <v>314.7420043945312</v>
       </c>
       <c r="I37" t="n">
-        <v>579.4596557617188</v>
+        <v>54.03657531738281</v>
       </c>
       <c r="J37" t="n">
-        <v>112.8259201049805</v>
+        <v>573.1465454101562</v>
+      </c>
+      <c r="K37" t="n">
+        <v>127.8819580078125</v>
       </c>
     </row>
     <row r="38">
@@ -1656,17 +1841,22 @@
       <c r="F38" t="n">
         <v>37.89528654115976</v>
       </c>
-      <c r="G38" t="n">
-        <v>397.2130126953125</v>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H38" t="n">
-        <v>91.73108673095703</v>
+        <v>349.4759521484375</v>
       </c>
       <c r="I38" t="n">
-        <v>624.6963500976562</v>
+        <v>79.6583251953125</v>
       </c>
       <c r="J38" t="n">
-        <v>123.7709197998047</v>
+        <v>654.34765625</v>
+      </c>
+      <c r="K38" t="n">
+        <v>133.2170562744141</v>
       </c>
     </row>
     <row r="39">
@@ -1688,17 +1878,22 @@
       <c r="F39" t="n">
         <v>37.04916938976096</v>
       </c>
-      <c r="G39" t="n">
-        <v>513.3585815429688</v>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H39" t="n">
-        <v>131.2543334960938</v>
+        <v>432.71923828125</v>
       </c>
       <c r="I39" t="n">
-        <v>675.65380859375</v>
+        <v>123.2980880737305</v>
       </c>
       <c r="J39" t="n">
-        <v>151.5624847412109</v>
+        <v>694.09619140625</v>
+      </c>
+      <c r="K39" t="n">
+        <v>143.8921966552734</v>
       </c>
     </row>
     <row r="40">
@@ -1720,17 +1915,22 @@
       <c r="F40" t="n">
         <v>35.00856026880581</v>
       </c>
-      <c r="G40" t="n">
-        <v>672.4520874023438</v>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H40" t="n">
-        <v>98.64913940429688</v>
+        <v>668.3648681640625</v>
       </c>
       <c r="I40" t="n">
-        <v>718.0792236328125</v>
+        <v>108.6839447021484</v>
       </c>
       <c r="J40" t="n">
-        <v>208.1476135253906</v>
+        <v>729.6201782226562</v>
+      </c>
+      <c r="K40" t="n">
+        <v>147.6792907714844</v>
       </c>
     </row>
     <row r="41">
@@ -1752,17 +1952,22 @@
       <c r="F41" t="n">
         <v>37.58863922492247</v>
       </c>
-      <c r="G41" t="n">
-        <v>203.1180419921875</v>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H41" t="n">
-        <v>66.24212646484375</v>
+        <v>214.6156311035156</v>
       </c>
       <c r="I41" t="n">
-        <v>71.25789642333984</v>
+        <v>61.03120803833008</v>
       </c>
       <c r="J41" t="n">
-        <v>96.11318206787109</v>
+        <v>147.135986328125</v>
+      </c>
+      <c r="K41" t="n">
+        <v>105.9804992675781</v>
       </c>
     </row>
     <row r="42">
@@ -1784,17 +1989,22 @@
       <c r="F42" t="n">
         <v>40.4685427958547</v>
       </c>
-      <c r="G42" t="n">
-        <v>220.7598419189453</v>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H42" t="n">
-        <v>63.78586959838867</v>
+        <v>233.5972595214844</v>
       </c>
       <c r="I42" t="n">
-        <v>107.7326202392578</v>
+        <v>55.65328979492188</v>
       </c>
       <c r="J42" t="n">
-        <v>108.2580413818359</v>
+        <v>191.4888458251953</v>
+      </c>
+      <c r="K42" t="n">
+        <v>111.6165542602539</v>
       </c>
     </row>
     <row r="43">
@@ -1816,17 +2026,22 @@
       <c r="F43" t="n">
         <v>42.41365999634309</v>
       </c>
-      <c r="G43" t="n">
-        <v>234.4571838378906</v>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H43" t="n">
-        <v>57.0616455078125</v>
+        <v>248.0783843994141</v>
       </c>
       <c r="I43" t="n">
-        <v>152.043701171875</v>
+        <v>53.21831893920898</v>
       </c>
       <c r="J43" t="n">
-        <v>123.7024917602539</v>
+        <v>224.6910400390625</v>
+      </c>
+      <c r="K43" t="n">
+        <v>118.0420532226562</v>
       </c>
     </row>
     <row r="44">
@@ -1848,17 +2063,22 @@
       <c r="F44" t="n">
         <v>44.05056700894834</v>
       </c>
-      <c r="G44" t="n">
-        <v>261.543212890625</v>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H44" t="n">
-        <v>57.8966178894043</v>
+        <v>275.1986999511719</v>
       </c>
       <c r="I44" t="n">
-        <v>263.9012451171875</v>
+        <v>40.78887939453125</v>
       </c>
       <c r="J44" t="n">
-        <v>143.953857421875</v>
+        <v>328.8117980957031</v>
+      </c>
+      <c r="K44" t="n">
+        <v>125.466911315918</v>
       </c>
     </row>
     <row r="45">
@@ -1880,17 +2100,22 @@
       <c r="F45" t="n">
         <v>45.28527361475503</v>
       </c>
-      <c r="G45" t="n">
-        <v>281.4590759277344</v>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H45" t="n">
-        <v>57.999755859375</v>
+        <v>291.5396728515625</v>
       </c>
       <c r="I45" t="n">
-        <v>365.6849975585938</v>
+        <v>41.03730773925781</v>
       </c>
       <c r="J45" t="n">
-        <v>150.9088897705078</v>
+        <v>409.9673767089844</v>
+      </c>
+      <c r="K45" t="n">
+        <v>145.4936370849609</v>
       </c>
     </row>
     <row r="46">
@@ -1912,17 +2137,22 @@
       <c r="F46" t="n">
         <v>45.11415223222625</v>
       </c>
-      <c r="G46" t="n">
-        <v>339.5816040039062</v>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H46" t="n">
-        <v>78.95652008056641</v>
+        <v>321.3873291015625</v>
       </c>
       <c r="I46" t="n">
-        <v>496.0125427246094</v>
+        <v>50.51614761352539</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7002258300781</v>
+        <v>476.1815490722656</v>
+      </c>
+      <c r="K46" t="n">
+        <v>161.1656951904297</v>
       </c>
     </row>
     <row r="47">
@@ -1944,17 +2174,22 @@
       <c r="F47" t="n">
         <v>44.97584185956661</v>
       </c>
-      <c r="G47" t="n">
-        <v>419.4727172851562</v>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H47" t="n">
-        <v>85.91249084472656</v>
+        <v>374.1864929199219</v>
       </c>
       <c r="I47" t="n">
-        <v>578.6279907226562</v>
+        <v>77.93622589111328</v>
       </c>
       <c r="J47" t="n">
-        <v>169.2458343505859</v>
+        <v>562.7739868164062</v>
+      </c>
+      <c r="K47" t="n">
+        <v>159.8990478515625</v>
       </c>
     </row>
     <row r="48">
@@ -1976,17 +2211,22 @@
       <c r="F48" t="n">
         <v>42.0865253634753</v>
       </c>
-      <c r="G48" t="n">
-        <v>539.0530395507812</v>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H48" t="n">
-        <v>107.3822860717773</v>
+        <v>463.1121215820312</v>
       </c>
       <c r="I48" t="n">
-        <v>623.2501220703125</v>
+        <v>115.1350326538086</v>
       </c>
       <c r="J48" t="n">
-        <v>201.8939666748047</v>
+        <v>643.4241943359375</v>
+      </c>
+      <c r="K48" t="n">
+        <v>164.5397033691406</v>
       </c>
     </row>
     <row r="49">
@@ -2008,17 +2248,22 @@
       <c r="F49" t="n">
         <v>40.81585186348995</v>
       </c>
-      <c r="G49" t="n">
-        <v>645.0394897460938</v>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H49" t="n">
-        <v>82.08380889892578</v>
+        <v>638.65087890625</v>
       </c>
       <c r="I49" t="n">
-        <v>671.86767578125</v>
+        <v>101.1861114501953</v>
       </c>
       <c r="J49" t="n">
-        <v>228.0980987548828</v>
+        <v>663.9408569335938</v>
+      </c>
+      <c r="K49" t="n">
+        <v>163.2310638427734</v>
       </c>
     </row>
     <row r="50">
@@ -2040,17 +2285,22 @@
       <c r="F50" t="n">
         <v>45.37200448015243</v>
       </c>
-      <c r="G50" t="n">
-        <v>210.8680419921875</v>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H50" t="n">
-        <v>66.82682037353516</v>
+        <v>222.9201812744141</v>
       </c>
       <c r="I50" t="n">
-        <v>15.2840576171875</v>
+        <v>57.39002990722656</v>
       </c>
       <c r="J50" t="n">
-        <v>94.60326385498047</v>
+        <v>81.51958465576172</v>
+      </c>
+      <c r="K50" t="n">
+        <v>107.9341506958008</v>
       </c>
     </row>
     <row r="51">
@@ -2072,17 +2322,22 @@
       <c r="F51" t="n">
         <v>48.78786662406539</v>
       </c>
-      <c r="G51" t="n">
-        <v>227.0682525634766</v>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H51" t="n">
-        <v>60.84770965576172</v>
+        <v>240.7181243896484</v>
       </c>
       <c r="I51" t="n">
-        <v>44.19091415405273</v>
+        <v>56.222412109375</v>
       </c>
       <c r="J51" t="n">
-        <v>107.8033142089844</v>
+        <v>117.078254699707</v>
+      </c>
+      <c r="K51" t="n">
+        <v>122.7255554199219</v>
       </c>
     </row>
     <row r="52">
@@ -2104,17 +2359,22 @@
       <c r="F52" t="n">
         <v>50.73675625671652</v>
       </c>
-      <c r="G52" t="n">
-        <v>239.8785705566406</v>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H52" t="n">
-        <v>55.27974319458008</v>
+        <v>256.5697631835938</v>
       </c>
       <c r="I52" t="n">
-        <v>63.96359252929688</v>
+        <v>52.97911834716797</v>
       </c>
       <c r="J52" t="n">
-        <v>121.0526351928711</v>
+        <v>143.5030670166016</v>
+      </c>
+      <c r="K52" t="n">
+        <v>122.9836349487305</v>
       </c>
     </row>
     <row r="53">
@@ -2136,17 +2396,22 @@
       <c r="F53" t="n">
         <v>51.96609868449762</v>
       </c>
-      <c r="G53" t="n">
-        <v>259.0726623535156</v>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H53" t="n">
-        <v>51.7464599609375</v>
+        <v>277.8995361328125</v>
       </c>
       <c r="I53" t="n">
-        <v>135.7585754394531</v>
+        <v>46.91214370727539</v>
       </c>
       <c r="J53" t="n">
-        <v>148.5995483398438</v>
+        <v>213.6613922119141</v>
+      </c>
+      <c r="K53" t="n">
+        <v>132.1606140136719</v>
       </c>
     </row>
     <row r="54">
@@ -2168,17 +2433,22 @@
       <c r="F54" t="n">
         <v>52.45736467440484</v>
       </c>
-      <c r="G54" t="n">
-        <v>289.7086486816406</v>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H54" t="n">
-        <v>57.67217254638672</v>
+        <v>303.181884765625</v>
       </c>
       <c r="I54" t="n">
-        <v>233.7470855712891</v>
+        <v>45.13919067382812</v>
       </c>
       <c r="J54" t="n">
-        <v>164.3308410644531</v>
+        <v>282.1013793945312</v>
+      </c>
+      <c r="K54" t="n">
+        <v>147.6101837158203</v>
       </c>
     </row>
     <row r="55">
@@ -2200,17 +2470,22 @@
       <c r="F55" t="n">
         <v>51.85220057025387</v>
       </c>
-      <c r="G55" t="n">
-        <v>342.5442199707031</v>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H55" t="n">
-        <v>77.80995941162109</v>
+        <v>330.5034790039062</v>
       </c>
       <c r="I55" t="n">
-        <v>380.4649047851562</v>
+        <v>54.72163391113281</v>
       </c>
       <c r="J55" t="n">
-        <v>184.3295440673828</v>
+        <v>382.9625854492188</v>
+      </c>
+      <c r="K55" t="n">
+        <v>187.4606018066406</v>
       </c>
     </row>
     <row r="56">
@@ -2232,17 +2507,22 @@
       <c r="F56" t="n">
         <v>51.37276147532685</v>
       </c>
-      <c r="G56" t="n">
-        <v>414.9738159179688</v>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H56" t="n">
-        <v>91.62322998046875</v>
+        <v>373.5694885253906</v>
       </c>
       <c r="I56" t="n">
-        <v>490.2589111328125</v>
+        <v>75.42521667480469</v>
       </c>
       <c r="J56" t="n">
-        <v>228.5506439208984</v>
+        <v>431.1753234863281</v>
+      </c>
+      <c r="K56" t="n">
+        <v>209.9807586669922</v>
       </c>
     </row>
     <row r="57">
@@ -2264,17 +2544,22 @@
       <c r="F57" t="n">
         <v>49.881475732815</v>
       </c>
-      <c r="G57" t="n">
-        <v>521.4552612304688</v>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H57" t="n">
-        <v>92.03311920166016</v>
+        <v>469.6448364257812</v>
       </c>
       <c r="I57" t="n">
-        <v>582.3697509765625</v>
+        <v>112.9126815795898</v>
       </c>
       <c r="J57" t="n">
-        <v>231.1237030029297</v>
+        <v>536.3736572265625</v>
+      </c>
+      <c r="K57" t="n">
+        <v>208.9206390380859</v>
       </c>
     </row>
     <row r="58">
@@ -2296,17 +2581,22 @@
       <c r="F58" t="n">
         <v>46.147295090649</v>
       </c>
-      <c r="G58" t="n">
-        <v>636.2229614257812</v>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H58" t="n">
-        <v>62.94756317138672</v>
+        <v>620.5204467773438</v>
       </c>
       <c r="I58" t="n">
-        <v>623.3865966796875</v>
+        <v>98.38892364501953</v>
       </c>
       <c r="J58" t="n">
-        <v>258.8815307617188</v>
+        <v>569.27099609375</v>
+      </c>
+      <c r="K58" t="n">
+        <v>198.2634735107422</v>
       </c>
     </row>
     <row r="59">
@@ -2328,17 +2618,22 @@
       <c r="F59" t="n">
         <v>56.70921047332411</v>
       </c>
-      <c r="G59" t="n">
-        <v>235.8320007324219</v>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H59" t="n">
-        <v>56.81057739257812</v>
+        <v>246.3679962158203</v>
       </c>
       <c r="I59" t="n">
-        <v>-20.40680503845215</v>
+        <v>54.69249725341797</v>
       </c>
       <c r="J59" t="n">
-        <v>115.8277893066406</v>
+        <v>29.85336303710938</v>
+      </c>
+      <c r="K59" t="n">
+        <v>120.7354202270508</v>
       </c>
     </row>
     <row r="60">
@@ -2360,17 +2655,22 @@
       <c r="F60" t="n">
         <v>58.23723423416003</v>
       </c>
-      <c r="G60" t="n">
-        <v>248.8194274902344</v>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H60" t="n">
-        <v>54.08010482788086</v>
+        <v>264.5701904296875</v>
       </c>
       <c r="I60" t="n">
-        <v>-4.74994945526123</v>
+        <v>50.52011108398438</v>
       </c>
       <c r="J60" t="n">
-        <v>121.1684417724609</v>
+        <v>48.79525756835938</v>
+      </c>
+      <c r="K60" t="n">
+        <v>124.3072509765625</v>
       </c>
     </row>
     <row r="61">
@@ -2392,17 +2692,22 @@
       <c r="F61" t="n">
         <v>59.34611390594659</v>
       </c>
-      <c r="G61" t="n">
-        <v>261.8672790527344</v>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H61" t="n">
-        <v>52.85824966430664</v>
+        <v>279.6380004882812</v>
       </c>
       <c r="I61" t="n">
-        <v>37.82476425170898</v>
+        <v>49.81797790527344</v>
       </c>
       <c r="J61" t="n">
-        <v>139.4279479980469</v>
+        <v>83.29969024658203</v>
+      </c>
+      <c r="K61" t="n">
+        <v>122.6490707397461</v>
       </c>
     </row>
     <row r="62">
@@ -2424,17 +2729,22 @@
       <c r="F62" t="n">
         <v>59.33493295870724</v>
       </c>
-      <c r="G62" t="n">
-        <v>288.1874084472656</v>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H62" t="n">
-        <v>54.42420959472656</v>
+        <v>299.9209899902344</v>
       </c>
       <c r="I62" t="n">
-        <v>110.8205490112305</v>
+        <v>47.35957717895508</v>
       </c>
       <c r="J62" t="n">
-        <v>170.8091735839844</v>
+        <v>146.53955078125</v>
+      </c>
+      <c r="K62" t="n">
+        <v>137.9642486572266</v>
       </c>
     </row>
     <row r="63">
@@ -2456,17 +2766,22 @@
       <c r="F63" t="n">
         <v>58.39353789451046</v>
       </c>
-      <c r="G63" t="n">
-        <v>325.9501953125</v>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H63" t="n">
-        <v>65.24628448486328</v>
+        <v>329.5974731445312</v>
       </c>
       <c r="I63" t="n">
-        <v>238.7877349853516</v>
+        <v>58.80250930786133</v>
       </c>
       <c r="J63" t="n">
-        <v>203.2266998291016</v>
+        <v>219.8411712646484</v>
+      </c>
+      <c r="K63" t="n">
+        <v>167.8270111083984</v>
       </c>
     </row>
     <row r="64">
@@ -2488,17 +2803,22 @@
       <c r="F64" t="n">
         <v>57.3323684814925</v>
       </c>
-      <c r="G64" t="n">
-        <v>412.2278442382812</v>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H64" t="n">
-        <v>89.50661468505859</v>
+        <v>374.3595275878906</v>
       </c>
       <c r="I64" t="n">
-        <v>413.2147216796875</v>
+        <v>76.81888580322266</v>
       </c>
       <c r="J64" t="n">
-        <v>257.0307922363281</v>
+        <v>322.1683654785156</v>
+      </c>
+      <c r="K64" t="n">
+        <v>208.2273254394531</v>
       </c>
     </row>
     <row r="65">
@@ -2520,17 +2840,22 @@
       <c r="F65" t="n">
         <v>54.83283250514894</v>
       </c>
-      <c r="G65" t="n">
-        <v>518.7946166992188</v>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H65" t="n">
-        <v>92.71121215820312</v>
+        <v>482.1894226074219</v>
       </c>
       <c r="I65" t="n">
-        <v>509.0125427246094</v>
+        <v>122.8116683959961</v>
       </c>
       <c r="J65" t="n">
-        <v>261.4827270507812</v>
+        <v>425.2771606445312</v>
+      </c>
+      <c r="K65" t="n">
+        <v>233.4627532958984</v>
       </c>
     </row>
     <row r="66">
@@ -2552,17 +2877,22 @@
       <c r="F66" t="n">
         <v>66.18771861830042</v>
       </c>
-      <c r="G66" t="n">
-        <v>260.781982421875</v>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H66" t="n">
-        <v>48.39712524414062</v>
+        <v>270.5242309570312</v>
       </c>
       <c r="I66" t="n">
-        <v>-62.10453033447266</v>
+        <v>50.36479568481445</v>
       </c>
       <c r="J66" t="n">
-        <v>122.7244262695312</v>
+        <v>-37.56085205078125</v>
+      </c>
+      <c r="K66" t="n">
+        <v>111.8031311035156</v>
       </c>
     </row>
     <row r="67">
@@ -2584,17 +2914,22 @@
       <c r="F67" t="n">
         <v>66.85471859160208</v>
       </c>
-      <c r="G67" t="n">
-        <v>270.0545959472656</v>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H67" t="n">
-        <v>49.53567886352539</v>
+        <v>284.4059143066406</v>
       </c>
       <c r="I67" t="n">
-        <v>-39.09667587280273</v>
+        <v>50.13262176513672</v>
       </c>
       <c r="J67" t="n">
-        <v>134.0382843017578</v>
+        <v>-22.68031883239746</v>
+      </c>
+      <c r="K67" t="n">
+        <v>114.4251098632812</v>
       </c>
     </row>
     <row r="68">
@@ -2616,17 +2951,22 @@
       <c r="F68" t="n">
         <v>66.29608309198557</v>
       </c>
-      <c r="G68" t="n">
-        <v>299.5087280273438</v>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H68" t="n">
-        <v>54.24457931518555</v>
+        <v>308.621826171875</v>
       </c>
       <c r="I68" t="n">
-        <v>47.39951324462891</v>
+        <v>49.27214050292969</v>
       </c>
       <c r="J68" t="n">
-        <v>181.7150268554688</v>
+        <v>43.06949615478516</v>
+      </c>
+      <c r="K68" t="n">
+        <v>133.5982971191406</v>
       </c>
     </row>
     <row r="69">
@@ -2648,17 +2988,22 @@
       <c r="F69" t="n">
         <v>65.32452373485688</v>
       </c>
-      <c r="G69" t="n">
-        <v>325.1239013671875</v>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H69" t="n">
-        <v>63.85072708129883</v>
+        <v>328.4562683105469</v>
       </c>
       <c r="I69" t="n">
-        <v>121.5566024780273</v>
+        <v>52.26957321166992</v>
       </c>
       <c r="J69" t="n">
-        <v>213.6869201660156</v>
+        <v>97.03627777099609</v>
+      </c>
+      <c r="K69" t="n">
+        <v>151.9897918701172</v>
       </c>
     </row>
     <row r="70">
@@ -2680,17 +3025,22 @@
       <c r="F70" t="n">
         <v>63.37031159981304</v>
       </c>
-      <c r="G70" t="n">
-        <v>409.67724609375</v>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H70" t="n">
-        <v>86.76880645751953</v>
+        <v>378.1758728027344</v>
       </c>
       <c r="I70" t="n">
-        <v>333.0133666992188</v>
+        <v>70.94354248046875</v>
       </c>
       <c r="J70" t="n">
-        <v>281.1354064941406</v>
+        <v>222.7702331542969</v>
+      </c>
+      <c r="K70" t="n">
+        <v>198.5223693847656</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_optimal/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_mc_shared_relu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_mc_shared_relu.xlsx
@@ -515,16 +515,16 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>273.2070617675781</v>
+        <v>274.5948486328125</v>
       </c>
       <c r="I2" t="n">
-        <v>65.48469543457031</v>
+        <v>67.91649627685547</v>
       </c>
       <c r="J2" t="n">
-        <v>671.1605224609375</v>
+        <v>665.0546875</v>
       </c>
       <c r="K2" t="n">
-        <v>133.1059417724609</v>
+        <v>132.0712280273438</v>
       </c>
     </row>
     <row r="3">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>318.5349731445312</v>
+        <v>318.8764343261719</v>
       </c>
       <c r="I3" t="n">
-        <v>101.9982452392578</v>
+        <v>98.57904052734375</v>
       </c>
       <c r="J3" t="n">
-        <v>737.8463745117188</v>
+        <v>736.2672729492188</v>
       </c>
       <c r="K3" t="n">
-        <v>137.0043334960938</v>
+        <v>140.2525482177734</v>
       </c>
     </row>
     <row r="4">
@@ -589,16 +589,16 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>373.5579833984375</v>
+        <v>371.82568359375</v>
       </c>
       <c r="I4" t="n">
-        <v>136.9599151611328</v>
+        <v>133.6446685791016</v>
       </c>
       <c r="J4" t="n">
-        <v>768.642333984375</v>
+        <v>770.2764282226562</v>
       </c>
       <c r="K4" t="n">
-        <v>134.2052917480469</v>
+        <v>134.5087738037109</v>
       </c>
     </row>
     <row r="5">
@@ -626,16 +626,16 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>433.1742553710938</v>
+        <v>431.5136413574219</v>
       </c>
       <c r="I5" t="n">
-        <v>166.1784820556641</v>
+        <v>163.2965393066406</v>
       </c>
       <c r="J5" t="n">
-        <v>785.1802978515625</v>
+        <v>791.2455444335938</v>
       </c>
       <c r="K5" t="n">
-        <v>129.9846954345703</v>
+        <v>129.869140625</v>
       </c>
     </row>
     <row r="6">
@@ -663,16 +663,16 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>503.9545288085938</v>
+        <v>508.913330078125</v>
       </c>
       <c r="I6" t="n">
-        <v>187.98779296875</v>
+        <v>187.5648498535156</v>
       </c>
       <c r="J6" t="n">
-        <v>799.8734130859375</v>
+        <v>799.310302734375</v>
       </c>
       <c r="K6" t="n">
-        <v>124.3342132568359</v>
+        <v>118.6376495361328</v>
       </c>
     </row>
     <row r="7">
@@ -700,16 +700,16 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>240.333251953125</v>
+        <v>243.1067504882812</v>
       </c>
       <c r="I7" t="n">
-        <v>48.02876281738281</v>
+        <v>51.27751922607422</v>
       </c>
       <c r="J7" t="n">
-        <v>541.4548950195312</v>
+        <v>544.7266235351562</v>
       </c>
       <c r="K7" t="n">
-        <v>80.93805694580078</v>
+        <v>79.40019989013672</v>
       </c>
     </row>
     <row r="8">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>249.2369537353516</v>
+        <v>248.4177551269531</v>
       </c>
       <c r="I8" t="n">
-        <v>51.6952018737793</v>
+        <v>51.67500686645508</v>
       </c>
       <c r="J8" t="n">
-        <v>574.4611206054688</v>
+        <v>577.9135131835938</v>
       </c>
       <c r="K8" t="n">
-        <v>94.74551391601562</v>
+        <v>89.6337890625</v>
       </c>
     </row>
     <row r="9">
@@ -774,16 +774,16 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>270.2310791015625</v>
+        <v>273.8872375488281</v>
       </c>
       <c r="I9" t="n">
-        <v>65.29534912109375</v>
+        <v>61.19286727905273</v>
       </c>
       <c r="J9" t="n">
-        <v>643.776123046875</v>
+        <v>645.9680786132812</v>
       </c>
       <c r="K9" t="n">
-        <v>112.811653137207</v>
+        <v>119.1264114379883</v>
       </c>
     </row>
     <row r="10">
@@ -811,16 +811,16 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>298.3857421875</v>
+        <v>302.5239562988281</v>
       </c>
       <c r="I10" t="n">
-        <v>70.66058349609375</v>
+        <v>77.11854553222656</v>
       </c>
       <c r="J10" t="n">
-        <v>688.21435546875</v>
+        <v>688.0834350585938</v>
       </c>
       <c r="K10" t="n">
-        <v>129.5277404785156</v>
+        <v>124.4924163818359</v>
       </c>
     </row>
     <row r="11">
@@ -848,16 +848,16 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>368.0412902832031</v>
+        <v>369.9489135742188</v>
       </c>
       <c r="I11" t="n">
-        <v>130.2467956542969</v>
+        <v>134.8025970458984</v>
       </c>
       <c r="J11" t="n">
-        <v>724.292236328125</v>
+        <v>725.572998046875</v>
       </c>
       <c r="K11" t="n">
-        <v>129.1855773925781</v>
+        <v>128.7039947509766</v>
       </c>
     </row>
     <row r="12">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>465.5716552734375</v>
+        <v>459.0213012695312</v>
       </c>
       <c r="I12" t="n">
-        <v>179.2814331054688</v>
+        <v>179.2275238037109</v>
       </c>
       <c r="J12" t="n">
-        <v>747.4882202148438</v>
+        <v>744.14990234375</v>
       </c>
       <c r="K12" t="n">
-        <v>129.0373840332031</v>
+        <v>129.4318542480469</v>
       </c>
     </row>
     <row r="13">
@@ -922,16 +922,16 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>574.1240844726562</v>
+        <v>568.1932373046875</v>
       </c>
       <c r="I13" t="n">
-        <v>183.8705139160156</v>
+        <v>185.7675628662109</v>
       </c>
       <c r="J13" t="n">
-        <v>762.0052490234375</v>
+        <v>763.5625610351562</v>
       </c>
       <c r="K13" t="n">
-        <v>120.4156036376953</v>
+        <v>120.8483352661133</v>
       </c>
     </row>
     <row r="14">
@@ -959,16 +959,16 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>219.5054931640625</v>
+        <v>219.2848510742188</v>
       </c>
       <c r="I14" t="n">
-        <v>51.04612731933594</v>
+        <v>54.73019409179688</v>
       </c>
       <c r="J14" t="n">
-        <v>380.0396728515625</v>
+        <v>380.9835510253906</v>
       </c>
       <c r="K14" t="n">
-        <v>90.69422149658203</v>
+        <v>95.54058074951172</v>
       </c>
     </row>
     <row r="15">
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>237.8039855957031</v>
+        <v>239.3018798828125</v>
       </c>
       <c r="I15" t="n">
-        <v>47.35456848144531</v>
+        <v>48.91093063354492</v>
       </c>
       <c r="J15" t="n">
-        <v>476.3813171386719</v>
+        <v>479.7785034179688</v>
       </c>
       <c r="K15" t="n">
-        <v>86.82250213623047</v>
+        <v>89.42730712890625</v>
       </c>
     </row>
     <row r="16">
@@ -1033,16 +1033,16 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>252.4316864013672</v>
+        <v>253.9722442626953</v>
       </c>
       <c r="I16" t="n">
-        <v>46.07841873168945</v>
+        <v>43.86662292480469</v>
       </c>
       <c r="J16" t="n">
-        <v>565.0623168945312</v>
+        <v>566.1530151367188</v>
       </c>
       <c r="K16" t="n">
-        <v>98.406494140625</v>
+        <v>104.2972183227539</v>
       </c>
     </row>
     <row r="17">
@@ -1070,16 +1070,16 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>262.2782592773438</v>
+        <v>261.3023071289062</v>
       </c>
       <c r="I17" t="n">
-        <v>51.30315399169922</v>
+        <v>50.87247467041016</v>
       </c>
       <c r="J17" t="n">
-        <v>577.3192749023438</v>
+        <v>578.3187866210938</v>
       </c>
       <c r="K17" t="n">
-        <v>98.43495178222656</v>
+        <v>100.5392074584961</v>
       </c>
     </row>
     <row r="18">
@@ -1107,16 +1107,16 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>273.5794067382812</v>
+        <v>272.3898010253906</v>
       </c>
       <c r="I18" t="n">
-        <v>49.44564056396484</v>
+        <v>54.44198608398438</v>
       </c>
       <c r="J18" t="n">
-        <v>623.8695678710938</v>
+        <v>616.9051513671875</v>
       </c>
       <c r="K18" t="n">
-        <v>115.0263900756836</v>
+        <v>117.045166015625</v>
       </c>
     </row>
     <row r="19">
@@ -1144,16 +1144,16 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>306.03125</v>
+        <v>305.6417846679688</v>
       </c>
       <c r="I19" t="n">
-        <v>79.33633422851562</v>
+        <v>81.12474060058594</v>
       </c>
       <c r="J19" t="n">
-        <v>659.868408203125</v>
+        <v>663.1736450195312</v>
       </c>
       <c r="K19" t="n">
-        <v>122.2106628417969</v>
+        <v>124.944091796875</v>
       </c>
     </row>
     <row r="20">
@@ -1181,16 +1181,16 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>370.6131286621094</v>
+        <v>372.7635498046875</v>
       </c>
       <c r="I20" t="n">
-        <v>145.1012268066406</v>
+        <v>145.904052734375</v>
       </c>
       <c r="J20" t="n">
-        <v>700.4548950195312</v>
+        <v>700.1951293945312</v>
       </c>
       <c r="K20" t="n">
-        <v>128.3252258300781</v>
+        <v>127.4704055786133</v>
       </c>
     </row>
     <row r="21">
@@ -1218,16 +1218,16 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>529.486328125</v>
+        <v>531.1017456054688</v>
       </c>
       <c r="I21" t="n">
-        <v>183.8923034667969</v>
+        <v>181.9140777587891</v>
       </c>
       <c r="J21" t="n">
-        <v>739.81884765625</v>
+        <v>738.5702514648438</v>
       </c>
       <c r="K21" t="n">
-        <v>143.0144653320312</v>
+        <v>138.1187591552734</v>
       </c>
     </row>
     <row r="22">
@@ -1255,16 +1255,16 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>713.4842529296875</v>
+        <v>714.7860717773438</v>
       </c>
       <c r="I22" t="n">
-        <v>134.0476837158203</v>
+        <v>135.1119689941406</v>
       </c>
       <c r="J22" t="n">
-        <v>780.5305786132812</v>
+        <v>780.58740234375</v>
       </c>
       <c r="K22" t="n">
-        <v>137.1830291748047</v>
+        <v>138.1750183105469</v>
       </c>
     </row>
     <row r="23">
@@ -1292,16 +1292,16 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>216.1164093017578</v>
+        <v>213.3329010009766</v>
       </c>
       <c r="I23" t="n">
-        <v>56.8300895690918</v>
+        <v>58.46853256225586</v>
       </c>
       <c r="J23" t="n">
-        <v>265.4633483886719</v>
+        <v>265.4916381835938</v>
       </c>
       <c r="K23" t="n">
-        <v>97.96231842041016</v>
+        <v>100.3692779541016</v>
       </c>
     </row>
     <row r="24">
@@ -1329,16 +1329,16 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>232.740234375</v>
+        <v>232.6520385742188</v>
       </c>
       <c r="I24" t="n">
-        <v>54.65924835205078</v>
+        <v>48.95812225341797</v>
       </c>
       <c r="J24" t="n">
-        <v>345.5769653320312</v>
+        <v>344.3047790527344</v>
       </c>
       <c r="K24" t="n">
-        <v>92.13516235351562</v>
+        <v>93.24269866943359</v>
       </c>
     </row>
     <row r="25">
@@ -1366,16 +1366,16 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>252.9583282470703</v>
+        <v>253.6731262207031</v>
       </c>
       <c r="I25" t="n">
-        <v>45.25084686279297</v>
+        <v>44.70736694335938</v>
       </c>
       <c r="J25" t="n">
-        <v>443.1668701171875</v>
+        <v>446.8790588378906</v>
       </c>
       <c r="K25" t="n">
-        <v>91.11415863037109</v>
+        <v>91.55970001220703</v>
       </c>
     </row>
     <row r="26">
@@ -1403,16 +1403,16 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>265.66845703125</v>
+        <v>264.9521484375</v>
       </c>
       <c r="I26" t="n">
-        <v>39.87156677246094</v>
+        <v>39.38545608520508</v>
       </c>
       <c r="J26" t="n">
-        <v>513.9395751953125</v>
+        <v>514.1217651367188</v>
       </c>
       <c r="K26" t="n">
-        <v>93.59445953369141</v>
+        <v>93.48654937744141</v>
       </c>
     </row>
     <row r="27">
@@ -1440,16 +1440,16 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>280.6137084960938</v>
+        <v>281.4444580078125</v>
       </c>
       <c r="I27" t="n">
-        <v>44.57028961181641</v>
+        <v>43.97468185424805</v>
       </c>
       <c r="J27" t="n">
-        <v>571.0747680664062</v>
+        <v>568.6157836914062</v>
       </c>
       <c r="K27" t="n">
-        <v>111.2708511352539</v>
+        <v>107.7650375366211</v>
       </c>
     </row>
     <row r="28">
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>300.0465087890625</v>
+        <v>297.8726196289062</v>
       </c>
       <c r="I28" t="n">
-        <v>63.00582122802734</v>
+        <v>59.1263542175293</v>
       </c>
       <c r="J28" t="n">
-        <v>623.0422973632812</v>
+        <v>627.9825439453125</v>
       </c>
       <c r="K28" t="n">
-        <v>117.1051254272461</v>
+        <v>116.2199401855469</v>
       </c>
     </row>
     <row r="29">
@@ -1514,16 +1514,16 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>334.5142211914062</v>
+        <v>334.8567199707031</v>
       </c>
       <c r="I29" t="n">
-        <v>95.24050903320312</v>
+        <v>93.54335784912109</v>
       </c>
       <c r="J29" t="n">
-        <v>672.4481201171875</v>
+        <v>674.1822509765625</v>
       </c>
       <c r="K29" t="n">
-        <v>130.7820892333984</v>
+        <v>130.9585723876953</v>
       </c>
     </row>
     <row r="30">
@@ -1551,16 +1551,16 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>466.3481140136719</v>
+        <v>467.9960327148438</v>
       </c>
       <c r="I30" t="n">
-        <v>162.0797576904297</v>
+        <v>165.5669403076172</v>
       </c>
       <c r="J30" t="n">
-        <v>719.70068359375</v>
+        <v>715.251220703125</v>
       </c>
       <c r="K30" t="n">
-        <v>144.8667449951172</v>
+        <v>144.9693908691406</v>
       </c>
     </row>
     <row r="31">
@@ -1588,16 +1588,16 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>687.619140625</v>
+        <v>685.9035034179688</v>
       </c>
       <c r="I31" t="n">
-        <v>132.9844665527344</v>
+        <v>133.7207489013672</v>
       </c>
       <c r="J31" t="n">
-        <v>757.79931640625</v>
+        <v>762.9878540039062</v>
       </c>
       <c r="K31" t="n">
-        <v>149.3276824951172</v>
+        <v>148.8191223144531</v>
       </c>
     </row>
     <row r="32">
@@ -1625,16 +1625,16 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>210.8189239501953</v>
+        <v>210.6103973388672</v>
       </c>
       <c r="I32" t="n">
-        <v>58.12750625610352</v>
+        <v>59.94884872436523</v>
       </c>
       <c r="J32" t="n">
-        <v>189.8934936523438</v>
+        <v>188.5031585693359</v>
       </c>
       <c r="K32" t="n">
-        <v>104.4774475097656</v>
+        <v>103.4421615600586</v>
       </c>
     </row>
     <row r="33">
@@ -1662,16 +1662,16 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>233.3414611816406</v>
+        <v>232.5274810791016</v>
       </c>
       <c r="I33" t="n">
-        <v>51.79924392700195</v>
+        <v>51.08897018432617</v>
       </c>
       <c r="J33" t="n">
-        <v>249.0186462402344</v>
+        <v>252.0526275634766</v>
       </c>
       <c r="K33" t="n">
-        <v>104.1648178100586</v>
+        <v>105.0917510986328</v>
       </c>
     </row>
     <row r="34">
@@ -1699,16 +1699,16 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>251.2416687011719</v>
+        <v>253.8238067626953</v>
       </c>
       <c r="I34" t="n">
-        <v>45.07849884033203</v>
+        <v>47.24208450317383</v>
       </c>
       <c r="J34" t="n">
-        <v>340.5169677734375</v>
+        <v>341.6176147460938</v>
       </c>
       <c r="K34" t="n">
-        <v>101.7175521850586</v>
+        <v>104.7138366699219</v>
       </c>
     </row>
     <row r="35">
@@ -1736,16 +1736,16 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>271.3648681640625</v>
+        <v>270.1243286132812</v>
       </c>
       <c r="I35" t="n">
-        <v>39.64513397216797</v>
+        <v>39.35237503051758</v>
       </c>
       <c r="J35" t="n">
-        <v>427.7303771972656</v>
+        <v>427.9189453125</v>
       </c>
       <c r="K35" t="n">
-        <v>114.6686630249023</v>
+        <v>110.2819900512695</v>
       </c>
     </row>
     <row r="36">
@@ -1773,16 +1773,16 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>293.4347534179688</v>
+        <v>293.1115417480469</v>
       </c>
       <c r="I36" t="n">
-        <v>42.19743347167969</v>
+        <v>41.04166412353516</v>
       </c>
       <c r="J36" t="n">
-        <v>510.4983215332031</v>
+        <v>517.185546875</v>
       </c>
       <c r="K36" t="n">
-        <v>122.5143890380859</v>
+        <v>118.1156616210938</v>
       </c>
     </row>
     <row r="37">
@@ -1810,16 +1810,16 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>314.7420043945312</v>
+        <v>315.012939453125</v>
       </c>
       <c r="I37" t="n">
-        <v>54.03657531738281</v>
+        <v>51.53841400146484</v>
       </c>
       <c r="J37" t="n">
-        <v>573.1465454101562</v>
+        <v>571.56298828125</v>
       </c>
       <c r="K37" t="n">
-        <v>127.8819580078125</v>
+        <v>127.7149124145508</v>
       </c>
     </row>
     <row r="38">
@@ -1847,16 +1847,16 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>349.4759521484375</v>
+        <v>351.0751037597656</v>
       </c>
       <c r="I38" t="n">
-        <v>79.6583251953125</v>
+        <v>81.42292022705078</v>
       </c>
       <c r="J38" t="n">
-        <v>654.34765625</v>
+        <v>653.4124755859375</v>
       </c>
       <c r="K38" t="n">
-        <v>133.2170562744141</v>
+        <v>132.0984497070312</v>
       </c>
     </row>
     <row r="39">
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>432.71923828125</v>
+        <v>434.3522033691406</v>
       </c>
       <c r="I39" t="n">
-        <v>123.2980880737305</v>
+        <v>123.4761581420898</v>
       </c>
       <c r="J39" t="n">
-        <v>694.09619140625</v>
+        <v>695.7142944335938</v>
       </c>
       <c r="K39" t="n">
-        <v>143.8921966552734</v>
+        <v>141.2459869384766</v>
       </c>
     </row>
     <row r="40">
@@ -1921,16 +1921,16 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>668.3648681640625</v>
+        <v>666.1618041992188</v>
       </c>
       <c r="I40" t="n">
-        <v>108.6839447021484</v>
+        <v>105.8515472412109</v>
       </c>
       <c r="J40" t="n">
-        <v>729.6201782226562</v>
+        <v>728.1275024414062</v>
       </c>
       <c r="K40" t="n">
-        <v>147.6792907714844</v>
+        <v>140.5079040527344</v>
       </c>
     </row>
     <row r="41">
@@ -1958,16 +1958,16 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>214.6156311035156</v>
+        <v>213.0403137207031</v>
       </c>
       <c r="I41" t="n">
-        <v>61.03120803833008</v>
+        <v>58.41657257080078</v>
       </c>
       <c r="J41" t="n">
-        <v>147.135986328125</v>
+        <v>144.6524963378906</v>
       </c>
       <c r="K41" t="n">
-        <v>105.9804992675781</v>
+        <v>109.1281356811523</v>
       </c>
     </row>
     <row r="42">
@@ -1995,16 +1995,16 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>233.5972595214844</v>
+        <v>233.2536468505859</v>
       </c>
       <c r="I42" t="n">
-        <v>55.65328979492188</v>
+        <v>53.48283767700195</v>
       </c>
       <c r="J42" t="n">
-        <v>191.4888458251953</v>
+        <v>187.6441497802734</v>
       </c>
       <c r="K42" t="n">
-        <v>111.6165542602539</v>
+        <v>113.0917510986328</v>
       </c>
     </row>
     <row r="43">
@@ -2032,16 +2032,16 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>248.0783843994141</v>
+        <v>249.9809417724609</v>
       </c>
       <c r="I43" t="n">
-        <v>53.21831893920898</v>
+        <v>51.43527221679688</v>
       </c>
       <c r="J43" t="n">
-        <v>224.6910400390625</v>
+        <v>225.5883331298828</v>
       </c>
       <c r="K43" t="n">
-        <v>118.0420532226562</v>
+        <v>114.2538452148438</v>
       </c>
     </row>
     <row r="44">
@@ -2069,16 +2069,16 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>275.1986999511719</v>
+        <v>273.3637390136719</v>
       </c>
       <c r="I44" t="n">
-        <v>40.78887939453125</v>
+        <v>42.65315246582031</v>
       </c>
       <c r="J44" t="n">
-        <v>328.8117980957031</v>
+        <v>331.5927124023438</v>
       </c>
       <c r="K44" t="n">
-        <v>125.466911315918</v>
+        <v>121.693244934082</v>
       </c>
     </row>
     <row r="45">
@@ -2106,16 +2106,16 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>291.5396728515625</v>
+        <v>293.030517578125</v>
       </c>
       <c r="I45" t="n">
-        <v>41.03730773925781</v>
+        <v>40.7509880065918</v>
       </c>
       <c r="J45" t="n">
-        <v>409.9673767089844</v>
+        <v>411.1861267089844</v>
       </c>
       <c r="K45" t="n">
-        <v>145.4936370849609</v>
+        <v>147.3650665283203</v>
       </c>
     </row>
     <row r="46">
@@ -2143,16 +2143,16 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>321.3873291015625</v>
+        <v>321.8161315917969</v>
       </c>
       <c r="I46" t="n">
-        <v>50.51614761352539</v>
+        <v>52.69596099853516</v>
       </c>
       <c r="J46" t="n">
-        <v>476.1815490722656</v>
+        <v>481.3569641113281</v>
       </c>
       <c r="K46" t="n">
-        <v>161.1656951904297</v>
+        <v>167.2474517822266</v>
       </c>
     </row>
     <row r="47">
@@ -2180,16 +2180,16 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>374.1864929199219</v>
+        <v>370.7496948242188</v>
       </c>
       <c r="I47" t="n">
-        <v>77.93622589111328</v>
+        <v>76.06667327880859</v>
       </c>
       <c r="J47" t="n">
-        <v>562.7739868164062</v>
+        <v>566.66552734375</v>
       </c>
       <c r="K47" t="n">
-        <v>159.8990478515625</v>
+        <v>158.6867828369141</v>
       </c>
     </row>
     <row r="48">
@@ -2217,16 +2217,16 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>463.1121215820312</v>
+        <v>461.0847473144531</v>
       </c>
       <c r="I48" t="n">
-        <v>115.1350326538086</v>
+        <v>115.2099990844727</v>
       </c>
       <c r="J48" t="n">
-        <v>643.4241943359375</v>
+        <v>641.678466796875</v>
       </c>
       <c r="K48" t="n">
-        <v>164.5397033691406</v>
+        <v>165.9610595703125</v>
       </c>
     </row>
     <row r="49">
@@ -2254,16 +2254,16 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>638.65087890625</v>
+        <v>639.882568359375</v>
       </c>
       <c r="I49" t="n">
-        <v>101.1861114501953</v>
+        <v>106.9084243774414</v>
       </c>
       <c r="J49" t="n">
-        <v>663.9408569335938</v>
+        <v>665.0617065429688</v>
       </c>
       <c r="K49" t="n">
-        <v>163.2310638427734</v>
+        <v>159.3489685058594</v>
       </c>
     </row>
     <row r="50">
@@ -2291,16 +2291,16 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>222.9201812744141</v>
+        <v>225.0014343261719</v>
       </c>
       <c r="I50" t="n">
-        <v>57.39002990722656</v>
+        <v>55.11643600463867</v>
       </c>
       <c r="J50" t="n">
-        <v>81.51958465576172</v>
+        <v>76.32418823242188</v>
       </c>
       <c r="K50" t="n">
-        <v>107.9341506958008</v>
+        <v>105.8988800048828</v>
       </c>
     </row>
     <row r="51">
@@ -2328,16 +2328,16 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>240.7181243896484</v>
+        <v>241.0148773193359</v>
       </c>
       <c r="I51" t="n">
-        <v>56.222412109375</v>
+        <v>54.02042388916016</v>
       </c>
       <c r="J51" t="n">
-        <v>117.078254699707</v>
+        <v>115.7722930908203</v>
       </c>
       <c r="K51" t="n">
-        <v>122.7255554199219</v>
+        <v>114.310791015625</v>
       </c>
     </row>
     <row r="52">
@@ -2365,16 +2365,16 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>256.5697631835938</v>
+        <v>254.7198638916016</v>
       </c>
       <c r="I52" t="n">
-        <v>52.97911834716797</v>
+        <v>53.29604721069336</v>
       </c>
       <c r="J52" t="n">
-        <v>143.5030670166016</v>
+        <v>140.1767730712891</v>
       </c>
       <c r="K52" t="n">
-        <v>122.9836349487305</v>
+        <v>122.9967346191406</v>
       </c>
     </row>
     <row r="53">
@@ -2402,16 +2402,16 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>277.8995361328125</v>
+        <v>277.6091003417969</v>
       </c>
       <c r="I53" t="n">
-        <v>46.91214370727539</v>
+        <v>47.76826095581055</v>
       </c>
       <c r="J53" t="n">
-        <v>213.6613922119141</v>
+        <v>212.2776031494141</v>
       </c>
       <c r="K53" t="n">
-        <v>132.1606140136719</v>
+        <v>125.4468307495117</v>
       </c>
     </row>
     <row r="54">
@@ -2439,16 +2439,16 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>303.181884765625</v>
+        <v>304.9867858886719</v>
       </c>
       <c r="I54" t="n">
-        <v>45.13919067382812</v>
+        <v>47.85866546630859</v>
       </c>
       <c r="J54" t="n">
-        <v>282.1013793945312</v>
+        <v>288.5425720214844</v>
       </c>
       <c r="K54" t="n">
-        <v>147.6101837158203</v>
+        <v>148.7758941650391</v>
       </c>
     </row>
     <row r="55">
@@ -2476,16 +2476,16 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>330.5034790039062</v>
+        <v>330.8445434570312</v>
       </c>
       <c r="I55" t="n">
-        <v>54.72163391113281</v>
+        <v>55.58324813842773</v>
       </c>
       <c r="J55" t="n">
-        <v>382.9625854492188</v>
+        <v>375.5280151367188</v>
       </c>
       <c r="K55" t="n">
-        <v>187.4606018066406</v>
+        <v>186.5933532714844</v>
       </c>
     </row>
     <row r="56">
@@ -2513,16 +2513,16 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>373.5694885253906</v>
+        <v>375.412353515625</v>
       </c>
       <c r="I56" t="n">
-        <v>75.42521667480469</v>
+        <v>76.03780364990234</v>
       </c>
       <c r="J56" t="n">
-        <v>431.1753234863281</v>
+        <v>442.1496276855469</v>
       </c>
       <c r="K56" t="n">
-        <v>209.9807586669922</v>
+        <v>209.6938934326172</v>
       </c>
     </row>
     <row r="57">
@@ -2550,16 +2550,16 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>469.6448364257812</v>
+        <v>472.47119140625</v>
       </c>
       <c r="I57" t="n">
-        <v>112.9126815795898</v>
+        <v>116.8333511352539</v>
       </c>
       <c r="J57" t="n">
-        <v>536.3736572265625</v>
+        <v>535.5910034179688</v>
       </c>
       <c r="K57" t="n">
-        <v>208.9206390380859</v>
+        <v>205.2346343994141</v>
       </c>
     </row>
     <row r="58">
@@ -2587,16 +2587,16 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>620.5204467773438</v>
+        <v>617.954833984375</v>
       </c>
       <c r="I58" t="n">
-        <v>98.38892364501953</v>
+        <v>95.79496765136719</v>
       </c>
       <c r="J58" t="n">
-        <v>569.27099609375</v>
+        <v>565.7855834960938</v>
       </c>
       <c r="K58" t="n">
-        <v>198.2634735107422</v>
+        <v>199.9272308349609</v>
       </c>
     </row>
     <row r="59">
@@ -2624,16 +2624,16 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>246.3679962158203</v>
+        <v>245.8566131591797</v>
       </c>
       <c r="I59" t="n">
-        <v>54.69249725341797</v>
+        <v>54.84456634521484</v>
       </c>
       <c r="J59" t="n">
-        <v>29.85336303710938</v>
+        <v>29.38082695007324</v>
       </c>
       <c r="K59" t="n">
-        <v>120.7354202270508</v>
+        <v>122.6655426025391</v>
       </c>
     </row>
     <row r="60">
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>264.5701904296875</v>
+        <v>263.8830871582031</v>
       </c>
       <c r="I60" t="n">
-        <v>50.52011108398438</v>
+        <v>51.94060897827148</v>
       </c>
       <c r="J60" t="n">
-        <v>48.79525756835938</v>
+        <v>50.96960067749023</v>
       </c>
       <c r="K60" t="n">
-        <v>124.3072509765625</v>
+        <v>123.6464767456055</v>
       </c>
     </row>
     <row r="61">
@@ -2698,16 +2698,16 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>279.6380004882812</v>
+        <v>278.8199157714844</v>
       </c>
       <c r="I61" t="n">
-        <v>49.81797790527344</v>
+        <v>49.85034561157227</v>
       </c>
       <c r="J61" t="n">
-        <v>83.29969024658203</v>
+        <v>85.80039978027344</v>
       </c>
       <c r="K61" t="n">
-        <v>122.6490707397461</v>
+        <v>128.1447448730469</v>
       </c>
     </row>
     <row r="62">
@@ -2735,16 +2735,16 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>299.9209899902344</v>
+        <v>301.1549072265625</v>
       </c>
       <c r="I62" t="n">
-        <v>47.35957717895508</v>
+        <v>48.52000427246094</v>
       </c>
       <c r="J62" t="n">
-        <v>146.53955078125</v>
+        <v>142.6770172119141</v>
       </c>
       <c r="K62" t="n">
-        <v>137.9642486572266</v>
+        <v>141.2869567871094</v>
       </c>
     </row>
     <row r="63">
@@ -2772,16 +2772,16 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>329.5974731445312</v>
+        <v>327.7724609375</v>
       </c>
       <c r="I63" t="n">
-        <v>58.80250930786133</v>
+        <v>54.98249816894531</v>
       </c>
       <c r="J63" t="n">
-        <v>219.8411712646484</v>
+        <v>224.23583984375</v>
       </c>
       <c r="K63" t="n">
-        <v>167.8270111083984</v>
+        <v>170.0399322509766</v>
       </c>
     </row>
     <row r="64">
@@ -2809,16 +2809,16 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>374.3595275878906</v>
+        <v>375.1231384277344</v>
       </c>
       <c r="I64" t="n">
-        <v>76.81888580322266</v>
+        <v>74.21274566650391</v>
       </c>
       <c r="J64" t="n">
-        <v>322.1683654785156</v>
+        <v>322.9331970214844</v>
       </c>
       <c r="K64" t="n">
-        <v>208.2273254394531</v>
+        <v>215.0677032470703</v>
       </c>
     </row>
     <row r="65">
@@ -2846,16 +2846,16 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>482.1894226074219</v>
+        <v>480.4987487792969</v>
       </c>
       <c r="I65" t="n">
-        <v>122.8116683959961</v>
+        <v>126.3219680786133</v>
       </c>
       <c r="J65" t="n">
-        <v>425.2771606445312</v>
+        <v>431.6641845703125</v>
       </c>
       <c r="K65" t="n">
-        <v>233.4627532958984</v>
+        <v>234.0127410888672</v>
       </c>
     </row>
     <row r="66">
@@ -2883,16 +2883,16 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>270.5242309570312</v>
+        <v>272.6158752441406</v>
       </c>
       <c r="I66" t="n">
-        <v>50.36479568481445</v>
+        <v>50.39268493652344</v>
       </c>
       <c r="J66" t="n">
-        <v>-37.56085205078125</v>
+        <v>-37.30386352539062</v>
       </c>
       <c r="K66" t="n">
-        <v>111.8031311035156</v>
+        <v>110.8602447509766</v>
       </c>
     </row>
     <row r="67">
@@ -2920,16 +2920,16 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>284.4059143066406</v>
+        <v>286.4729614257812</v>
       </c>
       <c r="I67" t="n">
-        <v>50.13262176513672</v>
+        <v>50.26523590087891</v>
       </c>
       <c r="J67" t="n">
-        <v>-22.68031883239746</v>
+        <v>-23.16377449035645</v>
       </c>
       <c r="K67" t="n">
-        <v>114.4251098632812</v>
+        <v>117.4543380737305</v>
       </c>
     </row>
     <row r="68">
@@ -2957,16 +2957,16 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>308.621826171875</v>
+        <v>309.4835815429688</v>
       </c>
       <c r="I68" t="n">
-        <v>49.27214050292969</v>
+        <v>46.81319808959961</v>
       </c>
       <c r="J68" t="n">
-        <v>43.06949615478516</v>
+        <v>44.8758544921875</v>
       </c>
       <c r="K68" t="n">
-        <v>133.5982971191406</v>
+        <v>134.2202453613281</v>
       </c>
     </row>
     <row r="69">
@@ -2994,16 +2994,16 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>328.4562683105469</v>
+        <v>328.8351135253906</v>
       </c>
       <c r="I69" t="n">
-        <v>52.26957321166992</v>
+        <v>53.33016967773438</v>
       </c>
       <c r="J69" t="n">
-        <v>97.03627777099609</v>
+        <v>101.6045684814453</v>
       </c>
       <c r="K69" t="n">
-        <v>151.9897918701172</v>
+        <v>150.2480316162109</v>
       </c>
     </row>
     <row r="70">
@@ -3031,16 +3031,16 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>378.1758728027344</v>
+        <v>374.6815185546875</v>
       </c>
       <c r="I70" t="n">
-        <v>70.94354248046875</v>
+        <v>70.537109375</v>
       </c>
       <c r="J70" t="n">
-        <v>222.7702331542969</v>
+        <v>224.4821166992188</v>
       </c>
       <c r="K70" t="n">
-        <v>198.5223693847656</v>
+        <v>199.4528198242188</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_optimal/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_mc_shared_relu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_mc_shared_relu.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -515,16 +515,16 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>274.5948486328125</v>
+        <v>274.2558288574219</v>
       </c>
       <c r="I2" t="n">
-        <v>67.91649627685547</v>
+        <v>63.62385559082031</v>
       </c>
       <c r="J2" t="n">
-        <v>665.0546875</v>
+        <v>668.9533081054688</v>
       </c>
       <c r="K2" t="n">
-        <v>132.0712280273438</v>
+        <v>130.0012512207031</v>
       </c>
     </row>
     <row r="3">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>318.8764343261719</v>
+        <v>317.6808776855469</v>
       </c>
       <c r="I3" t="n">
-        <v>98.57904052734375</v>
+        <v>96.22843933105469</v>
       </c>
       <c r="J3" t="n">
-        <v>736.2672729492188</v>
+        <v>735.6290893554688</v>
       </c>
       <c r="K3" t="n">
-        <v>140.2525482177734</v>
+        <v>138.4459838867188</v>
       </c>
     </row>
     <row r="4">
@@ -589,16 +589,16 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>371.82568359375</v>
+        <v>370.4844970703125</v>
       </c>
       <c r="I4" t="n">
-        <v>133.6446685791016</v>
+        <v>134.0886535644531</v>
       </c>
       <c r="J4" t="n">
-        <v>770.2764282226562</v>
+        <v>768.4715576171875</v>
       </c>
       <c r="K4" t="n">
-        <v>134.5087738037109</v>
+        <v>135.7771453857422</v>
       </c>
     </row>
     <row r="5">
@@ -626,16 +626,16 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>431.5136413574219</v>
+        <v>430.1194152832031</v>
       </c>
       <c r="I5" t="n">
-        <v>163.2965393066406</v>
+        <v>165.7403564453125</v>
       </c>
       <c r="J5" t="n">
-        <v>791.2455444335938</v>
+        <v>789.850341796875</v>
       </c>
       <c r="K5" t="n">
-        <v>129.869140625</v>
+        <v>133.2839202880859</v>
       </c>
     </row>
     <row r="6">
@@ -663,16 +663,16 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>508.913330078125</v>
+        <v>506.9430236816406</v>
       </c>
       <c r="I6" t="n">
-        <v>187.5648498535156</v>
+        <v>184.7118072509766</v>
       </c>
       <c r="J6" t="n">
-        <v>799.310302734375</v>
+        <v>799.323486328125</v>
       </c>
       <c r="K6" t="n">
-        <v>118.6376495361328</v>
+        <v>128.8824157714844</v>
       </c>
     </row>
     <row r="7">
@@ -700,16 +700,16 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>243.1067504882812</v>
+        <v>240.7319488525391</v>
       </c>
       <c r="I7" t="n">
-        <v>51.27751922607422</v>
+        <v>47.45710754394531</v>
       </c>
       <c r="J7" t="n">
-        <v>544.7266235351562</v>
+        <v>542.5953369140625</v>
       </c>
       <c r="K7" t="n">
-        <v>79.40019989013672</v>
+        <v>83.68305206298828</v>
       </c>
     </row>
     <row r="8">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>248.4177551269531</v>
+        <v>248.0222625732422</v>
       </c>
       <c r="I8" t="n">
-        <v>51.67500686645508</v>
+        <v>50.4533805847168</v>
       </c>
       <c r="J8" t="n">
-        <v>577.9135131835938</v>
+        <v>576.103759765625</v>
       </c>
       <c r="K8" t="n">
-        <v>89.6337890625</v>
+        <v>93.59097290039062</v>
       </c>
     </row>
     <row r="9">
@@ -774,16 +774,16 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>273.8872375488281</v>
+        <v>272.0597229003906</v>
       </c>
       <c r="I9" t="n">
-        <v>61.19286727905273</v>
+        <v>58.30237197875977</v>
       </c>
       <c r="J9" t="n">
-        <v>645.9680786132812</v>
+        <v>647.1925048828125</v>
       </c>
       <c r="K9" t="n">
-        <v>119.1264114379883</v>
+        <v>114.1751251220703</v>
       </c>
     </row>
     <row r="10">
@@ -811,16 +811,16 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>302.5239562988281</v>
+        <v>299.3919982910156</v>
       </c>
       <c r="I10" t="n">
-        <v>77.11854553222656</v>
+        <v>77.10871124267578</v>
       </c>
       <c r="J10" t="n">
-        <v>688.0834350585938</v>
+        <v>688.0810546875</v>
       </c>
       <c r="K10" t="n">
-        <v>124.4924163818359</v>
+        <v>125.4923095703125</v>
       </c>
     </row>
     <row r="11">
@@ -848,16 +848,16 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>369.9489135742188</v>
+        <v>368.4134826660156</v>
       </c>
       <c r="I11" t="n">
-        <v>134.8025970458984</v>
+        <v>136.2361907958984</v>
       </c>
       <c r="J11" t="n">
-        <v>725.572998046875</v>
+        <v>723.8133544921875</v>
       </c>
       <c r="K11" t="n">
-        <v>128.7039947509766</v>
+        <v>127.6079254150391</v>
       </c>
     </row>
     <row r="12">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>459.0213012695312</v>
+        <v>464.35009765625</v>
       </c>
       <c r="I12" t="n">
-        <v>179.2275238037109</v>
+        <v>182.2268981933594</v>
       </c>
       <c r="J12" t="n">
-        <v>744.14990234375</v>
+        <v>750.93408203125</v>
       </c>
       <c r="K12" t="n">
-        <v>129.4318542480469</v>
+        <v>125.8428955078125</v>
       </c>
     </row>
     <row r="13">
@@ -922,16 +922,16 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>568.1932373046875</v>
+        <v>573.6148071289062</v>
       </c>
       <c r="I13" t="n">
-        <v>185.7675628662109</v>
+        <v>182.5082244873047</v>
       </c>
       <c r="J13" t="n">
-        <v>763.5625610351562</v>
+        <v>758.9437255859375</v>
       </c>
       <c r="K13" t="n">
-        <v>120.8483352661133</v>
+        <v>124.207389831543</v>
       </c>
     </row>
     <row r="14">
@@ -959,16 +959,16 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>219.2848510742188</v>
+        <v>220.6630706787109</v>
       </c>
       <c r="I14" t="n">
-        <v>54.73019409179688</v>
+        <v>55.53450393676758</v>
       </c>
       <c r="J14" t="n">
-        <v>380.9835510253906</v>
+        <v>382.3633728027344</v>
       </c>
       <c r="K14" t="n">
-        <v>95.54058074951172</v>
+        <v>95.18271636962891</v>
       </c>
     </row>
     <row r="15">
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>239.3018798828125</v>
+        <v>239.0049438476562</v>
       </c>
       <c r="I15" t="n">
-        <v>48.91093063354492</v>
+        <v>47.27574157714844</v>
       </c>
       <c r="J15" t="n">
-        <v>479.7785034179688</v>
+        <v>478.3688659667969</v>
       </c>
       <c r="K15" t="n">
-        <v>89.42730712890625</v>
+        <v>88.28253936767578</v>
       </c>
     </row>
     <row r="16">
@@ -1033,16 +1033,16 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>253.9722442626953</v>
+        <v>254.1049194335938</v>
       </c>
       <c r="I16" t="n">
-        <v>43.86662292480469</v>
+        <v>45.39144515991211</v>
       </c>
       <c r="J16" t="n">
-        <v>566.1530151367188</v>
+        <v>568.7600708007812</v>
       </c>
       <c r="K16" t="n">
-        <v>104.2972183227539</v>
+        <v>99.31600189208984</v>
       </c>
     </row>
     <row r="17">
@@ -1070,16 +1070,16 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>261.3023071289062</v>
+        <v>261.4840698242188</v>
       </c>
       <c r="I17" t="n">
-        <v>50.87247467041016</v>
+        <v>50.04747772216797</v>
       </c>
       <c r="J17" t="n">
-        <v>578.3187866210938</v>
+        <v>577.8201904296875</v>
       </c>
       <c r="K17" t="n">
-        <v>100.5392074584961</v>
+        <v>96.79308319091797</v>
       </c>
     </row>
     <row r="18">
@@ -1107,16 +1107,16 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>272.3898010253906</v>
+        <v>272.0559997558594</v>
       </c>
       <c r="I18" t="n">
-        <v>54.44198608398438</v>
+        <v>48.73463439941406</v>
       </c>
       <c r="J18" t="n">
-        <v>616.9051513671875</v>
+        <v>620.9343872070312</v>
       </c>
       <c r="K18" t="n">
-        <v>117.045166015625</v>
+        <v>113.2011871337891</v>
       </c>
     </row>
     <row r="19">
@@ -1144,16 +1144,16 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>305.6417846679688</v>
+        <v>304.8645324707031</v>
       </c>
       <c r="I19" t="n">
-        <v>81.12474060058594</v>
+        <v>77.38258361816406</v>
       </c>
       <c r="J19" t="n">
-        <v>663.1736450195312</v>
+        <v>660.4755249023438</v>
       </c>
       <c r="K19" t="n">
-        <v>124.944091796875</v>
+        <v>124.4078598022461</v>
       </c>
     </row>
     <row r="20">
@@ -1181,16 +1181,16 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>372.7635498046875</v>
+        <v>375.0134887695312</v>
       </c>
       <c r="I20" t="n">
-        <v>145.904052734375</v>
+        <v>148.103271484375</v>
       </c>
       <c r="J20" t="n">
-        <v>700.1951293945312</v>
+        <v>694.0895385742188</v>
       </c>
       <c r="K20" t="n">
-        <v>127.4704055786133</v>
+        <v>128.4315643310547</v>
       </c>
     </row>
     <row r="21">
@@ -1218,16 +1218,16 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>531.1017456054688</v>
+        <v>530.7107543945312</v>
       </c>
       <c r="I21" t="n">
-        <v>181.9140777587891</v>
+        <v>181.8320617675781</v>
       </c>
       <c r="J21" t="n">
-        <v>738.5702514648438</v>
+        <v>739.5188598632812</v>
       </c>
       <c r="K21" t="n">
-        <v>138.1187591552734</v>
+        <v>140.2536926269531</v>
       </c>
     </row>
     <row r="22">
@@ -1255,16 +1255,16 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>714.7860717773438</v>
+        <v>709.9948120117188</v>
       </c>
       <c r="I22" t="n">
-        <v>135.1119689941406</v>
+        <v>134.9643859863281</v>
       </c>
       <c r="J22" t="n">
-        <v>780.58740234375</v>
+        <v>783.3051147460938</v>
       </c>
       <c r="K22" t="n">
-        <v>138.1750183105469</v>
+        <v>139.7825317382812</v>
       </c>
     </row>
     <row r="23">
@@ -1292,16 +1292,16 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>213.3329010009766</v>
+        <v>216.9151611328125</v>
       </c>
       <c r="I23" t="n">
-        <v>58.46853256225586</v>
+        <v>55.16522979736328</v>
       </c>
       <c r="J23" t="n">
-        <v>265.4916381835938</v>
+        <v>270.1119689941406</v>
       </c>
       <c r="K23" t="n">
-        <v>100.3692779541016</v>
+        <v>98.26762390136719</v>
       </c>
     </row>
     <row r="24">
@@ -1329,16 +1329,16 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>232.6520385742188</v>
+        <v>233.1593170166016</v>
       </c>
       <c r="I24" t="n">
-        <v>48.95812225341797</v>
+        <v>52.04386520385742</v>
       </c>
       <c r="J24" t="n">
-        <v>344.3047790527344</v>
+        <v>344.4704895019531</v>
       </c>
       <c r="K24" t="n">
-        <v>93.24269866943359</v>
+        <v>89.38906097412109</v>
       </c>
     </row>
     <row r="25">
@@ -1366,16 +1366,16 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>253.6731262207031</v>
+        <v>253.4278411865234</v>
       </c>
       <c r="I25" t="n">
-        <v>44.70736694335938</v>
+        <v>45.77897644042969</v>
       </c>
       <c r="J25" t="n">
-        <v>446.8790588378906</v>
+        <v>442.5906372070312</v>
       </c>
       <c r="K25" t="n">
-        <v>91.55970001220703</v>
+        <v>91.04443359375</v>
       </c>
     </row>
     <row r="26">
@@ -1403,16 +1403,16 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>264.9521484375</v>
+        <v>266.2648620605469</v>
       </c>
       <c r="I26" t="n">
-        <v>39.38545608520508</v>
+        <v>39.20908355712891</v>
       </c>
       <c r="J26" t="n">
-        <v>514.1217651367188</v>
+        <v>513.496337890625</v>
       </c>
       <c r="K26" t="n">
-        <v>93.48654937744141</v>
+        <v>89.09795379638672</v>
       </c>
     </row>
     <row r="27">
@@ -1440,16 +1440,16 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>281.4444580078125</v>
+        <v>281.0452880859375</v>
       </c>
       <c r="I27" t="n">
-        <v>43.97468185424805</v>
+        <v>44.37105560302734</v>
       </c>
       <c r="J27" t="n">
-        <v>568.6157836914062</v>
+        <v>565.7296752929688</v>
       </c>
       <c r="K27" t="n">
-        <v>107.7650375366211</v>
+        <v>108.2343673706055</v>
       </c>
     </row>
     <row r="28">
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>297.8726196289062</v>
+        <v>297.6121520996094</v>
       </c>
       <c r="I28" t="n">
-        <v>59.1263542175293</v>
+        <v>60.66362380981445</v>
       </c>
       <c r="J28" t="n">
-        <v>627.9825439453125</v>
+        <v>623.3031005859375</v>
       </c>
       <c r="K28" t="n">
-        <v>116.2199401855469</v>
+        <v>117.9755783081055</v>
       </c>
     </row>
     <row r="29">
@@ -1514,16 +1514,16 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>334.8567199707031</v>
+        <v>333.1705017089844</v>
       </c>
       <c r="I29" t="n">
-        <v>93.54335784912109</v>
+        <v>93.29756164550781</v>
       </c>
       <c r="J29" t="n">
-        <v>674.1822509765625</v>
+        <v>673.4781494140625</v>
       </c>
       <c r="K29" t="n">
-        <v>130.9585723876953</v>
+        <v>127.454948425293</v>
       </c>
     </row>
     <row r="30">
@@ -1551,16 +1551,16 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>467.9960327148438</v>
+        <v>467.818115234375</v>
       </c>
       <c r="I30" t="n">
-        <v>165.5669403076172</v>
+        <v>166.4024200439453</v>
       </c>
       <c r="J30" t="n">
-        <v>715.251220703125</v>
+        <v>715.5364379882812</v>
       </c>
       <c r="K30" t="n">
-        <v>144.9693908691406</v>
+        <v>150.423095703125</v>
       </c>
     </row>
     <row r="31">
@@ -1588,16 +1588,16 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>685.9035034179688</v>
+        <v>683.2491455078125</v>
       </c>
       <c r="I31" t="n">
-        <v>133.7207489013672</v>
+        <v>133.7633209228516</v>
       </c>
       <c r="J31" t="n">
-        <v>762.9878540039062</v>
+        <v>756.7814331054688</v>
       </c>
       <c r="K31" t="n">
-        <v>148.8191223144531</v>
+        <v>152.7556457519531</v>
       </c>
     </row>
     <row r="32">
@@ -1625,16 +1625,16 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>210.6103973388672</v>
+        <v>209.7947845458984</v>
       </c>
       <c r="I32" t="n">
-        <v>59.94884872436523</v>
+        <v>58.31872940063477</v>
       </c>
       <c r="J32" t="n">
-        <v>188.5031585693359</v>
+        <v>186.7841339111328</v>
       </c>
       <c r="K32" t="n">
-        <v>103.4421615600586</v>
+        <v>102.839714050293</v>
       </c>
     </row>
     <row r="33">
@@ -1662,16 +1662,16 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>232.5274810791016</v>
+        <v>234.9669494628906</v>
       </c>
       <c r="I33" t="n">
-        <v>51.08897018432617</v>
+        <v>51.30945587158203</v>
       </c>
       <c r="J33" t="n">
-        <v>252.0526275634766</v>
+        <v>254.8338317871094</v>
       </c>
       <c r="K33" t="n">
-        <v>105.0917510986328</v>
+        <v>105.6875076293945</v>
       </c>
     </row>
     <row r="34">
@@ -1699,16 +1699,16 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>253.8238067626953</v>
+        <v>252.9151306152344</v>
       </c>
       <c r="I34" t="n">
-        <v>47.24208450317383</v>
+        <v>49.08581161499023</v>
       </c>
       <c r="J34" t="n">
-        <v>341.6176147460938</v>
+        <v>343.8745727539062</v>
       </c>
       <c r="K34" t="n">
-        <v>104.7138366699219</v>
+        <v>101.7575607299805</v>
       </c>
     </row>
     <row r="35">
@@ -1736,16 +1736,16 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>270.1243286132812</v>
+        <v>272.1549072265625</v>
       </c>
       <c r="I35" t="n">
-        <v>39.35237503051758</v>
+        <v>40.61026763916016</v>
       </c>
       <c r="J35" t="n">
-        <v>427.9189453125</v>
+        <v>428.3258972167969</v>
       </c>
       <c r="K35" t="n">
-        <v>110.2819900512695</v>
+        <v>115.0395278930664</v>
       </c>
     </row>
     <row r="36">
@@ -1773,16 +1773,16 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>293.1115417480469</v>
+        <v>294.3851318359375</v>
       </c>
       <c r="I36" t="n">
-        <v>41.04166412353516</v>
+        <v>43.36434555053711</v>
       </c>
       <c r="J36" t="n">
-        <v>517.185546875</v>
+        <v>517.6533203125</v>
       </c>
       <c r="K36" t="n">
-        <v>118.1156616210938</v>
+        <v>119.4677276611328</v>
       </c>
     </row>
     <row r="37">
@@ -1810,16 +1810,16 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>315.012939453125</v>
+        <v>315.6910095214844</v>
       </c>
       <c r="I37" t="n">
-        <v>51.53841400146484</v>
+        <v>55.21281814575195</v>
       </c>
       <c r="J37" t="n">
-        <v>571.56298828125</v>
+        <v>569.5048828125</v>
       </c>
       <c r="K37" t="n">
-        <v>127.7149124145508</v>
+        <v>131.2654571533203</v>
       </c>
     </row>
     <row r="38">
@@ -1847,16 +1847,16 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>351.0751037597656</v>
+        <v>351.7819519042969</v>
       </c>
       <c r="I38" t="n">
-        <v>81.42292022705078</v>
+        <v>83.73973846435547</v>
       </c>
       <c r="J38" t="n">
-        <v>653.4124755859375</v>
+        <v>656.8406372070312</v>
       </c>
       <c r="K38" t="n">
-        <v>132.0984497070312</v>
+        <v>130.713623046875</v>
       </c>
     </row>
     <row r="39">
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>434.3522033691406</v>
+        <v>435.180908203125</v>
       </c>
       <c r="I39" t="n">
-        <v>123.4761581420898</v>
+        <v>126.7112045288086</v>
       </c>
       <c r="J39" t="n">
-        <v>695.7142944335938</v>
+        <v>695.7261352539062</v>
       </c>
       <c r="K39" t="n">
-        <v>141.2459869384766</v>
+        <v>147.8879852294922</v>
       </c>
     </row>
     <row r="40">
@@ -1921,16 +1921,16 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>666.1618041992188</v>
+        <v>670.181640625</v>
       </c>
       <c r="I40" t="n">
-        <v>105.8515472412109</v>
+        <v>104.5345611572266</v>
       </c>
       <c r="J40" t="n">
-        <v>728.1275024414062</v>
+        <v>721.6388549804688</v>
       </c>
       <c r="K40" t="n">
-        <v>140.5079040527344</v>
+        <v>140.4311676025391</v>
       </c>
     </row>
     <row r="41">
@@ -1958,16 +1958,16 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>213.0403137207031</v>
+        <v>213.9240570068359</v>
       </c>
       <c r="I41" t="n">
-        <v>58.41657257080078</v>
+        <v>59.92399597167969</v>
       </c>
       <c r="J41" t="n">
-        <v>144.6524963378906</v>
+        <v>142.6578216552734</v>
       </c>
       <c r="K41" t="n">
-        <v>109.1281356811523</v>
+        <v>108.062370300293</v>
       </c>
     </row>
     <row r="42">
@@ -1995,16 +1995,16 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>233.2536468505859</v>
+        <v>234.0728607177734</v>
       </c>
       <c r="I42" t="n">
-        <v>53.48283767700195</v>
+        <v>55.28145217895508</v>
       </c>
       <c r="J42" t="n">
-        <v>187.6441497802734</v>
+        <v>191.736572265625</v>
       </c>
       <c r="K42" t="n">
-        <v>113.0917510986328</v>
+        <v>109.997200012207</v>
       </c>
     </row>
     <row r="43">
@@ -2032,16 +2032,16 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>249.9809417724609</v>
+        <v>251.008544921875</v>
       </c>
       <c r="I43" t="n">
-        <v>51.43527221679688</v>
+        <v>50.06657409667969</v>
       </c>
       <c r="J43" t="n">
-        <v>225.5883331298828</v>
+        <v>222.115234375</v>
       </c>
       <c r="K43" t="n">
-        <v>114.2538452148438</v>
+        <v>114.6698989868164</v>
       </c>
     </row>
     <row r="44">
@@ -2069,16 +2069,16 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>273.3637390136719</v>
+        <v>273.3570251464844</v>
       </c>
       <c r="I44" t="n">
-        <v>42.65315246582031</v>
+        <v>42.36018753051758</v>
       </c>
       <c r="J44" t="n">
-        <v>331.5927124023438</v>
+        <v>334.3524169921875</v>
       </c>
       <c r="K44" t="n">
-        <v>121.693244934082</v>
+        <v>127.2888031005859</v>
       </c>
     </row>
     <row r="45">
@@ -2106,16 +2106,16 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>293.030517578125</v>
+        <v>293.0634765625</v>
       </c>
       <c r="I45" t="n">
-        <v>40.7509880065918</v>
+        <v>42.12886047363281</v>
       </c>
       <c r="J45" t="n">
-        <v>411.1861267089844</v>
+        <v>407.9269714355469</v>
       </c>
       <c r="K45" t="n">
-        <v>147.3650665283203</v>
+        <v>144.0243988037109</v>
       </c>
     </row>
     <row r="46">
@@ -2143,16 +2143,16 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>321.8161315917969</v>
+        <v>320.3325805664062</v>
       </c>
       <c r="I46" t="n">
-        <v>52.69596099853516</v>
+        <v>51.83528518676758</v>
       </c>
       <c r="J46" t="n">
-        <v>481.3569641113281</v>
+        <v>480.0313110351562</v>
       </c>
       <c r="K46" t="n">
-        <v>167.2474517822266</v>
+        <v>162.5095367431641</v>
       </c>
     </row>
     <row r="47">
@@ -2180,16 +2180,16 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>370.7496948242188</v>
+        <v>373.2124938964844</v>
       </c>
       <c r="I47" t="n">
-        <v>76.06667327880859</v>
+        <v>77.70292663574219</v>
       </c>
       <c r="J47" t="n">
-        <v>566.66552734375</v>
+        <v>568.2550659179688</v>
       </c>
       <c r="K47" t="n">
-        <v>158.6867828369141</v>
+        <v>155.6638488769531</v>
       </c>
     </row>
     <row r="48">
@@ -2217,16 +2217,16 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>461.0847473144531</v>
+        <v>463.8685302734375</v>
       </c>
       <c r="I48" t="n">
-        <v>115.2099990844727</v>
+        <v>114.8941421508789</v>
       </c>
       <c r="J48" t="n">
-        <v>641.678466796875</v>
+        <v>644.2015380859375</v>
       </c>
       <c r="K48" t="n">
-        <v>165.9610595703125</v>
+        <v>167.3086395263672</v>
       </c>
     </row>
     <row r="49">
@@ -2254,16 +2254,16 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>639.882568359375</v>
+        <v>640.4580078125</v>
       </c>
       <c r="I49" t="n">
-        <v>106.9084243774414</v>
+        <v>102.9487915039062</v>
       </c>
       <c r="J49" t="n">
-        <v>665.0617065429688</v>
+        <v>653.3231201171875</v>
       </c>
       <c r="K49" t="n">
-        <v>159.3489685058594</v>
+        <v>158.4605865478516</v>
       </c>
     </row>
     <row r="50">
@@ -2291,16 +2291,16 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>225.0014343261719</v>
+        <v>225.9006195068359</v>
       </c>
       <c r="I50" t="n">
-        <v>55.11643600463867</v>
+        <v>57.25382614135742</v>
       </c>
       <c r="J50" t="n">
-        <v>76.32418823242188</v>
+        <v>81.21297454833984</v>
       </c>
       <c r="K50" t="n">
-        <v>105.8988800048828</v>
+        <v>108.1030349731445</v>
       </c>
     </row>
     <row r="51">
@@ -2328,16 +2328,16 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>241.0148773193359</v>
+        <v>241.7193756103516</v>
       </c>
       <c r="I51" t="n">
-        <v>54.02042388916016</v>
+        <v>56.41501998901367</v>
       </c>
       <c r="J51" t="n">
-        <v>115.7722930908203</v>
+        <v>118.8680191040039</v>
       </c>
       <c r="K51" t="n">
-        <v>114.310791015625</v>
+        <v>120.6807250976562</v>
       </c>
     </row>
     <row r="52">
@@ -2365,16 +2365,16 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>254.7198638916016</v>
+        <v>255.9047088623047</v>
       </c>
       <c r="I52" t="n">
-        <v>53.29604721069336</v>
+        <v>51.69233703613281</v>
       </c>
       <c r="J52" t="n">
-        <v>140.1767730712891</v>
+        <v>138.0501251220703</v>
       </c>
       <c r="K52" t="n">
-        <v>122.9967346191406</v>
+        <v>126.2975463867188</v>
       </c>
     </row>
     <row r="53">
@@ -2402,16 +2402,16 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>277.6091003417969</v>
+        <v>279.9283447265625</v>
       </c>
       <c r="I53" t="n">
-        <v>47.76826095581055</v>
+        <v>47.48408889770508</v>
       </c>
       <c r="J53" t="n">
-        <v>212.2776031494141</v>
+        <v>214.733642578125</v>
       </c>
       <c r="K53" t="n">
-        <v>125.4468307495117</v>
+        <v>130.7378845214844</v>
       </c>
     </row>
     <row r="54">
@@ -2439,16 +2439,16 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>304.9867858886719</v>
+        <v>305.1026000976562</v>
       </c>
       <c r="I54" t="n">
-        <v>47.85866546630859</v>
+        <v>45.60514068603516</v>
       </c>
       <c r="J54" t="n">
-        <v>288.5425720214844</v>
+        <v>287.6853637695312</v>
       </c>
       <c r="K54" t="n">
-        <v>148.7758941650391</v>
+        <v>152.6182708740234</v>
       </c>
     </row>
     <row r="55">
@@ -2476,16 +2476,16 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>330.8445434570312</v>
+        <v>331.4251098632812</v>
       </c>
       <c r="I55" t="n">
-        <v>55.58324813842773</v>
+        <v>55.92534637451172</v>
       </c>
       <c r="J55" t="n">
-        <v>375.5280151367188</v>
+        <v>376.3649597167969</v>
       </c>
       <c r="K55" t="n">
-        <v>186.5933532714844</v>
+        <v>186.7880401611328</v>
       </c>
     </row>
     <row r="56">
@@ -2513,16 +2513,16 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>375.412353515625</v>
+        <v>376.2291259765625</v>
       </c>
       <c r="I56" t="n">
-        <v>76.03780364990234</v>
+        <v>77.82669067382812</v>
       </c>
       <c r="J56" t="n">
-        <v>442.1496276855469</v>
+        <v>445.1596984863281</v>
       </c>
       <c r="K56" t="n">
-        <v>209.6938934326172</v>
+        <v>206.0791015625</v>
       </c>
     </row>
     <row r="57">
@@ -2550,16 +2550,16 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>472.47119140625</v>
+        <v>474.0123291015625</v>
       </c>
       <c r="I57" t="n">
-        <v>116.8333511352539</v>
+        <v>114.1781234741211</v>
       </c>
       <c r="J57" t="n">
-        <v>535.5910034179688</v>
+        <v>538.6875610351562</v>
       </c>
       <c r="K57" t="n">
-        <v>205.2346343994141</v>
+        <v>205.1568908691406</v>
       </c>
     </row>
     <row r="58">
@@ -2587,16 +2587,16 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>617.954833984375</v>
+        <v>620.4677124023438</v>
       </c>
       <c r="I58" t="n">
-        <v>95.79496765136719</v>
+        <v>98.522216796875</v>
       </c>
       <c r="J58" t="n">
-        <v>565.7855834960938</v>
+        <v>576.2322387695312</v>
       </c>
       <c r="K58" t="n">
-        <v>199.9272308349609</v>
+        <v>200.3318939208984</v>
       </c>
     </row>
     <row r="59">
@@ -2624,16 +2624,16 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>245.8566131591797</v>
+        <v>249.0355224609375</v>
       </c>
       <c r="I59" t="n">
-        <v>54.84456634521484</v>
+        <v>54.45346069335938</v>
       </c>
       <c r="J59" t="n">
-        <v>29.38082695007324</v>
+        <v>25.84864807128906</v>
       </c>
       <c r="K59" t="n">
-        <v>122.6655426025391</v>
+        <v>119.7363662719727</v>
       </c>
     </row>
     <row r="60">
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>263.8830871582031</v>
+        <v>263.4789733886719</v>
       </c>
       <c r="I60" t="n">
-        <v>51.94060897827148</v>
+        <v>52.74128723144531</v>
       </c>
       <c r="J60" t="n">
-        <v>50.96960067749023</v>
+        <v>48.47505187988281</v>
       </c>
       <c r="K60" t="n">
-        <v>123.6464767456055</v>
+        <v>122.4001617431641</v>
       </c>
     </row>
     <row r="61">
@@ -2698,16 +2698,16 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>278.8199157714844</v>
+        <v>278.1849365234375</v>
       </c>
       <c r="I61" t="n">
-        <v>49.85034561157227</v>
+        <v>50.45320129394531</v>
       </c>
       <c r="J61" t="n">
-        <v>85.80039978027344</v>
+        <v>86.10865020751953</v>
       </c>
       <c r="K61" t="n">
-        <v>128.1447448730469</v>
+        <v>125.0152053833008</v>
       </c>
     </row>
     <row r="62">
@@ -2735,16 +2735,16 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>301.1549072265625</v>
+        <v>299.9385070800781</v>
       </c>
       <c r="I62" t="n">
-        <v>48.52000427246094</v>
+        <v>49.86604309082031</v>
       </c>
       <c r="J62" t="n">
-        <v>142.6770172119141</v>
+        <v>145.7274627685547</v>
       </c>
       <c r="K62" t="n">
-        <v>141.2869567871094</v>
+        <v>137.8410949707031</v>
       </c>
     </row>
     <row r="63">
@@ -2772,16 +2772,16 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>327.7724609375</v>
+        <v>329.9385986328125</v>
       </c>
       <c r="I63" t="n">
-        <v>54.98249816894531</v>
+        <v>57.74837875366211</v>
       </c>
       <c r="J63" t="n">
-        <v>224.23583984375</v>
+        <v>222.0976867675781</v>
       </c>
       <c r="K63" t="n">
-        <v>170.0399322509766</v>
+        <v>168.4034729003906</v>
       </c>
     </row>
     <row r="64">
@@ -2809,16 +2809,16 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>375.1231384277344</v>
+        <v>373.4108581542969</v>
       </c>
       <c r="I64" t="n">
-        <v>74.21274566650391</v>
+        <v>71.69544982910156</v>
       </c>
       <c r="J64" t="n">
-        <v>322.9331970214844</v>
+        <v>311.9894104003906</v>
       </c>
       <c r="K64" t="n">
-        <v>215.0677032470703</v>
+        <v>214.7017364501953</v>
       </c>
     </row>
     <row r="65">
@@ -2846,16 +2846,16 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>480.4987487792969</v>
+        <v>480.5097961425781</v>
       </c>
       <c r="I65" t="n">
-        <v>126.3219680786133</v>
+        <v>127.5762176513672</v>
       </c>
       <c r="J65" t="n">
-        <v>431.6641845703125</v>
+        <v>431.4048461914062</v>
       </c>
       <c r="K65" t="n">
-        <v>234.0127410888672</v>
+        <v>226.3823699951172</v>
       </c>
     </row>
     <row r="66">
@@ -2883,16 +2883,16 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>272.6158752441406</v>
+        <v>270.8930053710938</v>
       </c>
       <c r="I66" t="n">
-        <v>50.39268493652344</v>
+        <v>52.74136734008789</v>
       </c>
       <c r="J66" t="n">
-        <v>-37.30386352539062</v>
+        <v>-34.3477783203125</v>
       </c>
       <c r="K66" t="n">
-        <v>110.8602447509766</v>
+        <v>113.5852813720703</v>
       </c>
     </row>
     <row r="67">
@@ -2920,16 +2920,16 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>286.4729614257812</v>
+        <v>283.4356384277344</v>
       </c>
       <c r="I67" t="n">
-        <v>50.26523590087891</v>
+        <v>47.07525253295898</v>
       </c>
       <c r="J67" t="n">
-        <v>-23.16377449035645</v>
+        <v>-23.7895336151123</v>
       </c>
       <c r="K67" t="n">
-        <v>117.4543380737305</v>
+        <v>112.5155563354492</v>
       </c>
     </row>
     <row r="68">
@@ -2957,16 +2957,16 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>309.4835815429688</v>
+        <v>309.8564453125</v>
       </c>
       <c r="I68" t="n">
-        <v>46.81319808959961</v>
+        <v>48.75910949707031</v>
       </c>
       <c r="J68" t="n">
-        <v>44.8758544921875</v>
+        <v>45.44476318359375</v>
       </c>
       <c r="K68" t="n">
-        <v>134.2202453613281</v>
+        <v>135.5982055664062</v>
       </c>
     </row>
     <row r="69">
@@ -2994,16 +2994,16 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>328.8351135253906</v>
+        <v>329.6334228515625</v>
       </c>
       <c r="I69" t="n">
-        <v>53.33016967773438</v>
+        <v>51.85063552856445</v>
       </c>
       <c r="J69" t="n">
-        <v>101.6045684814453</v>
+        <v>100.6615447998047</v>
       </c>
       <c r="K69" t="n">
-        <v>150.2480316162109</v>
+        <v>152.72705078125</v>
       </c>
     </row>
     <row r="70">
@@ -3031,16 +3031,16 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>374.6815185546875</v>
+        <v>377.1947021484375</v>
       </c>
       <c r="I70" t="n">
-        <v>70.537109375</v>
+        <v>69.28760528564453</v>
       </c>
       <c r="J70" t="n">
-        <v>224.4821166992188</v>
+        <v>223.4877319335938</v>
       </c>
       <c r="K70" t="n">
-        <v>199.4528198242188</v>
+        <v>193.7543182373047</v>
       </c>
     </row>
   </sheetData>
